--- a/AfDD_2023_List_of_indicators.xlsx
+++ b/AfDD_2023_List_of_indicators.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="1" r:id="rId1"/>

--- a/AfDD_2023_List_of_indicators.xlsx
+++ b/AfDD_2023_List_of_indicators.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B68001F-86C8-4EBF-BFA3-E0CD96C3815F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA257030-A687-4F1C-B87A-C1234448568F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{D7959572-49DD-4C74-ABBB-457DBAD20A08}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{637BCF8B-15F0-4C14-9149-B8347D132A3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="1" r:id="rId1"/>
@@ -164,8 +164,7 @@
     <t>RealGDPGrowth</t>
   </si>
   <si>
-    <t>Table 1
-Table 2</t>
+    <t>Table 1 Table 2</t>
   </si>
   <si>
     <t>Real GDP growth (%)</t>
@@ -212,8 +211,7 @@
     <t>EmpRateTot</t>
   </si>
   <si>
-    <t>Table 1
-Table 7</t>
+    <t>Table 1 Table 7</t>
   </si>
   <si>
     <t>Employment as a % of population 15+</t>
@@ -231,8 +229,7 @@
     <t>GINI</t>
   </si>
   <si>
-    <t>Table 1
-Table 9</t>
+    <t>Table 1 Table 9</t>
   </si>
   <si>
     <t>Gini coefficient (World Bank estimate)</t>
@@ -259,8 +256,7 @@
     <t>HDI</t>
   </si>
   <si>
-    <t>Table 1
-Table 10</t>
+    <t>Table 1 Table 10</t>
   </si>
   <si>
     <t>Human development index (HDI)</t>
@@ -1523,8 +1519,7 @@
     <t>TotExpPerGDP</t>
   </si>
   <si>
-    <t>Table 18
-Table 19</t>
+    <t>Table 18 Table 19</t>
   </si>
   <si>
     <t>Value of total exports of goods and services as a % of GDP</t>
@@ -4451,7 +4446,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{2FBD6220-83E5-436B-B72A-0FA3E2FD1A2C}">
+    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{3E643AE8-6FC9-4C2B-8F3D-6207754FD7A5}">
       <tableStyleElement type="wholeTable" dxfId="22"/>
       <tableStyleElement type="headerRow" dxfId="21"/>
       <tableStyleElement type="firstRowStripe" dxfId="20"/>
@@ -4469,25 +4464,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{535EF869-695A-48DC-82D8-C6835F95CD5E}" name="Table36" displayName="Table36" ref="B3:R340" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{071546CF-8841-4822-9B58-8348BE64A983}" name="Table36" displayName="Table36" ref="B3:R340" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{27386F5E-8026-4245-BF99-A080384F77B8}" name="Indicator Code" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{860F74BA-278A-4329-AD9B-F495E760D2FD}" name="Table" dataDxfId="15" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{E71EA3EB-C2E5-4837-A8C4-5E0FE0CF0671}" name="Indicator Name" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{7F5E9852-8205-41AC-A1C8-63EAD2C8F48E}" name="Indicator description" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{789EEDED-5958-487D-B155-2E2FA3982BA1}" name="Unit of measure" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{6D335397-AAE2-41F8-9AB8-7D099956AC08}" name="Scale" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{345748A2-95F4-48F6-9A4F-F79F25090E7D}" name="Calculation used in aggregation" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{86BE2AFE-21FC-43AD-B6AC-202D4576D26E}" name="Weight used in aggregation" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{EA60A2FF-5661-463D-ACA5-6DCB501A533C}" name="Years covered by data" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{941F2432-ACA0-4515-B87E-800559BFE201}" name="Reference year for coverage statistics" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{5CC19050-653B-4535-9B30-FA874358CBFB}" name="Data coverage - % of African countries" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{650A1A32-08CB-437B-91B6-7DD9E7E8C3A7}" name="Data coverage - % of population of African countries" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{066C752A-5541-400F-91AC-23E9F9E3C8BC}" name="Data coverage - % of GDP (in PPP dollars) of African countries" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{FEF49066-E65C-4A63-9B91-ED2A52DA3C20}" name="Data coverage - % of non-African countries" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{AF7A9223-64DD-42E6-B3AC-B134462017B1}" name="Data coverage - % of population of non-African countries" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{459D4361-40FB-43AE-927C-576EFEF18F6D}" name="Data coverage - % of GDP in PPP dollars of non-African countries" dataDxfId="1"/>
-    <tableColumn id="17" xr3:uid="{D2E4EA2E-1C00-4685-9551-079D5AE9EC6A}" name="Source" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{8F831BCB-842D-4E1B-ADF4-0EE1C5761241}" name="Indicator Code" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{F2D8383E-31CF-42D8-9C91-9CEF9EDC293D}" name="Table" dataDxfId="15" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{3B3E52BE-B5F3-4E90-BAA9-E4E203E6E3AC}" name="Indicator Name" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{BCD708BB-E42A-4F73-BCB7-160AEBC6979B}" name="Indicator description" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{91F4BBF7-473A-4C55-9F56-0FBF6405EBEE}" name="Unit of measure" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{A2DA4A4D-8F10-47E9-A395-3D37CD1D2CBB}" name="Scale" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{2D3DCC68-1E07-47FD-8F3C-B823C7655590}" name="Calculation used in aggregation" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{FC9F5129-3AA6-4E54-97C7-D0D6087D67EB}" name="Weight used in aggregation" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{CE7A5118-387A-44BA-9DC2-81AA79697AF2}" name="Years covered by data" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{D7FFC534-3159-4A6D-AAA3-FE5DB6ADE94A}" name="Reference year for coverage statistics" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{A6341A9A-52C4-48DD-85A0-A368E1EF87F6}" name="Data coverage - % of African countries" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{33AD10D6-FB89-42EB-BB5B-17EEA485759E}" name="Data coverage - % of population of African countries" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{D168F114-57EC-43C2-81E5-B76CD645829B}" name="Data coverage - % of GDP (in PPP dollars) of African countries" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{680D361F-6878-4BA8-BB8D-B87A0E43713C}" name="Data coverage - % of non-African countries" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{63D037CF-EC83-48B6-B4EF-8480D863EEA9}" name="Data coverage - % of population of non-African countries" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{CF91284F-D655-46E6-B378-D7952BCEA7AF}" name="Data coverage - % of GDP in PPP dollars of non-African countries" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{3FC8335D-1AF7-4A8E-80AA-2F8952FB1013}" name="Source" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="AfDD Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4789,8 +4784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674D8469-32F4-4311-959A-177609DCF986}">
-  <sheetPr codeName="Sheet21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{878B963A-E431-4FE1-AF8E-EB22CF3FE8D4}">
   <dimension ref="A1:R350"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
@@ -22909,10 +22903,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contents!A1" display="Back to Contents" xr:uid="{FDBA3E7F-C681-42EC-8B4E-74DDA70CB340}"/>
-    <hyperlink ref="B342" r:id="rId1" xr:uid="{B69931CE-F445-4AD6-BEFA-74EECC07BA99}"/>
-    <hyperlink ref="B345" r:id="rId2" xr:uid="{43AC0C82-740D-433B-8778-0D662C41BC14}"/>
-    <hyperlink ref="B344" r:id="rId3" xr:uid="{4016D35F-9362-40FC-87B5-F1A193095D02}"/>
+    <hyperlink ref="B1" location="Contents!A1" display="Back to Contents" xr:uid="{4C033A59-CEFC-4EB1-B3E5-89CED5312686}"/>
+    <hyperlink ref="B342" r:id="rId1" xr:uid="{050FC7D0-2A64-4C6B-BB4A-E354237A46A1}"/>
+    <hyperlink ref="B345" r:id="rId2" xr:uid="{45894A36-0665-480F-8CE2-1414EC91DBBE}"/>
+    <hyperlink ref="B344" r:id="rId3" xr:uid="{F1A6CA55-EAD0-4384-B478-3A22CDBC8F01}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/AfDD_2023_List_of_indicators.xlsx
+++ b/AfDD_2023_List_of_indicators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4609DFEE-A460-4A35-B99C-932A49EE0ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3288083-3ED6-4A8F-8AAE-47260465883E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{45B52C8A-4A32-4D60-A402-BCEDDFB21DAB}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{1ECF0596-D97F-4E5E-B266-C5BAAF1F5947}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
     <t>Population (thousands)</t>
   </si>
   <si>
-    <t>From the 2022 Revision of World Population Prospects, UN Department of Economic and Social Affairs. Population in a country, area or region as of 1 July of the year indicated. Figures up to 2021 are estimates. Figures from 2022 onwards are projections under the medium fertility variant scenario. For more information, see: https://population.un.org/wpp/</t>
+    <t>From the 2022 Revision of World Population Prospects, UN Department of Economic and Social Affairs. Population in a country, area or region as of 1 July of the year indicated. Figures up to 2022 are estimates. Figures from 2022 onwards are projections under the medium fertility variant scenario. For more information, see: https://population.un.org/wpp/</t>
   </si>
   <si>
     <t>Persons</t>
@@ -122,7 +122,7 @@
     <t>1989-2050</t>
   </si>
   <si>
-    <t>.</t>
+    <t>..</t>
   </si>
   <si>
     <t>World Population Prospects: the 2022 Revision, UN</t>
@@ -134,7 +134,7 @@
     <t>Nominal gross domestic product in purchasing-power-parity dollars (millions)</t>
   </si>
   <si>
-    <t>From the World Economic Outlook. The purchasing power parity (PPP) valuation refers to the adjustment of GDP estimates to eliminate the effect of differences in consumer price levels between countries on the differences in GDP estimates. This creates a theoretical value of GDP in US dollars in each country in the case where a US dollar has the same purchasing power in every country. These figures are used to compare different countries, but are not valid for comparisons between different years since they do not reflect real economic growth. Figures up to 2021 are estimates. Figures from 2022 onwards are projections. See the Statistical Appendix to the latest World Economic Outlook for more information: https://www.imf.org/en/publications/weo</t>
+    <t>From the World Economic Outlook. The purchasing power parity (PPP) valuation refers to the adjustment of GDP estimates to eliminate the effect of differences in consumer price levels between countries on the differences in GDP estimates. This creates a theoretical value of GDP in US dollars in each country in the case where a US dollar has the same purchasing power in every country. These figures are used to compare different countries, but are not valid for comparisons between different years since they do not reflect real economic growth. Figures up to 2022 are estimates. Figures from 2022 onwards are projections. See the Statistical Appendix to the latest World Economic Outlook for more information: https://www.imf.org/en/publications/weo</t>
   </si>
   <si>
     <t>PPP dollars</t>
@@ -155,7 +155,7 @@
     <t>Gross domestic product in U.S. dollars (millions)</t>
   </si>
   <si>
-    <t>From the World Economic Outlook. Figures up to 2021 are estimates. Figures from 2022 onwards are projections. See the Statistical Appendix to the latest World Economic Outlook for more information: https://www.imf.org/en/publications/weo</t>
+    <t>From the World Economic Outlook. Figures up to 2022 are estimates. Figures from 2022 onwards are projections. See the Statistical Appendix to the latest World Economic Outlook for more information: https://www.imf.org/en/publications/weo</t>
   </si>
   <si>
     <t>US dollars</t>
@@ -170,7 +170,7 @@
     <t>Real GDP growth (%)</t>
   </si>
   <si>
-    <t>From the World Economic Outlook. Figures up to 2021 are estimates. Figures from 2022 onwards are projections. Growth in constant-dollar GDP. See the Statistical Appendix to the latest World Economic Outlook for more information: https://www.imf.org/en/publications/weo</t>
+    <t>From the World Economic Outlook. Figures up to 2022 are estimates. Figures from 2022 onwards are projections. Growth in constant-dollar GDP. See the Statistical Appendix to the latest World Economic Outlook for more information: https://www.imf.org/en/publications/weo</t>
   </si>
   <si>
     <t>Percentage</t>
@@ -208,7 +208,7 @@
     <t>Index</t>
   </si>
   <si>
-    <t/>
+    <t>Median</t>
   </si>
   <si>
     <t>EmpRateTot</t>
@@ -295,7 +295,7 @@
     <t>Population growth (%)</t>
   </si>
   <si>
-    <t>Population in a country, area or region as of 1 July of the year indicated. Figures up to 2021 are estimates, figures for years after 2022 are projections under the medium fertility variant scenario. For more information, see: http://www.un.org/en/development/desa/population/</t>
+    <t>Population in a country, area or region as of 1 July of the year indicated. Figures up to 2022 are estimates, figures for years after 2022 are projections under the medium fertility variant scenario. For more information, see: http://www.un.org/en/development/desa/population/</t>
   </si>
   <si>
     <t>1990-2030</t>
@@ -328,7 +328,7 @@
     <t>Urban Population (thousands)</t>
   </si>
   <si>
-    <t>United Nations Department of Economic and Social Affairs Population Division estimates. Urban populations are as of 1 July of the year indicated. Figures up to 2021 are estimates, figures for years after 2022 are projections under the medium fertility variant scenario. Annual figures are interpolations of World Urbanization Prospects estimates produced on a five-year basis. For more information, see: https://population.un.org/wup/</t>
+    <t>United Nations Department of Economic and Social Affairs Population Division estimates. Urban populations are as of 1 July of the year indicated. Figures up to 2022 are estimates, figures for years after 2022 are projections under the medium fertility variant scenario. Annual figures are interpolations of World Urbanization Prospects estimates produced on a five-year basis. For more information, see: https://population.un.org/wup/</t>
   </si>
   <si>
     <t>2000-2050</t>
@@ -343,7 +343,7 @@
     <t>Rural Population (thousands)</t>
   </si>
   <si>
-    <t>United Nations Department of Economic and Social Affairs Population Division estimates. Rural populations are as of 1 July of the year indicated. Figures up to 2021 are estimates, figures for years after 2022 are projections under the medium fertility variant scenario. Annual figures are interpolations of World Population Prospects estimates produced on a five-year basis. For more information, see: https://population.un.org/wup/</t>
+    <t>United Nations Department of Economic and Social Affairs Population Division estimates. Rural populations are as of 1 July of the year indicated. Figures up to 2022 are estimates, figures for years after 2022 are projections under the medium fertility variant scenario. Annual figures are interpolations of World Population Prospects estimates produced on a five-year basis. For more information, see: https://population.un.org/wup/</t>
   </si>
   <si>
     <t>IntermCitPop</t>
@@ -352,7 +352,7 @@
     <t>Population living in urban agglomerations of 300,000 to 1 million inhabitants (thousands)</t>
   </si>
   <si>
-    <t>Author's calculations based on the World Urbanization Prospects 2018, from UN Department of Economic and Social Affairs (UNDESA).  Sum of population estimates for individual cities with populations reported between 300,000 and 1 million. Populations are as of 1 July of the year indicated. Figures are reported by the UNDESA on a five-year-basis, so interpolation is used to produce annual figures. https://population.un.org/wup/</t>
+    <t>Author's calculations based on the World Urbanization Prospects 2022, from UN Department of Economic and Social Affairs (UNDESA).  Sum of population estimates for individual cities with populations reported between 300,000 and 1 million. Populations are as of 1 July of the year indicated. Figures are reported by the UNDESA on a five-year-basis, so interpolation is used to produce annual figures. https://population.un.org/wup/</t>
   </si>
   <si>
     <t>2000-2030</t>
@@ -376,7 +376,7 @@
     <t>Population living in urban agglomerations of over 1 million inhabitants (thousands)</t>
   </si>
   <si>
-    <t>Author's calculations based on the World Urbanization Prospects 2018, from UN Department of Economic and Social Affairs (UNDESA).  Sum of population estimates for individual cities with populations reported over 1 million. Populations are as of 1 July of the year indicated. Figures are reported by the UNDESA on a five-year-basis, so interpolation is used to produce annual figures. https://population.un.org/wup/</t>
+    <t>Author's calculations based on the World Urbanization Prospects 2022, from UN Department of Economic and Social Affairs (UNDESA).  Sum of population estimates for individual cities with populations reported over 1 million. Populations are as of 1 July of the year indicated. Figures are reported by the UNDESA on a five-year-basis, so interpolation is used to produce annual figures. https://population.un.org/wup/</t>
   </si>
   <si>
     <t>PrimCitNum</t>
@@ -394,7 +394,7 @@
     <t>Old-age dependency ratio 65+/(15-64)*100</t>
   </si>
   <si>
-    <t>United Nations Department of Economic and Social Affairs Population Division estimates. Ratio of estimated population aged 65 years and over to the estimated population aged between 15 and 64 years inclusive, multiplied by 100. Annual figures are interpolations of World Population Prospects estimates produced on a five-year basis. Figures up to 2020 are estimates. Figures after 2020 are projections using the medium variant scenario. Annual figures are interpolations of World Population Prospects estimates produced on a five-year basis. For more information, see: https://population.un.org/wpp/</t>
+    <t>United Nations Department of Economic and Social Affairs Population Division estimates. Ratio of estimated population aged 65 years and over to the estimated population aged between 15 and 64 years inclusive, multiplied by 100. Annual figures are interpolations of World Population Prospects estimates produced on a five-year basis. Figures up to 2022 are estimates. Figures after 2022 are projections using the medium variant scenario. Annual figures are interpolations of World Population Prospects estimates produced on a five-year basis. For more information, see: https://population.un.org/wpp/</t>
   </si>
   <si>
     <t>Ratio</t>
@@ -463,7 +463,7 @@
     <t>Youth literacy rate, population 15-24 years, adjusted gender parity index (GPIA)</t>
   </si>
   <si>
-    <t>From UNESCO Institute for Statistics, Sustainable Development Goals 1 and 4: 4.6.2 Youth/adult literacy rate The adjusted ratio of female to male values of for youth literacy in the population 15-24 years old. A Gender Parity Index (GPI) equal to 1 indicates parity between females and males. In general, a value less than 1 indicates a disparity in favour of boys and a value greater than 1 indicates a disparity in favour of girls. However, the interpretation should be in the other way round for indicators that should ideally approach 0% (e.g. repetition, dropout, illiteracy rates, etc). In these cases, a GPI of less than 1 indicates a disparity in favour of girls and a value greater than 1 indicates a disparity in favour of boys. Starting in September 2020, all parity indices are calculated with the formula for adjusted gender parity indices (GPIA). The unadjusted parity index does not indicate whether improvement or regression is due to the performance of one of the groups. The default calculation method for the parity index yields an indicator that is not symmetrical around 1 and that has no upper limit. This limitation can be overcome with a simple transformation, by inverting ratios that exceed 1 and subtracting them from 2. This adjusted parity index is symmetrical around 1 and lies in the range 0-2, which makes interpretation easier. For more information, see: http://data.uis.unesco.org/</t>
+    <t>From UNESCO Institute for Statistics, Sustainable Development Goals 1 and 4: 4.6.2 Youth/adult literacy rate The adjusted ratio of female to male values of for youth literacy in the population 15-24 years old. A Gender Parity Index (GPI) equal to 1 indicates parity between females and males. In general, a value less than 1 indicates a disparity in favour of boys and a value greater than 1 indicates a disparity in favour of girls. However, the interpretation should be in the other way round for indicators that should ideally approach 0% (e.g. repetition, dropout, illiteracy rates, etc). In these cases, a GPI of less than 1 indicates a disparity in favour of girls and a value greater than 1 indicates a disparity in favour of boys. Starting in September 2022, all parity indices are calculated with the formula for adjusted gender parity indices (GPIA). The unadjusted parity index does not indicate whether improvement or regression is due to the performance of one of the groups. The default calculation method for the parity index yields an indicator that is not symmetrical around 1 and that has no upper limit. This limitation can be overcome with a simple transformation, by inverting ratios that exceed 1 and subtracting them from 2. This adjusted parity index is symmetrical around 1 and lies in the range 0-2, which makes interpretation easier. For more information, see: http://data.uis.unesco.org/</t>
   </si>
   <si>
     <t>LitRt15T99</t>
@@ -499,7 +499,7 @@
     <t>Adult literacy rate, population 15+ years, adjusted gender parity index (GPIA)</t>
   </si>
   <si>
-    <t>From UNESCO Institute for Statistics, Sustainable Development Goals 1 and 4: 4.6.2 Youth/adult literacy rate The adjusted ratio of female to male values of the adult literacy rate. Gender parity index (GPI): A GPI equal to 1 indicates parity between females and males. In general, a value less than 1 indicates a disparity in favour of males and a value greater than 1 indicates a disparity in favour of females. However, the interpretation should be in the other way round for indicators that should ideally approach 0% (e.g. repetition, dropout, illiteracy rates, etc). In these cases, a GPI of less than 1 indicates a disparity in favour of females and a value greater than 1 indicates a disparity in favour of males. Starting in September 2020, all parity indices are calculated with the formula for adjusted gender parity indices (GPIA). The unadjusted parity index does not indicate whether improvement or regression is due to the performance of one of the groups. The default calculation method for the parity index yields an indicator that is not symmetrical around 1 and that has no upper limit. This limitation can be overcome with a simple transformation, by inverting ratios that exceed 1 and subtracting them from 2. This adjusted parity index is symmetrical around 1 and lies in the range 0-2, which makes interpretation easier. For more information, see: http://data.uis.unesco.org/</t>
+    <t>From UNESCO Institute for Statistics, Sustainable Development Goals 1 and 4: 4.6.2 Youth/adult literacy rate The adjusted ratio of female to male values of the adult literacy rate. Gender parity index (GPI): A GPI equal to 1 indicates parity between females and males. In general, a value less than 1 indicates a disparity in favour of males and a value greater than 1 indicates a disparity in favour of females. However, the interpretation should be in the other way round for indicators that should ideally approach 0% (e.g. repetition, dropout, illiteracy rates, etc). In these cases, a GPI of less than 1 indicates a disparity in favour of females and a value greater than 1 indicates a disparity in favour of males. Starting in September 2022, all parity indices are calculated with the formula for adjusted gender parity indices (GPIA). The unadjusted parity index does not indicate whether improvement or regression is due to the performance of one of the groups. The default calculation method for the parity index yields an indicator that is not symmetrical around 1 and that has no upper limit. This limitation can be overcome with a simple transformation, by inverting ratios that exceed 1 and subtracting them from 2. This adjusted parity index is symmetrical around 1 and lies in the range 0-2, which makes interpretation easier. For more information, see: http://data.uis.unesco.org/</t>
   </si>
   <si>
     <t>EmpRateFemale</t>
@@ -1258,7 +1258,7 @@
     <t>General government revenue as a % of GDP</t>
   </si>
   <si>
-    <t>From the World Economic Outlook. According to the IMF's Government Finance Statistics Manual 2014, "Revenue is an increase in net worth resulting from a transaction. The major types of revenue are taxes, social contributions, grants, and other revenue." Figures up to 2021 are estimates. Figures from 2022 onwards are projections. For more information, see: https://www.imf.org/external/Pubs/FT/GFS/Manual/2014/gfsfinal.pdf</t>
+    <t>From the World Economic Outlook. According to the IMF's Government Finance Statistics Manual 2014, "Revenue is an increase in net worth resulting from a transaction. The major types of revenue are taxes, social contributions, grants, and other revenue." Figures up to 2022 are estimates. Figures from 2022 onwards are projections. For more information, see: https://www.imf.org/external/Pubs/FT/GFS/Manual/2014/gfsfinal.pdf</t>
   </si>
   <si>
     <t>TaxPerGDP</t>
@@ -1267,7 +1267,7 @@
     <t>General government taxes as a % of GDP</t>
   </si>
   <si>
-    <t>From the World Economic Outlook. According to the IMF's Government Finance Statistics Manual 2014, "Taxes are compulsory, unrequited amounts receivable by government units from institutional units. Taxes can be receivable in cash or in kind. By its nature, only a government unit can receive revenue in the form of taxes." Figures up to 2021 are estimates. Figures from 2022 onwards are projections. For more information, see: https://www.imf.org/external/Pubs/FT/GFS/Manual/2014/gfsfinal.pdf</t>
+    <t>From the World Economic Outlook. According to the IMF's Government Finance Statistics Manual 2014, "Taxes are compulsory, unrequited amounts receivable by government units from institutional units. Taxes can be receivable in cash or in kind. By its nature, only a government unit can receive revenue in the form of taxes." Figures up to 2022 are estimates. Figures from 2022 onwards are projections. For more information, see: https://www.imf.org/external/Pubs/FT/GFS/Manual/2014/gfsfinal.pdf</t>
   </si>
   <si>
     <t>GovGrantsPerGDP</t>
@@ -1276,7 +1276,7 @@
     <t>General government revenue, grants as a % of GDP</t>
   </si>
   <si>
-    <t>From the World Economic Outlook. According to the IMF's Government Finance Statistics Manual 2014, "Grants (13) are transfers receivable by government units from other resident or nonresident government units or international organizations, and that do not meet the defi nition of a tax, subsidy, or social contribution." Figures up to 2021 are estimates. Figures from 2022 onwards are projections. For more information, see: https://www.imf.org/external/Pubs/FT/GFS/Manual/2014/gfsfinal.pdf</t>
+    <t>From the World Economic Outlook. According to the IMF's Government Finance Statistics Manual 2014, "Grants (13) are transfers receivable by government units from other resident or nonresident government units or international organizations, and that do not meet the defi nition of a tax, subsidy, or social contribution." Figures up to 2022 are estimates. Figures from 2022 onwards are projections. For more information, see: https://www.imf.org/external/Pubs/FT/GFS/Manual/2014/gfsfinal.pdf</t>
   </si>
   <si>
     <t>GovExpendPerGDP</t>
@@ -1285,7 +1285,7 @@
     <t>General government expenditure as a % of GDP</t>
   </si>
   <si>
-    <t>From the World Economic Outlook. Figures up to 2021 are estimates. Figures from 2022 onwards are projections. See the Statistical Appendix to the latest World Economic Outlook for more information: https://www.imf.org/en/Publications/WEO/Issues/2019/10/01/world-economic-outlook-october-2019</t>
+    <t>From the World Economic Outlook. Figures up to 2022 are estimates. Figures from 2022 onwards are projections. See the Statistical Appendix to the latest World Economic Outlook for more information: https://www.imf.org/en/Publications/WEO/Issues/2019/10/01/world-economic-outlook-october-2019</t>
   </si>
   <si>
     <t>GovGrossDebtPerGDP</t>
@@ -1294,37 +1294,37 @@
     <t>General government gross debt as a % of GDP</t>
   </si>
   <si>
-    <t>From the World Economic Outlook. Figures up to 2021 are estimates. Figures from 2022 onwards are projections. See the Statistical Appendix to the latest World Economic Outlook for more information: https://www.imf.org/external/Pubs/FT/GFS/Manual/2014/gfsfinal.pdf</t>
+    <t>From the World Economic Outlook. Figures up to 2022 are estimates. Figures from 2022 onwards are projections. See the Statistical Appendix to the latest World Economic Outlook for more information: https://www.imf.org/external/Pubs/FT/GFS/Manual/2014/gfsfinal.pdf</t>
   </si>
   <si>
     <t>GovRevUSD</t>
   </si>
   <si>
-    <t>General government revenue (millions of USD), 2021</t>
+    <t>General government revenue (millions of USD), 2022</t>
   </si>
   <si>
     <t>TaxUSD</t>
   </si>
   <si>
-    <t>General government taxes (millions of USD), 2021</t>
+    <t>General government taxes (millions of USD), 2022</t>
   </si>
   <si>
     <t>GovGrantsUSD</t>
   </si>
   <si>
-    <t>General government revenue, grants (millions of USD), 2021</t>
+    <t>General government revenue, grants (millions of USD), 2022</t>
   </si>
   <si>
     <t>GovExpendUSD</t>
   </si>
   <si>
-    <t>General government expenditure (millions of USD), 2021</t>
+    <t>General government expenditure (millions of USD), 2022</t>
   </si>
   <si>
     <t>GovGrossDebtUSD</t>
   </si>
   <si>
-    <t>General government gross debt (millions of USD), 2021</t>
+    <t>General government gross debt (millions of USD), 2022</t>
   </si>
   <si>
     <t>ExpUnproc</t>
@@ -1828,7 +1828,7 @@
   <si>
     <t>From the online Investment and Capital Stock Dataset (ICSD) maintained by the International Monetary Fund (IMF), divided by GDP in US dollars from the World Economic Outlook.
 Tthis dataset provides data for investment and capital stock for the general government, private sector and public-private partnerships, across the Fund member countries. The IMF measures public investment using gross fixed capital formation (GFCF) of the general government (central and subnational governments). Gross fixed capital formation is defined as the total value of acquisitions less disposals, of fixed assets (produced assets that are used repeatedly or continuously in the production process for more than a year and include tangible and non-tangible assets), plus certain specified expenditure on services that adds to the value of non-produced assets. This approach for measuring public investment allows for the use of the comparable data available for a large number of countries but ignores alternative modes by which governments support overall investment.
-Data calculations are based on macro-fiscal indicators compiled from sources including the OECD Database, National Accounts data from the Penn World Tables (PWT), Eurostat and the IMF World Economic Outlook (WEO). For more information, please see : https://infrastructuregovern.imf.org/content/dam/PIMA/Knowledge-Hub/dataset/InvestmentandCapitalStockDatabaseUserManualandFAQ_May2021.pdf</t>
+Data calculations are based on macro-fiscal indicators compiled from sources including the OECD Database, National Accounts data from the Penn World Tables (PWT), Eurostat and the IMF World Economic Outlook (WEO). For more information, please see : https://infrastructuregovern.imf.org/content/dam/PIMA/Knowledge-Hub/dataset/InvestmentandCapitalStockDatabaseUserManualandFAQ_May2022.pdf</t>
   </si>
   <si>
     <t>IMF Investment and Capital Stock Dataset (IMF ICSD) (retrieved 20/12/2022)</t>
@@ -1842,7 +1842,7 @@
   <si>
     <t>From the online Investment and Capital Stock Dataset (ICSD) maintained by the International Monetary Fund (IMF), divided by GDP in US dollars from the World Economic Outlook.
 This dataset provides data for investment and capital stock for the general government, private sector and public-private partnerships, across the Fund member countries. Public-private partnerships (PPPs) refer to arrangements where the private sector supplies infrastructure assets and services that traditionally have been provided by the government. Compiling a comparable database for PPPs proves difficult since (i) project deals’ databases do not always provide complete or comparable information; (ii) annualized PPP investment spending data are lacking for most countries; and (iii) there is no consistent standard framework to classify PPPs as public or private in the national accounts. 
-Data are compiled from total PPP projects commitments (rather than annualized investment flows) taken from the European Investment Bank’s European PPP Expertise Centre (EPEC) for European countries and the World Bank Private Participation in Infrastructure (WB PPI) database for low- and middle-income countries. For more information, please see : https://infrastructuregovern.imf.org/content/dam/PIMA/Knowledge-Hub/dataset/InvestmentandCapitalStockDatabaseUserManualandFAQ_May2021.pdf</t>
+Data are compiled from total PPP projects commitments (rather than annualized investment flows) taken from the European Investment Bank’s European PPP Expertise Centre (EPEC) for European countries and the World Bank Private Participation in Infrastructure (WB PPI) database for low- and middle-income countries. For more information, please see : https://infrastructuregovern.imf.org/content/dam/PIMA/Knowledge-Hub/dataset/InvestmentandCapitalStockDatabaseUserManualandFAQ_May2022.pdf</t>
   </si>
   <si>
     <t>IPRIVPGD</t>
@@ -1853,7 +1853,7 @@
   <si>
     <t>From the online Investment and Capital Stock Dataset (ICSD) maintained by the International Monetary Fund (IMF), divided by GDP in US dollars from the World Economic Outlook.
 This dataset provides data for investment and capital stock for the general government, private sector and public-private partnerships, across the Fund member countries. The IMF measures private investment using gross fixed capital formation (GFCF) of the private sector. Gross fixed capital formation is defined as the total value of acquisitions less disposals, of fixed assets (produced assets that are used repeatedly or continuously in the production process for more than a year and include tangible and non-tangible assets), plus certain specified expenditure on services that adds to the value of non-produced assets.
-Data calculations are based on macro-fiscal indicators compiled from sources including the OECD Database, National Accounts data from the Penn World Tables (PWT), Eurostat and the IMF World Economic Outlook (WEO). For more information, please see : https://infrastructuregovern.imf.org/content/dam/PIMA/Knowledge-Hub/dataset/InvestmentandCapitalStockDatabaseUserManualandFAQ_May2021.pdf</t>
+Data calculations are based on macro-fiscal indicators compiled from sources including the OECD Database, National Accounts data from the Penn World Tables (PWT), Eurostat and the IMF World Economic Outlook (WEO). For more information, please see : https://infrastructuregovern.imf.org/content/dam/PIMA/Knowledge-Hub/dataset/InvestmentandCapitalStockDatabaseUserManualandFAQ_May2022.pdf</t>
   </si>
   <si>
     <t>KGOVPGD</t>
@@ -1864,7 +1864,7 @@
   <si>
     <t>From the online Investment and Capital Stock Dataset (ICSD) maintained by the Statistics Department (STA) of the International Monetary Fund (IMF), divided by GDP in US dollars from the World Economic Outlook.
 This dataset provides data for investment and capital stock for the general government, private sector and public-private partnerships, across the Fund member countries. The perpetual inventory method is used to construct capital stocks series, with inputs being the investment flow series, the initial capital stock, and the size and time profile of the depreciation rate.The investment flow data are transformed into “real cost” (constant 2017 USD) using purchasing power parities from the International Comparison Program (ICP). After making assumptions on depreciation rates and on the initial capital stock, based on academic literature, the net “real cost” stocks (constant 2017 USD) is estimated. 
-Data calculations are based on macro-fiscal indicators compiled from sources including the OECD Database, National Accounts data from the Penn World Tables (PWT), Eurostat and the IMF World Economic Outlook (WEO). For more information, please see : https://infrastructuregovern.imf.org/content/dam/PIMA/Knowledge-Hub/dataset/InvestmentandCapitalStockDatabaseUserManualandFAQ_May2021.pdf</t>
+Data calculations are based on macro-fiscal indicators compiled from sources including the OECD Database, National Accounts data from the Penn World Tables (PWT), Eurostat and the IMF World Economic Outlook (WEO). For more information, please see : https://infrastructuregovern.imf.org/content/dam/PIMA/Knowledge-Hub/dataset/InvestmentandCapitalStockDatabaseUserManualandFAQ_May2022.pdf</t>
   </si>
   <si>
     <t>KPPPPGD</t>
@@ -1876,7 +1876,7 @@
     <t>From the online Investment and Capital Stock Dataset (ICSD) maintained by the Statistics Department (STA) of the International Monetary Fund (IMF), divided by GDP in US dollars from the World Economic Outlook.
 This dataset provides data for investment and capital stock for the general government, private sector and public-private partnerships, across the Fund member countries. The perpetual inventory method is used to construct capital stocks series, with inputs being the investment flow series, the initial capital stock, and the size and time profile of the depreciation rate.The investment flow data are transformed into “real cost” (constant 2017 USD) using purchasing power parities from the International Comparison Program (ICP). After making assumptions on depreciation rates and on the initial capital stock, based on academic literature, the net “real cost” stocks (constant 2017 USD) is estimated. Due to the lack of long-time series on PPPs, further assumptions on depreciation rates and on the initial capital stock have to be made.
 Data are compiled from total PPP projects commitments (rather than annualized investment flows) taken from the European Investment Bank’s European PPP Expertise Centre (EPEC) for European countries and the World Bank Private Participation in Infrastructure (WB PPI) database for low- and middle-income countries. For more information, please see :
- https://infrastructuregovern.imf.org/content/dam/PIMA/Knowledge-Hub/dataset/InvestmentandCapitalStockDatabaseUserManualandFAQ_May2021.pdf</t>
+ https://infrastructuregovern.imf.org/content/dam/PIMA/Knowledge-Hub/dataset/InvestmentandCapitalStockDatabaseUserManualandFAQ_May2022.pdf</t>
   </si>
   <si>
     <t>KPRIVPGD</t>
@@ -1893,7 +1893,7 @@
   <si>
     <t>From the online Investment and Capital Stock Dataset (ICSD) maintained by the Statistics Department (STA) of the International Monetary Fund (IMF).
 This dataset provides data for investment and capital stock for the general government, private sector and public-private partnerships, across the Fund member countries. The IMF measures public investment using gross fixed capital formation (GFCF) of the general government (central and subnational governments). Gross fixed capital formation is defined as the total value of acquisitions less disposals, of fixed assets (produced assets that are used repeatedly or continuously in the production process for more than a year and include tangible and non-tangible assets), plus certain specified expenditure on services that adds to the value of non-produced assets. This approach for measuring public investment allows for the use of the comparable data available for a large number of countries but ignores alternative modes by which governments support overall investment.
-Data calculations are based on macro-fiscal indicators compiled from sources including the OECD Database, National Accounts data from the Penn World Tables (PWT), Eurostat and the IMF World Economic Outlook (WEO). For more information, please see : https://infrastructuregovern.imf.org/content/dam/PIMA/Knowledge-Hub/dataset/InvestmentandCapitalStockDatabaseUserManualandFAQ_May2021.pdf</t>
+Data calculations are based on macro-fiscal indicators compiled from sources including the OECD Database, National Accounts data from the Penn World Tables (PWT), Eurostat and the IMF World Economic Outlook (WEO). For more information, please see : https://infrastructuregovern.imf.org/content/dam/PIMA/Knowledge-Hub/dataset/InvestmentandCapitalStockDatabaseUserManualandFAQ_May2022.pdf</t>
   </si>
   <si>
     <t>IPRIVUSD</t>
@@ -1904,7 +1904,7 @@
   <si>
     <t>From the online Investment and Capital Stock Dataset (ICSD) maintained by the Statistics Department (STA) of the International Monetary Fund (IMF).
 This dataset provides data for investment and capital stock for the general government, private sector and public-private partnerships, across the Fund member countries. The IMF measures private investment using gross fixed capital formation (GFCF) of the private sector. Gross fixed capital formation is defined as the total value of acquisitions less disposals, of fixed assets (produced assets that are used repeatedly or continuously in the production process for more than a year and include tangible and non-tangible assets), plus certain specified expenditure on services that adds to the value of non-produced assets.
-Data calculations are based on macro-fiscal indicators compiled from sources including the OECD Database, National Accounts data from the Penn World Tables (PWT), Eurostat and the IMF World Economic Outlook (WEO). For more information, please see : https://infrastructuregovern.imf.org/content/dam/PIMA/Knowledge-Hub/dataset/InvestmentandCapitalStockDatabaseUserManualandFAQ_May2021.pdf</t>
+Data calculations are based on macro-fiscal indicators compiled from sources including the OECD Database, National Accounts data from the Penn World Tables (PWT), Eurostat and the IMF World Economic Outlook (WEO). For more information, please see : https://infrastructuregovern.imf.org/content/dam/PIMA/Knowledge-Hub/dataset/InvestmentandCapitalStockDatabaseUserManualandFAQ_May2022.pdf</t>
   </si>
   <si>
     <t>KGOVUSD</t>
@@ -1915,7 +1915,7 @@
   <si>
     <t>From the online Investment and Capital Stock Dataset (ICSD) maintained by the Statistics Department (STA) of the International Monetary Fund (IMF).
 This dataset provides data for investment and capital stock for the general government, private sector and public-private partnerships, across the Fund member countries. The perpetual inventory method is used to construct capital stocks series, with inputs being the investment flow series, the initial capital stock, and the size and time profile of the depreciation rate.The investment flow data are transformed into “real cost” (constant 2017 USD) using purchasing power parities from the International Comparison Program (ICP). After making assumptions on depreciation rates and on the initial capital stock, based on academic literature, the net “real cost” stocks (constant 2017 USD) is estimated. 
-Data calculations are based on macro-fiscal indicators compiled from sources including the OECD Database, National Accounts data from the Penn World Tables (PWT), Eurostat and the IMF World Economic Outlook (WEO). For more information, please see : https://infrastructuregovern.imf.org/content/dam/PIMA/Knowledge-Hub/dataset/InvestmentandCapitalStockDatabaseUserManualandFAQ_May2021.pdf</t>
+Data calculations are based on macro-fiscal indicators compiled from sources including the OECD Database, National Accounts data from the Penn World Tables (PWT), Eurostat and the IMF World Economic Outlook (WEO). For more information, please see : https://infrastructuregovern.imf.org/content/dam/PIMA/Knowledge-Hub/dataset/InvestmentandCapitalStockDatabaseUserManualandFAQ_May2022.pdf</t>
   </si>
   <si>
     <t>KPPPUSD</t>
@@ -1926,7 +1926,7 @@
   <si>
     <t>From the online Investment and Capital Stock Dataset (ICSD) maintained by the Statistics Department (STA) of the International Monetary Fund (IMF).
 This dataset provides data for investment and capital stock for the general government, private sector and public-private partnerships, across the Fund member countries. The perpetual inventory method is used to construct capital stocks series, with inputs being the investment flow series, the initial capital stock, and the size and time profile of the depreciation rate.The investment flow data are transformed into “real cost” (constant 2017 USD) using purchasing power parities from the International Comparison Program (ICP). After making assumptions on depreciation rates and on the initial capital stock, based on academic literature, the net “real cost” stocks (constant 2017 USD) is estimated. Due to the lack of long-time series on PPPs, further assumptions on depreciation rates and on the initial capital stock have to be made.
-Data are compiled from total PPP projects commitments (rather than annualized investment flows) taken from the European Investment Bank’s European PPP Expertise Centre (EPEC) for European countries and the World Bank Private Participation in Infrastructure (WB PPI) database for low- and middle-income countries. For more information, please see : https://infrastructuregovern.imf.org/content/dam/PIMA/Knowledge-Hub/dataset/InvestmentandCapitalStockDatabaseUserManualandFAQ_May2021.pdf</t>
+Data are compiled from total PPP projects commitments (rather than annualized investment flows) taken from the European Investment Bank’s European PPP Expertise Centre (EPEC) for European countries and the World Bank Private Participation in Infrastructure (WB PPI) database for low- and middle-income countries. For more information, please see : https://infrastructuregovern.imf.org/content/dam/PIMA/Knowledge-Hub/dataset/InvestmentandCapitalStockDatabaseUserManualandFAQ_May2022.pdf</t>
   </si>
   <si>
     <t>KPRIVUSD</t>
@@ -2048,7 +2048,7 @@
   </si>
   <si>
     <t>From the online data portal FAOSTAT maintained by the Statistics Division of the Food and Agriculture Organization of the United Nations (FAO): the FAOSTAT domain "Land Cover" contains statistics of land cover area, aggregated at national level and by land cover category following the international land cover standard classification of the United Nations System of Environmental-Economic Accounting Central Framework (UN SEEA 2012). 
-Data are compiled by national aggregation of geospatial information which is distributed via publicly available Global Land Cover mapping products (GLC): a) MODIS land cover types based on the Land Cover Classification System, LCCS (2001–2018) and b) the European Spatial Agency (ESA) Climate Change Initiative (CCI) annual land cover maps (1992–2018) produced by the Université catholique de Louvain (UCL)-Geomatics and now under the European Copernicus Program. For more information, please see : https://fenixservices.fao.org/faostat/static/documents/LC/LC_e.pdf</t>
+Data are compiled by national aggregation of geospatial information which is distributed via publicly available Global Land Cover mapping products (GLC): a) MODIS land cover types based on the Land Cover Classification System, LCCS (2001–2022) and b) the European Spatial Agency (ESA) Climate Change Initiative (CCI) annual land cover maps (1992–2022) produced by the Université catholique de Louvain (UCL)-Geomatics and now under the European Copernicus Program. For more information, please see : https://fenixservices.fao.org/faostat/static/documents/LC/LC_e.pdf</t>
   </si>
   <si>
     <t>AgricLand</t>
@@ -2113,7 +2113,7 @@
   </si>
   <si>
     <t>From the online data portal FAOSTAT maintained by the Statistics Division of the Food and Agriculture Organization of the United Nations (FAO): the domain "Forests" disseminates information on activity data (hectares of forestland area) and CO2 emissions and removals corresponding to forest carbon stock changes (aboveground and belowground living biomass). 
-Estimates are computed following the 2006 IPCC Guidelines for National greenhouse gas Inventories (IPCC, 2006). Data from the Forest Resources Assessment 2020 (FAO, 2020) are used as input.Activity data are sourced from the most recently available GHG National Inventories (NGHGI) or from National Communications. Emission data are sourced directly from the UNFCCC data portal or from Biennial Update Reports (BURs). For more information, please see : https://fenixservices.fao.org/faostat/static/documents/GF/GF_e.pdf</t>
+Estimates are computed following the 2006 IPCC Guidelines for National greenhouse gas Inventories (IPCC, 2006). Data from the Forest Resources Assessment 2022 (FAO, 2022) are used as input.Activity data are sourced from the most recently available GHG National Inventories (NGHGI) or from National Communications. Emission data are sourced directly from the UNFCCC data portal or from Biennial Update Reports (BURs). For more information, please see : https://fenixservices.fao.org/faostat/static/documents/GF/GF_e.pdf</t>
   </si>
   <si>
     <t>kilotonnes</t>
@@ -2444,7 +2444,7 @@
   </si>
   <si>
     <t>Author's calculations based on the World Bank World Development Indicators and IMF World Economic Outlook.
-Cost of damage due to carbon dioxide emissions from fossil fuel use and the manufacture of cement, estimated to be US$40 per ton of CO2 (the unit damage in 2017 US dollars for CO2 emitted in 2020) times the number of tons of CO2 emitted.
+Cost of damage due to carbon dioxide emissions from fossil fuel use and the manufacture of cement, estimated to be US$40 per ton of CO2 (the unit damage in 2017 US dollars for CO2 emitted in 2022) times the number of tons of CO2 emitted.
 This indicator was estimated by World Bank staff based on sources and methods in World Bank's "The Changing Wealth of Nations: Measuring Sustainable Development in the New Millennium" (2011) and was reported as part of their Adjusted Net Savings database. 
 Figures as a percentage of GDP are calculated by taking the carbon dioxide damage in US dollars as reported in the World Development Indicators and dividing this by the GDP in US dollars reported in the IMF World Economic Outlook.
 For more information, please see: https://documents1.worldbank.org/curated/en/630181468339656734/pdf/588470PUB0Weal101public10BOX353816B.pdf</t>
@@ -2637,7 +2637,7 @@
     <t>Urban population with access to electricity (thousands)</t>
   </si>
   <si>
-    <t>Author's calculations from World Development Indicators and population estimates from 2022 Revision of World Population Prospects and World Urbanization Prospects 2018.
+    <t>Author's calculations from World Development Indicators and population estimates from 2022 Revision of World Population Prospects and World Urbanization Prospects 2022.
 The urban population with access to electricity in thousands is estimated using data collected from industry, national surveys and international sources.
 For more information, please see: https://pip.worldbank.org/home</t>
   </si>
@@ -2648,7 +2648,7 @@
     <t>Rural population with access to electricity (thousands)</t>
   </si>
   <si>
-    <t>Author's calculations from World Development Indicators and population estimates from 2022 Revision of World Population Prospects and World Urbanization Prospects 2018.
+    <t>Author's calculations from World Development Indicators and population estimates from 2022 Revision of World Population Prospects and World Urbanization Prospects 2022.
 The rural population with access to electricity in thousands is estimated using data collected from industry, national surveys and international sources.
 For more information, please see: https://pip.worldbank.org/home</t>
   </si>
@@ -2670,7 +2670,7 @@
     <t>Percentage of urban population with access to electricity</t>
   </si>
   <si>
-    <t>Author's calculations from World Development Indicators and population estimates from 2022 Revision of World Population Prospects and World Urbanization Prospects 2018.
+    <t>Author's calculations from World Development Indicators and population estimates from 2022 Revision of World Population Prospects and World Urbanization Prospects 2022.
 The percentage of the urban population with access to electricity in thousands is estimated using data collected from industry, national surveys and international sources.
 For more information, please see: https://pip.worldbank.org/home</t>
   </si>
@@ -2681,7 +2681,7 @@
     <t>Percentage of rural population with access to electricity</t>
   </si>
   <si>
-    <t>Author's calculations from World Development Indicators and population estimates from 2022 Revision of World Population Prospects and World Urbanization Prospects 2018.
+    <t>Author's calculations from World Development Indicators and population estimates from 2022 Revision of World Population Prospects and World Urbanization Prospects 2022.
 The percentage of the rural population with access to electricity in thousands is estimated using data collected from industry, national surveys and international sources.
 For more information, please see: https://pip.worldbank.org/home</t>
   </si>
@@ -2702,12 +2702,12 @@
     <t>PUBFINSOLAR</t>
   </si>
   <si>
-    <t>Public flows into solar power in millions of 2020 USD</t>
-  </si>
-  <si>
-    <t>Public flows into solar power in millions of 2020 USD are from IRENASTAT Online Data Query Tool. 
+    <t>Public flows into solar power in millions of 2022 USD</t>
+  </si>
+  <si>
+    <t>Public flows into solar power in millions of 2022 USD are from IRENASTAT Online Data Query Tool. 
 Solar includes photovoltaic (PV) (both utility scale and rooftop solar PV), concentrated solar power and solar heating systems (e.g. solar water heaters).
-According to IRENA: "Public flows (2020 USD million) are the financial flows in the form of commitments originating from public institutions like governments, multilateral development banks and other public finance institutions. A commitment represents a legal contract to mobilise financial funds directed to one or more countries. These flows are corrected for currency exchange rates and inflation to a base year of 2020. As a result, figures for all years are reported in millions of 2020 international USD. These flows include as much information as possible, but are not exhaustive of all global flows originated from public institutions."
+According to IRENA: "Public flows (2022 USD million) are the financial flows in the form of commitments originating from public institutions like governments, multilateral development banks and other public finance institutions. A commitment represents a legal contract to mobilise financial funds directed to one or more countries. These flows are corrected for currency exchange rates and inflation to a base year of 2022. As a result, figures for all years are reported in millions of 2022 international USD. These flows include as much information as possible, but are not exhaustive of all global flows originated from public institutions."
 Data calculated from DAC Statistics database, 2022 (OECD) and IRENA Public Finance Database.
 For more information, please see: https://mc-cd8320d4-36a1-40ac-83cc-3389-cdn-endpoint.azureedge.net/-/media/Files/IRENA/Agency/Publication/2023/Feb/IRENA_Global_Landscape_Renewable_Energy_Finance_2023_Methodology.pdf?rev=aef90c7ec1864f8db755d109bc02ed77</t>
   </si>
@@ -2721,12 +2721,12 @@
     <t>PUBFINWIND</t>
   </si>
   <si>
-    <t>Public flows into wind power in millions of 2020 USD</t>
-  </si>
-  <si>
-    <t>Public flows into wind power in millions of 2020 USD are from IRENASTAT Online Data Query Tool. 
+    <t>Public flows into wind power in millions of 2022 USD</t>
+  </si>
+  <si>
+    <t>Public flows into wind power in millions of 2022 USD are from IRENASTAT Online Data Query Tool. 
 Wind includes both onshore and offshore wind.
-According to IRENA: "Public flows (2020 USD million) are the financial flows in the form of commitments originating from public institutions like governments, multilateral development banks and other public finance institutions. A commitment represents a legal contract to mobilise financial funds directed to one or more countries. These flows are corrected for currency exchange rates and inflation to a base year. In this case, 2019 international USD, resulting in millions of 2019 USD. These flows include as much information as possible, but are not exhaustive of all global flows originated from public institutions."
+According to IRENA: "Public flows (2022 USD million) are the financial flows in the form of commitments originating from public institutions like governments, multilateral development banks and other public finance institutions. A commitment represents a legal contract to mobilise financial funds directed to one or more countries. These flows are corrected for currency exchange rates and inflation to a base year. In this case, 2019 international USD, resulting in millions of 2019 USD. These flows include as much information as possible, but are not exhaustive of all global flows originated from public institutions."
 Data calculated from DAC Statistics database, 2022 (OECD) and IRENA Public Finance Database.
 For more information, please see: https://mc-cd8320d4-36a1-40ac-83cc-3389-cdn-endpoint.azureedge.net/-/media/Files/IRENA/Agency/Publication/2023/Feb/IRENA_Global_Landscape_Renewable_Energy_Finance_2023_Methodology.pdf?rev=aef90c7ec1864f8db755d109bc02ed77</t>
   </si>
@@ -2734,11 +2734,11 @@
     <t>PUBFINGEO</t>
   </si>
   <si>
-    <t>Public flows into geothermal energy in millions of 2020 USD</t>
-  </si>
-  <si>
-    <t>Public flows into geothermal power in millions of 2020 USD are from IRENASTAT Online Data Query Tool. 
-According to IRENA: "Public flows (2020 USD million) are the financial flows in the form of commitments originating from public institutions like governments, multilateral development banks and other public finance institutions. A commitment represents a legal contract to mobilise financial funds directed to one or more countries. These flows are corrected for currency exchange rates and inflation to a base year. In this case, 2019 international USD, resulting in millions of 2019 USD. These flows include as much information as possible, but are not exhaustive of all global flows originated from public institutions."
+    <t>Public flows into geothermal energy in millions of 2022 USD</t>
+  </si>
+  <si>
+    <t>Public flows into geothermal power in millions of 2022 USD are from IRENASTAT Online Data Query Tool. 
+According to IRENA: "Public flows (2022 USD million) are the financial flows in the form of commitments originating from public institutions like governments, multilateral development banks and other public finance institutions. A commitment represents a legal contract to mobilise financial funds directed to one or more countries. These flows are corrected for currency exchange rates and inflation to a base year. In this case, 2019 international USD, resulting in millions of 2019 USD. These flows include as much information as possible, but are not exhaustive of all global flows originated from public institutions."
 Data calculated from DAC Statistics database, 2022 (OECD) and IRENA Public Finance Database.
 For more information, please see: https://mc-cd8320d4-36a1-40ac-83cc-3389-cdn-endpoint.azureedge.net/-/media/Files/IRENA/Agency/Publication/2023/Feb/IRENA_Global_Landscape_Renewable_Energy_Finance_2023_Methodology.pdf?rev=aef90c7ec1864f8db755d109bc02ed77</t>
   </si>
@@ -2746,11 +2746,11 @@
     <t>PUBFINHYDRO</t>
   </si>
   <si>
-    <t>Public flows into renewable hydropower in millions of 2020 USD</t>
-  </si>
-  <si>
-    <t>Public flows into hydropower in millions of 2020 USD are from IRENASTAT Online Data Query Tool. 
-According to IRENA: "Public flows (2020 USD million) are the financial flows in the form of commitments originating from public institutions like governments, multilateral development banks and other public finance institutions. A commitment represents a legal contract to mobilise financial funds directed to one or more countries. These flows are corrected for currency exchange rates and inflation to a base year. In this case, 2019 international USD, resulting in millions of 2019 USD. These flows include as much information as possible, but are not exhaustive of all global flows originated from public institutions."
+    <t>Public flows into renewable hydropower in millions of 2022 USD</t>
+  </si>
+  <si>
+    <t>Public flows into hydropower in millions of 2022 USD are from IRENASTAT Online Data Query Tool. 
+According to IRENA: "Public flows (2022 USD million) are the financial flows in the form of commitments originating from public institutions like governments, multilateral development banks and other public finance institutions. A commitment represents a legal contract to mobilise financial funds directed to one or more countries. These flows are corrected for currency exchange rates and inflation to a base year. In this case, 2019 international USD, resulting in millions of 2019 USD. These flows include as much information as possible, but are not exhaustive of all global flows originated from public institutions."
 Data calculated from DAC Statistics database, 2022 (OECD) and IRENA Public Finance Database.
 For more information, please see: https://mc-cd8320d4-36a1-40ac-83cc-3389-cdn-endpoint.azureedge.net/-/media/Files/IRENA/Agency/Publication/2023/Feb/IRENA_Global_Landscape_Renewable_Energy_Finance_2023_Methodology.pdf?rev=aef90c7ec1864f8db755d109bc02ed77</t>
   </si>
@@ -2758,12 +2758,12 @@
     <t>PUBFINBIOF</t>
   </si>
   <si>
-    <t>Public flows into biofuels in millions of 2020 USD</t>
-  </si>
-  <si>
-    <t>Public flows into biofuels in millions of 2020 USD are from IRENASTAT Online Data Query Tool.
+    <t>Public flows into biofuels in millions of 2022 USD</t>
+  </si>
+  <si>
+    <t>Public flows into biofuels in millions of 2022 USD are from IRENASTAT Online Data Query Tool.
 Biofuels includes biodiesel, bioethanol and biomethane.
-According to IRENA: "Public flows (2020 USD million) are the financial flows in the form of commitments originating from public institutions like governments, multilateral development banks and other public finance institutions. A commitment represents a legal contract to mobilise financial funds directed to one or more countries. These flows are corrected for currency exchange rates and inflation to a base year. In this case, 2019 international USD, resulting in millions of 2019 USD. These flows include as much information as possible, but are not exhaustive of all global flows originated from public institutions."
+According to IRENA: "Public flows (2022 USD million) are the financial flows in the form of commitments originating from public institutions like governments, multilateral development banks and other public finance institutions. A commitment represents a legal contract to mobilise financial funds directed to one or more countries. These flows are corrected for currency exchange rates and inflation to a base year. In this case, 2019 international USD, resulting in millions of 2019 USD. These flows include as much information as possible, but are not exhaustive of all global flows originated from public institutions."
 Data calculated from DAC Statistics database, 2022 (OECD) and IRENA Public Finance Database.
 For more information, please see: https://mc-cd8320d4-36a1-40ac-83cc-3389-cdn-endpoint.azureedge.net/-/media/Files/IRENA/Agency/Publication/2023/Feb/IRENA_Global_Landscape_Renewable_Energy_Finance_2023_Methodology.pdf?rev=aef90c7ec1864f8db755d109bc02ed77</t>
   </si>
@@ -2771,11 +2771,11 @@
     <t>PUBFINOTHREN</t>
   </si>
   <si>
-    <t>Public flows into renewable energy n.e.s. in millions of 2020 USD</t>
-  </si>
-  <si>
-    <t>Public flows into renewable energy not elsewhere specified in millions of 2020 USD are from IRENASTAT Online Data Query Tool.
-According to IRENA: "Public flows (2020 USD million) are the financial flows in the form of commitments originating from public institutions like governments, multilateral development banks and other public finance institutions. A commitment represents a legal contract to mobilise financial funds directed to one or more countries. These flows are corrected for currency exchange rates and inflation to a base year. In this case, 2019 international USD, resulting in millions of 2019 USD. These flows include as much information as possible, but are not exhaustive of all global flows originated from public institutions."
+    <t>Public flows into renewable energy n.e.s. in millions of 2022 USD</t>
+  </si>
+  <si>
+    <t>Public flows into renewable energy not elsewhere specified in millions of 2022 USD are from IRENASTAT Online Data Query Tool.
+According to IRENA: "Public flows (2022 USD million) are the financial flows in the form of commitments originating from public institutions like governments, multilateral development banks and other public finance institutions. A commitment represents a legal contract to mobilise financial funds directed to one or more countries. These flows are corrected for currency exchange rates and inflation to a base year. In this case, 2019 international USD, resulting in millions of 2019 USD. These flows include as much information as possible, but are not exhaustive of all global flows originated from public institutions."
 Data calculated from DAC Statistics database, 2022 (OECD) and IRENA Public Finance Database.
 For more information, please see: https://mc-cd8320d4-36a1-40ac-83cc-3389-cdn-endpoint.azureedge.net/-/media/Files/IRENA/Agency/Publication/2023/Feb/IRENA_Global_Landscape_Renewable_Energy_Finance_2023_Methodology.pdf?rev=aef90c7ec1864f8db755d109bc02ed77</t>
   </si>
@@ -2783,11 +2783,11 @@
     <t>PUBFINNUCL</t>
   </si>
   <si>
-    <t>Public flows into nuclear power in millions of 2020 USD</t>
-  </si>
-  <si>
-    <t>Public flows into renewable power in millions of 2020 USD are from IRENASTAT Online Data Query Tool.
-According to IRENA: "Public flows (2020 USD million) are the financial flows in the form of commitments originating from public institutions like governments, multilateral development banks and other public finance institutions. A commitment represents a legal contract to mobilise financial funds directed to one or more countries. These flows are corrected for currency exchange rates and inflation to a base year. In this case, 2019 international USD, resulting in millions of 2019 USD. These flows include as much information as possible, but are not exhaustive of all global flows originated from public institutions."
+    <t>Public flows into nuclear power in millions of 2022 USD</t>
+  </si>
+  <si>
+    <t>Public flows into renewable power in millions of 2022 USD are from IRENASTAT Online Data Query Tool.
+According to IRENA: "Public flows (2022 USD million) are the financial flows in the form of commitments originating from public institutions like governments, multilateral development banks and other public finance institutions. A commitment represents a legal contract to mobilise financial funds directed to one or more countries. These flows are corrected for currency exchange rates and inflation to a base year. In this case, 2019 international USD, resulting in millions of 2019 USD. These flows include as much information as possible, but are not exhaustive of all global flows originated from public institutions."
 Data calculated from DAC Statistics database, 2022 (OECD) and IRENA Public Finance Database.
 For more information, please see: https://mc-cd8320d4-36a1-40ac-83cc-3389-cdn-endpoint.azureedge.net/-/media/Files/IRENA/Agency/Publication/2023/Feb/IRENA_Global_Landscape_Renewable_Energy_Finance_2023_Methodology.pdf?rev=aef90c7ec1864f8db755d109bc02ed77</t>
   </si>
@@ -2795,11 +2795,11 @@
     <t>PUBFINFOSS</t>
   </si>
   <si>
-    <t>Public flows into fossil fuels in millions of 2020 USD</t>
-  </si>
-  <si>
-    <t>Public flows into fossil fuels in millions of 2020 USD are from IRENASTAT Online Data Query Tool.
-According to IRENA: "Public flows (2020 USD million) are the financial flows in the form of commitments originating from public institutions like governments, multilateral development banks and other public finance institutions. A commitment represents a legal contract to mobilise financial funds directed to one or more countries. These flows are corrected for currency exchange rates and inflation to a base year. In this case, 2019 international USD, resulting in millions of 2019 USD. These flows include as much information as possible, but are not exhaustive of all global flows originated from public institutions."
+    <t>Public flows into fossil fuels in millions of 2022 USD</t>
+  </si>
+  <si>
+    <t>Public flows into fossil fuels in millions of 2022 USD are from IRENASTAT Online Data Query Tool.
+According to IRENA: "Public flows (2022 USD million) are the financial flows in the form of commitments originating from public institutions like governments, multilateral development banks and other public finance institutions. A commitment represents a legal contract to mobilise financial funds directed to one or more countries. These flows are corrected for currency exchange rates and inflation to a base year. In this case, 2019 international USD, resulting in millions of 2019 USD. These flows include as much information as possible, but are not exhaustive of all global flows originated from public institutions."
 Data calculated from DAC Statistics database, 2022 (OECD) and IRENA Public Finance Database.
 For more information, please see: https://mc-cd8320d4-36a1-40ac-83cc-3389-cdn-endpoint.azureedge.net/-/media/Files/IRENA/Agency/Publication/2023/Feb/IRENA_Global_Landscape_Renewable_Energy_Finance_2023_Methodology.pdf?rev=aef90c7ec1864f8db755d109bc02ed77</t>
   </si>
@@ -3356,10 +3356,10 @@
     <t>NatCapLD</t>
   </si>
   <si>
-    <t>National wealth, agricultural lands (billions of constant 2018 international dollars)</t>
-  </si>
-  <si>
-    <t>Total national wealth included within agricultural land. Figures are measured at market exchange rates in constant 2018 dollars, using country-specific GDP deflators. Based on an estimation of comprehensive national wealth by the World Bank for its report The Changing Wealth of Nations 2021.
+    <t>National wealth, agricultural lands (billions of constant 2022 international dollars)</t>
+  </si>
+  <si>
+    <t>Total national wealth included within agricultural land. Figures are measured at market exchange rates in constant 2022 dollars, using country-specific GDP deflators. Based on an estimation of comprehensive national wealth by the World Bank for its report The Changing Wealth of Nations 2022.
 Agricultural land consists of cropland and pastureland. The value of cropland and pastureland is calculated as the present value of crop and pasture rents, discounted over 100 years. Future crop production is based on projections of the yields of 10 major crops which together comprise 83 percent of calories produced. For pastureland, the value of rents from livestock is assumed to grow at a rate of 1.475 percent for low and middle-income countries, and 0.445 percent for high-income countries.
 According to the World Bank "a nation's wealth consists of a diverse portfolio of assets, which together form the productive base of the national economy." The estimates are based on the theory that an asset's value is equal to the discounted sum of net benefits it generates over its lifetime. The net present value for renewable and nonrenewable natural capital is calculated using a discount of 4% for all resouces and for all years. The lifetime of natural capital is capped at 100 years.
 Total national wealth is calculated as the sum of natural capital, produced capital, human capital and net foreign assets.
@@ -3367,7 +3367,7 @@
 Produced capital includes machinery, structures, equipment and urban land.
 Human capital is the present value of future earnings for the working population over their lifetimes.
 Net foreign assets is foreign assets minus foreign liabilities.
-For more details, please consult the methodology called "Changing Wealth of Nations 2021: Methods and Data" which can be consulted at the following link: https://datacatalog.worldbank.org/dataset/wealth-accounting</t>
+For more details, please consult the methodology called "Changing Wealth of Nations 2022: Methods and Data" which can be consulted at the following link: https://datacatalog.worldbank.org/dataset/wealth-accounting</t>
   </si>
   <si>
     <t>2018 dollars</t>
@@ -3385,10 +3385,10 @@
     <t>NatCapCO</t>
   </si>
   <si>
-    <t>National wealth, coal (billions of constant 2018 international dollars)</t>
-  </si>
-  <si>
-    <t>Total national wealth included within national coal resources. Figures are measured at market exchange rates in constant 2018 dollars, using country-specific GDP deflators. Based on an estimation of comprehensive national wealth by the World Bank for its report The Changing Wealth of Nations 2021.
+    <t>National wealth, coal (billions of constant 2022 international dollars)</t>
+  </si>
+  <si>
+    <t>Total national wealth included within national coal resources. Figures are measured at market exchange rates in constant 2022 dollars, using country-specific GDP deflators. Based on an estimation of comprehensive national wealth by the World Bank for its report The Changing Wealth of Nations 2022.
 The value of coal in the World Bank wealth accounts is calculated as the expected rents that can be extracted from the resource until it is exhausted. Rents are assumed to be constant, and are calculated based on data annual production, commodity prices, production costs, and the size of reserves.
 According to the World Bank "a nation's wealth consists of a diverse portfolio of assets, which together form the productive base of the national economy." The estimates are based on the theory that an asset's value is equal to the discounted sum of net benefits it generates over its lifetime. The net present value for renewable and nonrenewable natural capital is calculated using a discount of 4% for all resouces and for all years. The lifetime of natural capital is capped at 100 years.
 Total national wealth is calculated as the sum of natural capital, produced capital, human capital and net foreign assets.
@@ -3396,16 +3396,16 @@
 Produced capital includes machinery, structures, equipment and urban land.
 Human capital is the present value of future earnings for the working population over their lifetimes.
 Net foreign assets is foreign assets minus foreign liabilities.
-For more details, please consult the methodology called "Changing Wealth of Nations 2021: Methods and Data" which can be consulted at the following link: https://datacatalog.worldbank.org/dataset/wealth-accounting</t>
+For more details, please consult the methodology called "Changing Wealth of Nations 2022: Methods and Data" which can be consulted at the following link: https://datacatalog.worldbank.org/dataset/wealth-accounting</t>
   </si>
   <si>
     <t>NatCapCL</t>
   </si>
   <si>
-    <t>National wealth, cropland (billions of constant 2018 international dollars)</t>
-  </si>
-  <si>
-    <t>Total national wealth included within its marine fisheries. Figures are measured at market exchange rates in constant 2018 dollars, using country-specific GDP deflators. Based on an estimation of comprehensive national wealth by the World Bank for its report The Changing Wealth of Nations 2021.
+    <t>National wealth, cropland (billions of constant 2022 international dollars)</t>
+  </si>
+  <si>
+    <t>Total national wealth included within its marine fisheries. Figures are measured at market exchange rates in constant 2022 dollars, using country-specific GDP deflators. Based on an estimation of comprehensive national wealth by the World Bank for its report The Changing Wealth of Nations 2022.
 The value of the wealth included within marine fisheries is calculated using the present value of the discounted rents extracted from fisheries stock over 100 years. The calculations use data on the landed value of catches from the Sea Around Us (SAU) project, on the price of fish by species, and fishing costs.
 According to the World Bank "a nation's wealth consists of a diverse portfolio of assets, which together form the productive base of the national economy." The estimates are based on the theory that an asset's value is equal to the discounted sum of net benefits it generates over its lifetime. The net present value for renewable and nonrenewable natural capital is calculated using a discount of 4% for all resouces and for all years. The lifetime of natural capital is capped at 100 years.
 Total national wealth is calculated as the sum of natural capital, produced capital, human capital and net foreign assets.
@@ -3413,16 +3413,16 @@
 Produced capital includes machinery, structures, equipment and urban land.
 Human capital is the present value of future earnings for the working population over their lifetimes.
 Net foreign assets is foreign assets minus foreign liabilities.
-For more details, please consult the methodology called "Changing Wealth of Nations 2021: Methods and Data" which can be consulted at the following link: https://datacatalog.worldbank.org/dataset/wealth-accounting</t>
+For more details, please consult the methodology called "Changing Wealth of Nations 2022: Methods and Data" which can be consulted at the following link: https://datacatalog.worldbank.org/dataset/wealth-accounting</t>
   </si>
   <si>
     <t>NatCapFS</t>
   </si>
   <si>
-    <t>National wealth, fisheries (billions of constant 2018 international dollars)</t>
-  </si>
-  <si>
-    <t>Total national wealth included within cropland. Figures are measured at market exchange rates in constant 2018 dollars, using country-specific GDP deflators. Based on an estimation of comprehensive national wealth by the World Bank for its report The Changing Wealth of Nations 2021.
+    <t>National wealth, fisheries (billions of constant 2022 international dollars)</t>
+  </si>
+  <si>
+    <t>Total national wealth included within cropland. Figures are measured at market exchange rates in constant 2022 dollars, using country-specific GDP deflators. Based on an estimation of comprehensive national wealth by the World Bank for its report The Changing Wealth of Nations 2022.
 Agricultural land consists of cropland and pastureland. The value of cropland and pastureland is calculated as the present value of crop and pasture rents, discounted over 100 years. Future crop production is based on projections of the yields of 10 major crops which together comprise 83 percent of calories produced. For pastureland, the value of rents from livestock is assumed to grow at a rate of 1.475 percent for low and middle-income countries, and 0.445 percent for high-income countries.
 According to the World Bank "a nation's wealth consists of a diverse portfolio of assets, which together form the productive base of the national economy." The estimates are based on the theory that an asset's value is equal to the discounted sum of net benefits it generates over its lifetime. The net present value for renewable and nonrenewable natural capital is calculated using a discount of 4% for all resouces and for all years. The lifetime of natural capital is capped at 100 years.
 Total national wealth is calculated as the sum of natural capital, produced capital, human capital and net foreign assets.
@@ -3430,16 +3430,16 @@
 Produced capital includes machinery, structures, equipment and urban land.
 Human capital is the present value of future earnings for the working population over their lifetimes.
 Net foreign assets is foreign assets minus foreign liabilities.
-For more details, please consult the methodology called "Changing Wealth of Nations 2021: Methods and Data" which can be consulted at the following link: https://datacatalog.worldbank.org/dataset/wealth-accounting</t>
+For more details, please consult the methodology called "Changing Wealth of Nations 2022: Methods and Data" which can be consulted at the following link: https://datacatalog.worldbank.org/dataset/wealth-accounting</t>
   </si>
   <si>
     <t>NatCapFE</t>
   </si>
   <si>
-    <t>National wealth, forests - ecosystem services (billions of constant 2018 international dollars)</t>
-  </si>
-  <si>
-    <t>Total national wealth generated by the ecosystem services from its forest land. Figures are measured at market exchange rates in constant 2018 dollars, using country-specific GDP deflators. Based on an estimation of comprehensive national wealth by the World Bank for its report The Changing Wealth of Nations 2021.
+    <t>National wealth, forests - ecosystem services (billions of constant 2022 international dollars)</t>
+  </si>
+  <si>
+    <t>Total national wealth generated by the ecosystem services from its forest land. Figures are measured at market exchange rates in constant 2022 dollars, using country-specific GDP deflators. Based on an estimation of comprehensive national wealth by the World Bank for its report The Changing Wealth of Nations 2022.
 Forest resources includes rents from timber and non-timber ecosystem services. Timber resources are calculated using the present discounted value of expected rents extracted over the lifetime of the timber resources at current rates of extraction, capped at 100 years. Non-timber ecosystem services is estamated through the sum of three components: 1) recreation, hunting, and fishing, 2) non-wood forest products, and 3) watershed protection. The annual value of these three components is estimated for each country using economic models.
 According to the World Bank "a nation's wealth consists of a diverse portfolio of assets, which together form the productive base of the national economy." The estimates are based on the theory that an asset's value is equal to the discounted sum of net benefits it generates over its lifetime. The net present value for renewable and nonrenewable natural capital is calculated using a discount of 4% for all resouces and for all years. The lifetime of natural capital is capped at 100 years.
 Total national wealth is calculated as the sum of natural capital, produced capital, human capital and net foreign assets.
@@ -3447,16 +3447,16 @@
 Produced capital includes machinery, structures, equipment and urban land.
 Human capital is the present value of future earnings for the working population over their lifetimes.
 Net foreign assets is foreign assets minus foreign liabilities.
-For more details, please consult the methodology called "Changing Wealth of Nations 2021: Methods and Data" which can be consulted at the following link: https://datacatalog.worldbank.org/dataset/wealth-accounting</t>
+For more details, please consult the methodology called "Changing Wealth of Nations 2022: Methods and Data" which can be consulted at the following link: https://datacatalog.worldbank.org/dataset/wealth-accounting</t>
   </si>
   <si>
     <t>NatCapFT</t>
   </si>
   <si>
-    <t>National wealth, forests - timber (billions of constant 2018 international dollars)</t>
-  </si>
-  <si>
-    <t>Total national wealth included within its timber resources. Figures are measured at market exchange rates in constant 2018 dollars, using country-specific GDP deflators. Based on an estimation of comprehensive national wealth by the World Bank for its report The Changing Wealth of Nations 2021.
+    <t>National wealth, forests - timber (billions of constant 2022 international dollars)</t>
+  </si>
+  <si>
+    <t>Total national wealth included within its timber resources. Figures are measured at market exchange rates in constant 2022 dollars, using country-specific GDP deflators. Based on an estimation of comprehensive national wealth by the World Bank for its report The Changing Wealth of Nations 2022.
 Forest resources includes rents from timber and non-timber ecosystem services. Timber resources are calculated using the present discounted value of expected rents extracted over the lifetime of the timber resources at current rates of extraction, capped at 100 years. Non-timber ecosystem services is estamated through the sum of three components: 1) recreation, hunting, and fishing, 2) non-wood forest products, and 3) watershed protection. The annual value of these three components is estimated for each country using economic models.
 According to the World Bank "a nation's wealth consists of a diverse portfolio of assets, which together form the productive base of the national economy." The estimates are based on the theory that an asset's value is equal to the discounted sum of net benefits it generates over its lifetime. The net present value for renewable and nonrenewable natural capital is calculated using a discount of 4% for all resouces and for all years. The lifetime of natural capital is capped at 100 years.
 Total national wealth is calculated as the sum of natural capital, produced capital, human capital and net foreign assets.
@@ -3464,16 +3464,16 @@
 Produced capital includes machinery, structures, equipment and urban land.
 Human capital is the present value of future earnings for the working population over their lifetimes.
 Net foreign assets is foreign assets minus foreign liabilities.
-For more details, please consult the methodology called "Changing Wealth of Nations 2021: Methods and Data" which can be consulted at the following link: https://datacatalog.worldbank.org/dataset/wealth-accounting</t>
+For more details, please consult the methodology called "Changing Wealth of Nations 2022: Methods and Data" which can be consulted at the following link: https://datacatalog.worldbank.org/dataset/wealth-accounting</t>
   </si>
   <si>
     <t>NatCapEN</t>
   </si>
   <si>
-    <t>National wealth, fossil fuel energy (billions of constant 2018 international dollars)</t>
-  </si>
-  <si>
-    <t>Total national wealth included within national energy resources (petroleum, natural gas, and coal). Figures are measured at market exchange rates in constant 2018 dollars, using country-specific GDP deflators. Based on an estimation of comprehensive national wealth by the World Bank for its report The Changing Wealth of Nations 2021.
+    <t>National wealth, fossil fuel energy (billions of constant 2022 international dollars)</t>
+  </si>
+  <si>
+    <t>Total national wealth included within national energy resources (petroleum, natural gas, and coal). Figures are measured at market exchange rates in constant 2022 dollars, using country-specific GDP deflators. Based on an estimation of comprehensive national wealth by the World Bank for its report The Changing Wealth of Nations 2022.
 The value of energy resources in the World Bank wealth accounts are calculated as the expected rents that can be extracted from the resource until it is exhausted. Rents are assumed to be constant, and are calculated based on data annual production, commodity prices, production costs, and the size of reserves.
 According to the World Bank "a nation's wealth consists of a diverse portfolio of assets, which together form the productive base of the national economy." The estimates are based on the theory that an asset's value is equal to the discounted sum of net benefits it generates over its lifetime. The net present value for renewable and nonrenewable natural capital is calculated using a discount of 4% for all resouces and for all years. The lifetime of natural capital is capped at 100 years.
 Total national wealth is calculated as the sum of natural capital, produced capital, human capital and net foreign assets.
@@ -3481,16 +3481,16 @@
 Produced capital includes machinery, structures, equipment and urban land.
 Human capital is the present value of future earnings for the working population over their lifetimes.
 Net foreign assets is foreign assets minus foreign liabilities.
-For more details, please consult the methodology called "Changing Wealth of Nations 2021: Methods and Data" which can be consulted at the following link: https://datacatalog.worldbank.org/dataset/wealth-accounting</t>
+For more details, please consult the methodology called "Changing Wealth of Nations 2022: Methods and Data" which can be consulted at the following link: https://datacatalog.worldbank.org/dataset/wealth-accounting</t>
   </si>
   <si>
     <t>NatCapHC</t>
   </si>
   <si>
-    <t>National wealth, human capital (billions of constant 2018 international dollars)</t>
-  </si>
-  <si>
-    <t>Total national wealth included within its human capital. Figures are measured at market exchange rates in constant 2018 dollars, using country-specific GDP deflators. Based on an estimation of comprehensive national wealth by the World Bank for its report The Changing Wealth of Nations 2021.
+    <t>National wealth, human capital (billions of constant 2022 international dollars)</t>
+  </si>
+  <si>
+    <t>Total national wealth included within its human capital. Figures are measured at market exchange rates in constant 2022 dollars, using country-specific GDP deflators. Based on an estimation of comprehensive national wealth by the World Bank for its report The Changing Wealth of Nations 2022.
 Human capital is calculated as the expected future labour income generated over the lifetimes of the people living within the country using the World Bank's International Income Distribution Database.
 According to the World Bank "a nation's wealth consists of a diverse portfolio of assets, which together form the productive base of the national economy." The estimates are based on the theory that an asset's value is equal to the discounted sum of net benefits it generates over its lifetime. The net present value for renewable and nonrenewable natural capital is calculated using a discount of 4% for all resouces and for all years. The lifetime of natural capital is capped at 100 years.
 Total national wealth is calculated as the sum of natural capital, produced capital, human capital and net foreign assets.
@@ -3498,16 +3498,16 @@
 Produced capital includes machinery, structures, equipment and urban land.
 Human capital is the present value of future earnings for the working population over their lifetimes.
 Net foreign assets is foreign assets minus foreign liabilities.
-For more details, please consult the methodology called "Changing Wealth of Nations 2021: Methods and Data" which can be consulted at the following link: https://datacatalog.worldbank.org/dataset/wealth-accounting</t>
+For more details, please consult the methodology called "Changing Wealth of Nations 2022: Methods and Data" which can be consulted at the following link: https://datacatalog.worldbank.org/dataset/wealth-accounting</t>
   </si>
   <si>
     <t>NatCapMA</t>
   </si>
   <si>
-    <t>National wealth, mangroves (billions of constant 2018 international dollars)</t>
-  </si>
-  <si>
-    <t>Total national wealth included within its mangroves in their role as providers of flood protection benefits. Figures are measured at market exchange rates in constant 2018 dollars, using country-specific GDP deflators. Based on an estimation of comprehensive national wealth by the World Bank for its report The Changing Wealth of Nations 2021.
+    <t>National wealth, mangroves (billions of constant 2022 international dollars)</t>
+  </si>
+  <si>
+    <t>Total national wealth included within its mangroves in their role as providers of flood protection benefits. Figures are measured at market exchange rates in constant 2022 dollars, using country-specific GDP deflators. Based on an estimation of comprehensive national wealth by the World Bank for its report The Changing Wealth of Nations 2022.
 The value of mangroves is determined through the models of expected flood damage with and without the presence of mangroves, to calculate the discounted present value of averted damages over 100 years assuming a constant benefit flow and a 4% discount rate.
 According to the World Bank "a nation's wealth consists of a diverse portfolio of assets, which together form the productive base of the national economy." The estimates are based on the theory that an asset's value is equal to the discounted sum of net benefits it generates over its lifetime. The net present value for renewable and nonrenewable natural capital is calculated using a discount of 4% for all resouces and for all years. The lifetime of natural capital is capped at 100 years.
 Total national wealth is calculated as the sum of natural capital, produced capital, human capital and net foreign assets.
@@ -3515,16 +3515,16 @@
 Produced capital includes machinery, structures, equipment and urban land.
 Human capital is the present value of future earnings for the working population over their lifetimes.
 Net foreign assets is foreign assets minus foreign liabilities.
-For more details, please consult the methodology called "Changing Wealth of Nations 2021: Methods and Data" which can be consulted at the following link: https://datacatalog.worldbank.org/dataset/wealth-accounting</t>
+For more details, please consult the methodology called "Changing Wealth of Nations 2022: Methods and Data" which can be consulted at the following link: https://datacatalog.worldbank.org/dataset/wealth-accounting</t>
   </si>
   <si>
     <t>NatCapMN</t>
   </si>
   <si>
-    <t>National wealth, metals and minerals (billions of constant 2018 international dollars)</t>
-  </si>
-  <si>
-    <t>Total national wealth included within its underground metals and minerals (bauxite, copper, gold, iron ore, lead, nickel, phosphate rock silver, tin, and zinc). Figures are measured at market exchange rates in constant 2018 dollars, using country-specific GDP deflators. Based on an estimation of comprehensive national wealth by the World Bank for its report The Changing Wealth of Nations 2021.
+    <t>National wealth, metals and minerals (billions of constant 2022 international dollars)</t>
+  </si>
+  <si>
+    <t>Total national wealth included within its underground metals and minerals (bauxite, copper, gold, iron ore, lead, nickel, phosphate rock silver, tin, and zinc). Figures are measured at market exchange rates in constant 2022 dollars, using country-specific GDP deflators. Based on an estimation of comprehensive national wealth by the World Bank for its report The Changing Wealth of Nations 2022.
 The value of minerals and metals in the World Bank wealth accounts are calculated as the expected rents that can be extracted from the resource until it is exhausted. Rents are assumed to be constant, and are calculated based on data annual production, commodity prices, production costs, and the size of reserves.
 According to the World Bank "a nation's wealth consists of a diverse portfolio of assets, which together form the productive base of the national economy." The estimates are based on the theory that an asset's value is equal to the discounted sum of net benefits it generates over its lifetime. The net present value for renewable and nonrenewable natural capital is calculated using a discount of 4% for all resouces and for all years. The lifetime of natural capital is capped at 100 years.
 Total national wealth is calculated as the sum of natural capital, produced capital, human capital and net foreign assets.
@@ -3532,64 +3532,64 @@
 Produced capital includes machinery, structures, equipment and urban land.
 Human capital is the present value of future earnings for the working population over their lifetimes.
 Net foreign assets is foreign assets minus foreign liabilities.
-For more details, please consult the methodology called "Changing Wealth of Nations 2021: Methods and Data" which can be consulted at the following link: https://datacatalog.worldbank.org/dataset/wealth-accounting</t>
+For more details, please consult the methodology called "Changing Wealth of Nations 2022: Methods and Data" which can be consulted at the following link: https://datacatalog.worldbank.org/dataset/wealth-accounting</t>
   </si>
   <si>
     <t>NatCapNK</t>
   </si>
   <si>
-    <t>National wealth, natural capital (billions of constant 2018 international dollars)</t>
-  </si>
-  <si>
-    <t>Total national wealth included within its natural capital. Figures are measured at market exchange rates in constant 2018 dollars, using country-specific GDP deflators. Based on an estimation of comprehensive national wealth by the World Bank for its report The Changing Wealth of Nations 2021.
+    <t>National wealth, natural capital (billions of constant 2022 international dollars)</t>
+  </si>
+  <si>
+    <t>Total national wealth included within its natural capital. Figures are measured at market exchange rates in constant 2022 dollars, using country-specific GDP deflators. Based on an estimation of comprehensive national wealth by the World Bank for its report The Changing Wealth of Nations 2022.
 According to the World Bank "a nation's wealth consists of a diverse portfolio of assets, which together form the productive base of the national economy." The estimates are based on the theory that an asset's value is equal to the discounted sum of net benefits it generates over its lifetime. The net present value for renewable and nonrenewable natural capital is calculated using a discount of 4% for all resouces and for all years. The lifetime of natural capital is capped at 100 years.
 Total national wealth is calculated as the sum of natural capital, produced capital, human capital and net foreign assets.
 Natural capital divides into renewable and nonrenewable natural capital. Nonrenewable natural capital includes fossil fuel energy (oil, gas, hard and soft coal) and minerals (bauxite, copper, gold, iron ore, lead, nickel, phosphate, silver, tin, and zinc). Renewable natural capital includes agricultural land (cropland and pastureland), forests (timber and forest ecosystem service), mangroves, fisheries and protected areas.
 Produced capital includes machinery, structures, equipment and urban land.
 Human capital is the present value of future earnings for the working population over their lifetimes.
 Net foreign assets is foreign assets minus foreign liabilities.
-For more details, please consult the methodology called "Changing Wealth of Nations 2021: Methods and Data" which can be consulted at the following link: https://datacatalog.worldbank.org/dataset/wealth-accounting</t>
+For more details, please consult the methodology called "Changing Wealth of Nations 2022: Methods and Data" which can be consulted at the following link: https://datacatalog.worldbank.org/dataset/wealth-accounting</t>
   </si>
   <si>
     <t>NatCapSS</t>
   </si>
   <si>
-    <t>National wealth, natural capital - nonrenewable (billions of constant 2018 international dollars)</t>
-  </si>
-  <si>
-    <t>Total national wealth included within its nonrenewable natural capital. Figures are measured at market exchange rates in constant 2018 dollars, using country-specific GDP deflators. Based on an estimation of comprehensive national wealth by the World Bank for its report The Changing Wealth of Nations 2021.
+    <t>National wealth, natural capital - nonrenewable (billions of constant 2022 international dollars)</t>
+  </si>
+  <si>
+    <t>Total national wealth included within its nonrenewable natural capital. Figures are measured at market exchange rates in constant 2022 dollars, using country-specific GDP deflators. Based on an estimation of comprehensive national wealth by the World Bank for its report The Changing Wealth of Nations 2022.
 According to the World Bank "a nation's wealth consists of a diverse portfolio of assets, which together form the productive base of the national economy." The estimates are based on the theory that an asset's value is equal to the discounted sum of net benefits it generates over its lifetime. The net present value for renewable and nonrenewable natural capital is calculated using a discount of 4% for all resouces and for all years. The lifetime of natural capital is capped at 100 years.
 Total national wealth is calculated as the sum of natural capital, produced capital, human capital and net foreign assets.
 Natural capital divides into renewable and nonrenewable natural capital. Renewable natural capital includes agricultural land (cropland and pastureland), forests (timber and forest ecosystem service), mangroves, fisheries and protected areas. Nonrenewable natural capital includes fossil fuel energy (oil, gas, hard and soft coal) and minerals (bauxite, copper, gold, iron ore, lead, nickel, phosphate, silver, tin, and zinc).
 Produced capital includes machinery, structures, equipment and urban land.
 Human capital is the present value of future earnings for the working population over their lifetimes.
 Net foreign assets is foreign assets minus foreign liabilities.
-For more details, please consult the methodology called "Changing Wealth of Nations 2021: Methods and Data" which can be consulted at the following link: https://datacatalog.worldbank.org/dataset/wealth-accounting</t>
+For more details, please consult the methodology called "Changing Wealth of Nations 2022: Methods and Data" which can be consulted at the following link: https://datacatalog.worldbank.org/dataset/wealth-accounting</t>
   </si>
   <si>
     <t>NatCapRN</t>
   </si>
   <si>
-    <t>National wealth, natural capital - renewable (billions of constant 2018 international dollars)</t>
-  </si>
-  <si>
-    <t>Total national wealth included within its renewable natural capital. Figures are measured at market exchange rates in constant 2018 dollars, using country-specific GDP deflators. Based on an estimation of comprehensive national wealth by the World Bank for its report The Changing Wealth of Nations 2021.
+    <t>National wealth, natural capital - renewable (billions of constant 2022 international dollars)</t>
+  </si>
+  <si>
+    <t>Total national wealth included within its renewable natural capital. Figures are measured at market exchange rates in constant 2022 dollars, using country-specific GDP deflators. Based on an estimation of comprehensive national wealth by the World Bank for its report The Changing Wealth of Nations 2022.
 According to the World Bank "a nation's wealth consists of a diverse portfolio of assets, which together form the productive base of the national economy." The estimates are based on the theory that an asset's value is equal to the discounted sum of net benefits it generates over its lifetime. The net present value for renewable and nonrenewable natural capital is calculated using a discount of 4% for all resouces and for all years. The lifetime of natural capital is capped at 100 years.
 Total national wealth is calculated as the sum of natural capital, produced capital, human capital and net foreign assets.
 Natural capital divides into renewable and nonrenewable natural capital. Nonrenewable natural capital includes fossil fuel energy (oil, gas, hard and soft coal) and minerals (bauxite, copper, gold, iron ore, lead, nickel, phosphate, silver, tin, and zinc). Renewable natural capital includes agricultural land (cropland and pastureland), forests (timber and forest ecosystem service), mangroves, fisheries and protected areas.
 Produced capital includes machinery, structures, equipment and urban land.
 Human capital is the present value of future earnings for the working population over their lifetimes.
 Net foreign assets is foreign assets minus foreign liabilities.
-For more details, please consult the methodology called "Changing Wealth of Nations 2021: Methods and Data" which can be consulted at the following link: https://datacatalog.worldbank.org/dataset/wealth-accounting</t>
+For more details, please consult the methodology called "Changing Wealth of Nations 2022: Methods and Data" which can be consulted at the following link: https://datacatalog.worldbank.org/dataset/wealth-accounting</t>
   </si>
   <si>
     <t>NatCapGS</t>
   </si>
   <si>
-    <t>National wealth, natural gas (billions of constant 2018 international dollars)</t>
-  </si>
-  <si>
-    <t>Total national wealth included within its natural gas resources. Figures are measured at market exchange rates in constant 2018 dollars, using country-specific GDP deflators. Based on an estimation of comprehensive national wealth by the World Bank for its report The Changing Wealth of Nations 2021. Figures are measured at market exchange rates in constant 2018 dollars, using country-specific GDP deflators. Based on an estimation of comprehensive national wealth by the World Bank for its report The Changing Wealth of Nations 2021.
+    <t>National wealth, natural gas (billions of constant 2022 international dollars)</t>
+  </si>
+  <si>
+    <t>Total national wealth included within its natural gas resources. Figures are measured at market exchange rates in constant 2022 dollars, using country-specific GDP deflators. Based on an estimation of comprehensive national wealth by the World Bank for its report The Changing Wealth of Nations 2022. Figures are measured at market exchange rates in constant 2022 dollars, using country-specific GDP deflators. Based on an estimation of comprehensive national wealth by the World Bank for its report The Changing Wealth of Nations 2022.
 The value of natural gas resources in the World Bank wealth accounts are calculated as the expected rents that can be extracted from the resource until it is exhausted. Rents are assumed to be constant, and are calculated based on data annual production, commodity prices, production costs, and the size of reserves.
 According to the World Bank "a nation's wealth consists of a diverse portfolio of assets, which together form the productive base of the national economy." The estimates are based on the theory that an asset's value is equal to the discounted sum of net benefits it generates over its lifetime. The net present value for renewable and nonrenewable natural capital is calculated using a discount of 4% for all resouces and for all years. The lifetime of natural capital is capped at 100 years.
 Total national wealth is calculated as the sum of natural capital, produced capital, human capital and net foreign assets.
@@ -3597,16 +3597,16 @@
 Produced capital includes machinery, structures, equipment and urban land.
 Human capital is the present value of future earnings for the working population over their lifetimes.
 Net foreign assets is foreign assets minus foreign liabilities.
-For more details, please consult the methodology called "Changing Wealth of Nations 2021: Methods and Data" which can be consulted at the following link: https://datacatalog.worldbank.org/dataset/wealth-accounting</t>
+For more details, please consult the methodology called "Changing Wealth of Nations 2022: Methods and Data" which can be consulted at the following link: https://datacatalog.worldbank.org/dataset/wealth-accounting</t>
   </si>
   <si>
     <t>NatCapFA</t>
   </si>
   <si>
-    <t>National wealth, net foreign assets (billions of constant 2018 international dollars)</t>
-  </si>
-  <si>
-    <t>Total national wealth included within its net foreign assets. Figures are measured at market exchange rates in constant 2018 dollars, using country-specific GDP deflators. Based on an estimation of comprehensive national wealth by the World Bank for its report The Changing Wealth of Nations 2021.
+    <t>National wealth, net foreign assets (billions of constant 2022 international dollars)</t>
+  </si>
+  <si>
+    <t>Total national wealth included within its net foreign assets. Figures are measured at market exchange rates in constant 2022 dollars, using country-specific GDP deflators. Based on an estimation of comprehensive national wealth by the World Bank for its report The Changing Wealth of Nations 2022.
 Net foreign assets includes portfolio equity, debt securities, foreign direct investment, and other financial capital held in other countries.
 According to the World Bank "a nation's wealth consists of a diverse portfolio of assets, which together form the productive base of the national economy." The estimates are based on the theory that an asset's value is equal to the discounted sum of net benefits it generates over its lifetime. The net present value for renewable and nonrenewable natural capital is calculated using a discount of 4% for all resouces and for all years. The lifetime of natural capital is capped at 100 years.
 Total national wealth is calculated as the sum of natural capital, produced capital, human capital and net foreign assets.
@@ -3614,16 +3614,16 @@
 Produced capital includes machinery, structures, equipment and urban land.
 Human capital is the present value of future earnings for the working population over their lifetimes.
 Net foreign assets is foreign assets minus foreign liabilities.
-For more details, please consult the methodology called "Changing Wealth of Nations 2021: Methods and Data" which can be consulted at the following link: https://datacatalog.worldbank.org/dataset/wealth-accounting</t>
+For more details, please consult the methodology called "Changing Wealth of Nations 2022: Methods and Data" which can be consulted at the following link: https://datacatalog.worldbank.org/dataset/wealth-accounting</t>
   </si>
   <si>
     <t>NatCapOL</t>
   </si>
   <si>
-    <t>National wealth, oil (billions of constant 2018 international dollars)</t>
-  </si>
-  <si>
-    <t>Total national wealth included within its petroleum resources. Figures are measured at market exchange rates in constant 2018 dollars, using country-specific GDP deflators. Based on an estimation of comprehensive national wealth by the World Bank for its report The Changing Wealth of Nations 2021.
+    <t>National wealth, oil (billions of constant 2022 international dollars)</t>
+  </si>
+  <si>
+    <t>Total national wealth included within its petroleum resources. Figures are measured at market exchange rates in constant 2022 dollars, using country-specific GDP deflators. Based on an estimation of comprehensive national wealth by the World Bank for its report The Changing Wealth of Nations 2022.
 The value of petroleum resources in the World Bank wealth accounts are calculated as the expected rents that can be extracted from the resource until it is exhausted. Rents are assumed to be constant, and are calculated based on data annual production, commodity prices, production costs, and the size of reserves.
 According to the World Bank "a nation's wealth consists of a diverse portfolio of assets, which together form the productive base of the national economy." The estimates are based on the theory that an asset's value is equal to the discounted sum of net benefits it generates over its lifetime. The net present value for renewable and nonrenewable natural capital is calculated using a discount of 4% for all resouces and for all years. The lifetime of natural capital is capped at 100 years.
 Total national wealth is calculated as the sum of natural capital, produced capital, human capital and net foreign assets.
@@ -3631,16 +3631,16 @@
 Produced capital includes machinery, structures, equipment and urban land.
 Human capital is the present value of future earnings for the working population over their lifetimes.
 Net foreign assets is foreign assets minus foreign liabilities.
-For more details, please consult the methodology called "Changing Wealth of Nations 2021: Methods and Data" which can be consulted at the following link: https://datacatalog.worldbank.org/dataset/wealth-accounting</t>
+For more details, please consult the methodology called "Changing Wealth of Nations 2022: Methods and Data" which can be consulted at the following link: https://datacatalog.worldbank.org/dataset/wealth-accounting</t>
   </si>
   <si>
     <t>NatCapPS</t>
   </si>
   <si>
-    <t>National wealth, pastureland (billions of constant 2018 international dollars)</t>
-  </si>
-  <si>
-    <t>Total national wealth included within pastureland. Figures are measured at market exchange rates in constant 2018 dollars, using country-specific GDP deflators. Based on an estimation of comprehensive national wealth by the World Bank for its report The Changing Wealth of Nations 2021.
+    <t>National wealth, pastureland (billions of constant 2022 international dollars)</t>
+  </si>
+  <si>
+    <t>Total national wealth included within pastureland. Figures are measured at market exchange rates in constant 2022 dollars, using country-specific GDP deflators. Based on an estimation of comprehensive national wealth by the World Bank for its report The Changing Wealth of Nations 2022.
 Agricultural land consists of cropland and pastureland. The value of cropland and pastureland is calculated as the present value of crop and pasture rents, discounted over 100 years. Future crop production is based on projections of the yields of 10 major crops which together comprise 83 percent of calories produced. For pastureland, the value of rents from livestock is assumed to grow at a rate of 1.475 percent for low and middle-income countries, and 0.445 percent for high-income countries.
 According to the World Bank "a nation's wealth consists of a diverse portfolio of assets, which together form the productive base of the national economy." The estimates are based on the theory that an asset's value is equal to the discounted sum of net benefits it generates over its lifetime. The net present value for renewable and nonrenewable natural capital is calculated using a discount of 4% for all resouces and for all years. The lifetime of natural capital is capped at 100 years.
 Total national wealth is calculated as the sum of natural capital, produced capital, human capital and net foreign assets.
@@ -3648,16 +3648,16 @@
 Produced capital includes machinery, structures, equipment and urban land.
 Human capital is the present value of future earnings for the working population over their lifetimes.
 Net foreign assets is foreign assets minus foreign liabilities.
-For more details, please consult the methodology called "Changing Wealth of Nations 2021: Methods and Data" which can be consulted at the following link: https://datacatalog.worldbank.org/dataset/wealth-accounting</t>
+For more details, please consult the methodology called "Changing Wealth of Nations 2022: Methods and Data" which can be consulted at the following link: https://datacatalog.worldbank.org/dataset/wealth-accounting</t>
   </si>
   <si>
     <t>NatCapPK</t>
   </si>
   <si>
-    <t>National wealth, produced capital (billions of constant 2018 international dollars)</t>
-  </si>
-  <si>
-    <t>Total national wealth included within produced capital. Figures are measured at market exchange rates in constant 2018 dollars, using country-specific GDP deflators. Based on an estimation of comprehensive national wealth by the World Bank for its report The Changing Wealth of Nations 2021.
+    <t>National wealth, produced capital (billions of constant 2022 international dollars)</t>
+  </si>
+  <si>
+    <t>Total national wealth included within produced capital. Figures are measured at market exchange rates in constant 2022 dollars, using country-specific GDP deflators. Based on an estimation of comprehensive national wealth by the World Bank for its report The Changing Wealth of Nations 2022.
 Produced capital includes machinery, structures, equipment and urban land.
 According to the World Bank "a nation's wealth consists of a diverse portfolio of assets, which together form the productive base of the national economy." The estimates are based on the theory that an asset's value is equal to the discounted sum of net benefits it generates over its lifetime. The net present value for renewable and nonrenewable natural capital is calculated using a discount of 4% for all resouces and for all years. The lifetime of natural capital is capped at 100 years.
 Total national wealth is calculated as the sum of natural capital, produced capital, human capital and net foreign assets.
@@ -3665,16 +3665,16 @@
 Produced capital includes machinery, structures, equipment and urban land.
 Human capital is the present value of future earnings for the working population over their lifetimes.
 Net foreign assets is foreign assets minus foreign liabilities.
-For more details, please consult the methodology called "Changing Wealth of Nations 2021: Methods and Data" which can be consulted at the following link: https://datacatalog.worldbank.org/dataset/wealth-accounting</t>
+For more details, please consult the methodology called "Changing Wealth of Nations 2022: Methods and Data" which can be consulted at the following link: https://datacatalog.worldbank.org/dataset/wealth-accounting</t>
   </si>
   <si>
     <t>NatCapPA</t>
   </si>
   <si>
-    <t>National wealth, protected areas (billions of constant 2018 international dollars)</t>
-  </si>
-  <si>
-    <t>Total national wealth included within protected areas. Figures are measured at market exchange rates in constant 2018 dollars, using country-specific GDP deflators. Based on an estimation of comprehensive national wealth by the World Bank for its report The Changing Wealth of Nations 2021.
+    <t>National wealth, protected areas (billions of constant 2022 international dollars)</t>
+  </si>
+  <si>
+    <t>Total national wealth included within protected areas. Figures are measured at market exchange rates in constant 2022 dollars, using country-specific GDP deflators. Based on an estimation of comprehensive national wealth by the World Bank for its report The Changing Wealth of Nations 2022.
 The value of protected areas in the World Bank wealth accounts are calculated using an estimate of the opportunity cost of abstaining from converting these lands to cropland or pastureland. This is estimated by estimating the discounted present value of the annual rents of an equivalent area of cropland or pastureland over a 100-year period, whichever is lower.
 According to the World Bank "a nation's wealth consists of a diverse portfolio of assets, which together form the productive base of the national economy." The estimates are based on the theory that an asset's value is equal to the discounted sum of net benefits it generates over its lifetime. The net present value for renewable and nonrenewable natural capital is calculated using a discount of 4% for all resouces and for all years. The lifetime of natural capital is capped at 100 years.
 Total national wealth is calculated as the sum of natural capital, produced capital, human capital and net foreign assets.
@@ -3682,7 +3682,7 @@
 Produced capital includes machinery, structures, equipment and urban land.
 Human capital is the present value of future earnings for the working population over their lifetimes.
 Net foreign assets is foreign assets minus foreign liabilities.
-For more details, please consult the methodology called "Changing Wealth of Nations 2021: Methods and Data" which can be consulted at the following link: https://datacatalog.worldbank.org/dataset/wealth-accounting</t>
+For more details, please consult the methodology called "Changing Wealth of Nations 2022: Methods and Data" which can be consulted at the following link: https://datacatalog.worldbank.org/dataset/wealth-accounting</t>
   </si>
   <si>
     <t>NatCapTW</t>
@@ -3691,18 +3691,18 @@
     <t>Table 30</t>
   </si>
   <si>
-    <t>National wealth, total wealth (billions of constant 2018 international dollars)</t>
-  </si>
-  <si>
-    <t>Total national wealth calculated as the sum of natural capital, produced capital, human capital, and net foreign assets. Figures are measured at market exchange rates in constant 2018 dollars, using country-specific GDP deflators. Based on an estimation of comprehensive national wealth by the World Bank for its report The Changing Wealth of Nations 2021.
-Figures are measured at market exchange rates in constant 2018 dollars, using country-specific GDP deflators. Based on an estimation of comprehensive national wealth by the World Bank for its report The Changing Wealth of Nations 2021.
+    <t>National wealth, total wealth (billions of constant 2022 international dollars)</t>
+  </si>
+  <si>
+    <t>Total national wealth calculated as the sum of natural capital, produced capital, human capital, and net foreign assets. Figures are measured at market exchange rates in constant 2022 dollars, using country-specific GDP deflators. Based on an estimation of comprehensive national wealth by the World Bank for its report The Changing Wealth of Nations 2022.
+Figures are measured at market exchange rates in constant 2022 dollars, using country-specific GDP deflators. Based on an estimation of comprehensive national wealth by the World Bank for its report The Changing Wealth of Nations 2022.
 According to the World Bank "a nation's wealth consists of a diverse portfolio of assets, which together form the productive base of the national economy." The estimates are based on the theory that an asset's value is equal to the discounted sum of net benefits it generates over its lifetime. The net present value for renewable and nonrenewable natural capital is calculated using a discount of 4% for all resouces and for all years. The lifetime of natural capital is capped at 100 years.
 Total national wealth is calculated as the sum of natural capital, produced capital, human capital and net foreign assets.
 Natural capital divides into renewable and nonrenewable natural capital. Nonrenewable natural capital includes fossil fuel energy (oil, gas, hard and soft coal) and minerals (bauxite, copper, gold, iron ore, lead, nickel, phosphate, silver, tin, and zinc). Renewable natural capital includes agricultural land (cropland and pastureland), forests (timber and forest ecosystem service), mangroves, fisheries and protected areas.
 Produced capital includes machinery, structures, equipment and urban land.
 Human capital is the present value of future earnings for the working population over their lifetimes.
 Net foreign assets is foreign assets minus foreign liabilities.
-For more details, please consult the methodology called "Changing Wealth of Nations 2021: Methods and Data" which can be consulted at the following link: https://datacatalog.worldbank.org/dataset/wealth-accounting</t>
+For more details, please consult the methodology called "Changing Wealth of Nations 2022: Methods and Data" which can be consulted at the following link: https://datacatalog.worldbank.org/dataset/wealth-accounting</t>
   </si>
   <si>
     <t>ENVPDNMABPAR</t>
@@ -3711,10 +3711,10 @@
     <t>Ambient particulate matter, premature deaths</t>
   </si>
   <si>
-    <t>As reported in OECD (2020), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023), https://doi.org/10.1787/c14fb169-en.
+    <t>As reported in OECD (2022), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023), https://doi.org/10.1787/c14fb169-en.
 Reported here is the number of premature deaths attributed to exposure to ambient particulate matter each year.
 According to the World Health Organisation (WHO), exposure to fine particulate matter (PM 2.5) has potentially the most significant adverse effects on health compared to other air pollutants. Particulate matter (PM 2.5) can be inhaled and cause serious health problems including both respiratory and cardiovascular disease, having its most severe effects on children and elderly people. Exposure to PM 2.5 has been shown to considerably increase the risk of heart disease and stroke in particular.
-Exposure to ambient particulate matter is estimated by the Global Burden of Disease team by combining satellite data with a chemical transport model, land use information, and calibrated using ground measurements. An integrated exposure-response curve is used to calculate a relative risk for exposure to particulate matter from both ambient and residential (household) sources, and these are then weighted by the proportion of individuals exposed to each source. The method is described in detail in the technical appendix 1 of GBD 2019 Risk Factor Collaborators report (2020).
+Exposure to ambient particulate matter is estimated by the Global Burden of Disease team by combining satellite data with a chemical transport model, land use information, and calibrated using ground measurements. An integrated exposure-response curve is used to calculate a relative risk for exposure to particulate matter from both ambient and residential (household) sources, and these are then weighted by the proportion of individuals exposed to each source. The method is described in detail in the technical appendix 1 of GBD 2019 Risk Factor Collaborators report (2022).
 Data on mortality and DALYs from exposure to environmental risks are taken from GBD (2019), Global Burden of Disease Study 2019 Results. Welfare costs are calculated using a methodology adapted from OECD (2017b), The Rising Cost of Ambient Air Pollution thus far in the 21st Century: Results from the BRIICS and the OECD Countries.
 For further details please consult: https://stats.oecd.org/wbos/fileview2.aspx?IDFile=1356df09-6bd4-4b0b-9a95-d56e145769ad</t>
   </si>
@@ -3731,10 +3731,10 @@
     <t>Ambient particulate matter, premature deaths (per million population)</t>
   </si>
   <si>
-    <t>Author's calculations based on data reported in OECD (2020), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en, using population figures from the World Population Prospects 2022 to calculates death rates per million inhabitants.
+    <t>Author's calculations based on data reported in OECD (2022), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en, using population figures from the World Population Prospects 2022 to calculates death rates per million inhabitants.
 Reported here is the number of premature deaths attributed to exposure to ambient particulate matter each year, per million inhabitants. 
 According to the World Health Organisation (WHO), exposure to fine particulate matter (PM 2.5) has potentially the most significant adverse effects on health compared to other air pollutants. Particulate matter (PM 2.5) can be inhaled and cause serious health problems including both respiratory and cardiovascular disease, having its most severe effects on children and elderly people. Exposure to PM 2.5 has been shown to considerably increase the risk of heart disease and stroke in particular.
-Exposure to ambient particulate matter is estimated by the GBD team by combining satellite data with a chemical transport model, land use information, and calibrated using ground measurements. An integrated exposure-response curve is used to calculate a relative risk for exposure to particulate matter from both ambient and residential (household) sources, and these are then weighted by the proportion of individuals exposed to each source. The method is described in detail in the technical appendix 1 of GBD 2019 Risk Factor Collaborators (2020).
+Exposure to ambient particulate matter is estimated by the GBD team by combining satellite data with a chemical transport model, land use information, and calibrated using ground measurements. An integrated exposure-response curve is used to calculate a relative risk for exposure to particulate matter from both ambient and residential (household) sources, and these are then weighted by the proportion of individuals exposed to each source. The method is described in detail in the technical appendix 1 of GBD 2019 Risk Factor Collaborators (2022).
 Data on mortality and DALYs from exposure to environmental risks are taken from GBD (2019), Global Burden of Disease Study 2019 Results. Welfare costs are calculated using a methodology adapted from OECD (2017b), The Rising Cost of Ambient Air Pollution thus far in the 21st Century: Results from the BRIICS and the OECD Countries.
 For further details please consult: https://stats.oecd.org/wbos/fileview2.aspx?IDFile=1356df09-6bd4-4b0b-9a95-d56e145769ad</t>
   </si>
@@ -3748,10 +3748,10 @@
     <t>Ambient particulate matter, premature deaths (% of total)</t>
   </si>
   <si>
-    <t>As reported in OECD (2020), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en.
+    <t>As reported in OECD (2022), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en.
 Reported here is the number of premature deaths attributed to exposure to ambient particulate matter each year, as a percentage of total attributable premature deaths.
 According to the World Health Organisation (WHO), exposure to fine particulate matter (PM 2.5) has potentially the most significant adverse effects on health compared to other air pollutants. Particulate matter (PM 2.5) can be inhaled and cause serious health problems including both respiratory and cardiovascular disease, having its most severe effects on children and elderly people. Exposure to PM 2.5 has been shown to considerably increase the risk of heart disease and stroke in particular.
-Exposure to ambient particulate matter is estimated by the GBD team by combining satellite data with a chemical transport model, land use information, and calibrated using ground measurements. An integrated exposure-response curve is used to calculate a relative risk for exposure to particulate matter from both ambient and residential (household) sources, and these are then weighted by the proportion of individuals exposed to each source. The method is described in detail in the technical appendix 1 of GBD 2019 Risk Factor Collaborators (2020).
+Exposure to ambient particulate matter is estimated by the GBD team by combining satellite data with a chemical transport model, land use information, and calibrated using ground measurements. An integrated exposure-response curve is used to calculate a relative risk for exposure to particulate matter from both ambient and residential (household) sources, and these are then weighted by the proportion of individuals exposed to each source. The method is described in detail in the technical appendix 1 of GBD 2019 Risk Factor Collaborators (2022).
 Data on mortality and DALYs from exposure to environmental risks are taken from GBD (2019), Global Burden of Disease Study 2019 Results. Welfare costs are calculated using a methodology adapted from OECD (2017b), The Rising Cost of Ambient Air Pollution thus far in the 21st Century: Results from the BRIICS and the OECD Countries.
 For further details please consult: https://stats.oecd.org/wbos/fileview2.aspx?IDFile=1356df09-6bd4-4b0b-9a95-d56e145769ad</t>
   </si>
@@ -3762,11 +3762,11 @@
     <t>Ambient particulate matter, welfare cost of premature deaths (USD per capita)</t>
   </si>
   <si>
-    <t>As reported in OECD (2020), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en.
+    <t>As reported in OECD (2022), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en.
 Welfare costs of premature deaths from exposure to ambient particulate matter are expressed in millions of constant 2015 USD per capita.
 Cost estimates represent only the cost of premature mortalities. They are calculated using estimates of the “Value of a Statistical Life” (VSL) and the number of premature deaths attributable to each environmental risk. They exclude any morbidity impacts (labour productivity losses, treatment costs and willingness to pay to avoid pain and suffering from illness). They also exclude impacts other than those on human health (e.g. on built structures, agricultural productivity, ecosystem health). The social cost of the exposure to these environment-related risks is thus greater than the cost of mortalities presented in this chapter. Yet the available evidence suggests that mortality costs account for the bulk of the total costs to society. Finally, VSL also captures non-market values that are unrelated to expenditures and therefore not an integral part of the calculation of GDP. Consequently, the cost estimates are compared with GDP only for illustration.
 According to the World Health Organisation (WHO), exposure to fine particulate matter (PM 2.5) has potentially the most significant adverse effects on health compared to other air pollutants. Particulate matter (PM 2.5) can be inhaled and cause serious health problems including both respiratory and cardiovascular disease, having its most severe effects on children and elderly people. Exposure to PM 2.5 has been shown to considerably increase the risk of heart disease and stroke in particular.
-Exposure to ambient particulate matter is estimated by the GBD team by combining satellite data with a chemical transport model, land use information, and calibrated using ground measurements. An integrated exposure-response curve is used to calculate a relative risk for exposure to particulate matter from both ambient and residential (household) sources, and these are then weighted by the proportion of individuals exposed to each source. The method is described in detail in the technical appendix 1 of GBD 2019 Risk Factor Collaborators (2020).
+Exposure to ambient particulate matter is estimated by the GBD team by combining satellite data with a chemical transport model, land use information, and calibrated using ground measurements. An integrated exposure-response curve is used to calculate a relative risk for exposure to particulate matter from both ambient and residential (household) sources, and these are then weighted by the proportion of individuals exposed to each source. The method is described in detail in the technical appendix 1 of GBD 2019 Risk Factor Collaborators (2022).
 Data on mortality and DALYs from exposure to environmental risks are taken from GBD (2019), Global Burden of Disease Study 2019 Results. Welfare costs are calculated using a methodology adapted from OECD (2017b), The Rising Cost of Ambient Air Pollution thus far in the 21st Century: Results from the BRIICS and the OECD Countries.
 For further details please consult: https://stats.oecd.org/wbos/fileview2.aspx?IDFile=1356df09-6bd4-4b0b-9a95-d56e145769ad</t>
   </si>
@@ -3777,11 +3777,11 @@
     <t>Ambient particulate matter, welfare cost of premature deaths (% of GDP)</t>
   </si>
   <si>
-    <t>As reported in OECD (2020), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en.
+    <t>As reported in OECD (2022), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en.
 Welfare costs of premature deaths from exposure to ambient particulate matter are expressed as a percentage of GDP.
 Cost estimates represent only the cost of premature mortalities. They are calculated using estimates of the “Value of a Statistical Life” (VSL) and the number of premature deaths attributable to each environmental risk. They exclude any morbidity impacts (labour productivity losses, treatment costs and willingness to pay to avoid pain and suffering from illness). They also exclude impacts other than those on human health (e.g. on built structures, agricultural productivity, ecosystem health). The social cost of the exposure to these environment-related risks is thus greater than the cost of mortalities presented in this chapter. Yet the available evidence suggests that mortality costs account for the bulk of the total costs to society. Finally, VSL also captures non-market values that are unrelated to expenditures and therefore not an integral part of the calculation of GDP. Consequently, the cost estimates are compared with GDP only for illustration.
 According to the World Health Organisation (WHO), exposure to fine particulate matter (PM 2.5) has potentially the most significant adverse effects on health compared to other air pollutants. Particulate matter (PM 2.5) can be inhaled and cause serious health problems including both respiratory and cardiovascular disease, having its most severe effects on children and elderly people. Exposure to PM 2.5 has been shown to considerably increase the risk of heart disease and stroke in particular.
-Exposure to ambient particulate matter is estimated by the GBD team by combining satellite data with a chemical transport model, land use information, and calibrated using ground measurements. An integrated exposure-response curve is used to calculate a relative risk for exposure to particulate matter from both ambient and residential (household) sources, and these are then weighted by the proportion of individuals exposed to each source. The method is described in detail in the technical appendix 1 of GBD 2019 Risk Factor Collaborators (2020).
+Exposure to ambient particulate matter is estimated by the GBD team by combining satellite data with a chemical transport model, land use information, and calibrated using ground measurements. An integrated exposure-response curve is used to calculate a relative risk for exposure to particulate matter from both ambient and residential (household) sources, and these are then weighted by the proportion of individuals exposed to each source. The method is described in detail in the technical appendix 1 of GBD 2019 Risk Factor Collaborators (2022).
 Data on mortality and DALYs from exposure to environmental risks are taken from GBD (2019), Global Burden of Disease Study 2019 Results. Welfare costs are calculated using a methodology adapted from OECD (2017b), The Rising Cost of Ambient Air Pollution thus far in the 21st Century: Results from the BRIICS and the OECD Countries.
 For further details please consult: https://stats.oecd.org/wbos/fileview2.aspx?IDFile=1356df09-6bd4-4b0b-9a95-d56e145769ad</t>
   </si>
@@ -3792,11 +3792,11 @@
     <t>Ambient particulate matter, welfare cost of premature deaths (% of total)</t>
   </si>
   <si>
-    <t>As reported in OECD (2020), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en.
+    <t>As reported in OECD (2022), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en.
 Welfare costs of premature deaths from exposure to ambient particulate matter are expressed as a percentage of the welfare cost of total attributable premature deaths.
 Cost estimates represent only the cost of premature mortalities. They are calculated using estimates of the “Value of a Statistical Life” (VSL) and the number of premature deaths attributable to each environmental risk. They exclude any morbidity impacts (labour productivity losses, treatment costs and willingness to pay to avoid pain and suffering from illness). They also exclude impacts other than those on human health (e.g. on built structures, agricultural productivity, ecosystem health). The social cost of the exposure to these environment-related risks is thus greater than the cost of mortalities presented in this chapter. Yet the available evidence suggests that mortality costs account for the bulk of the total costs to society. Finally, VSL also captures non-market values that are unrelated to expenditures and therefore not an integral part of the calculation of GDP. Consequently, the cost estimates are compared with GDP only for illustration.
 According to the World Health Organisation (WHO), exposure to fine particulate matter (PM 2.5) has potentially the most significant adverse effects on health compared to other air pollutants. Particulate matter (PM 2.5) can be inhaled and cause serious health problems including both respiratory and cardiovascular disease, having its most severe effects on children and elderly people. Exposure to PM 2.5 has been shown to considerably increase the risk of heart disease and stroke in particular.
-Exposure to ambient particulate matter is estimated by the GBD team by combining satellite data with a chemical transport model, land use information, and calibrated using ground measurements. An integrated exposure-response curve is used to calculate a relative risk for exposure to particulate matter from both ambient and residential (household) sources, and these are then weighted by the proportion of individuals exposed to each source. The method is described in detail in the technical appendix 1 of GBD 2019 Risk Factor Collaborators (2020).
+Exposure to ambient particulate matter is estimated by the GBD team by combining satellite data with a chemical transport model, land use information, and calibrated using ground measurements. An integrated exposure-response curve is used to calculate a relative risk for exposure to particulate matter from both ambient and residential (household) sources, and these are then weighted by the proportion of individuals exposed to each source. The method is described in detail in the technical appendix 1 of GBD 2019 Risk Factor Collaborators (2022).
 Data on mortality and DALYs from exposure to environmental risks are taken from GBD (2019), Global Burden of Disease Study 2019 Results. Welfare costs are calculated using a methodology adapted from OECD (2017b), The Rising Cost of Ambient Air Pollution thus far in the 21st Century: Results from the BRIICS and the OECD Countries.
 For further details please consult: https://stats.oecd.org/wbos/fileview2.aspx?IDFile=1356df09-6bd4-4b0b-9a95-d56e145769ad</t>
   </si>
@@ -3807,7 +3807,7 @@
     <t>HH air pollution (solid fuels), premature deaths</t>
   </si>
   <si>
-    <t>As reported in OECD (2020), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en.
+    <t>As reported in OECD (2022), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en.
 Reported here is the number of premature deaths attributed to household air pollution from solid fuels each year.
 According to the World Health Organization (WHO), around 3 billion people still cook using solid fuels (such as wood, crop waste, charcoal, coal and dung) and kerosene in open fires and inefficient stoves. These cooking practices are inefficient, and use fuels and technologies that produce high levels of household air pollution with a range of health-damaging pollutants, including small soot particles that penetrate deep into the lungs. In poorly ventilated dwellings, indoor smoke can be 100 times higher than acceptable levels for fine particles.
 Exposure to household air pollution from solid fuels is estimated based on the proportion of households using solid cooking fuels. The definition of solid fuel includes coal, wood, charcoal, dung, and agricultural residues. Data were extracted from multi-country survey series as well as country-specific survey series, covering more than 195 countries. Each nationally or sub-nationally representative data point provided an estimate for the percentage of households using solid cooking fuels. Estimates for the usage of solid fuels for non-cooking purpose were excluded, i.e. primary fuels for lighting. An integrated exposure-response curve is used to calculate a relative risk for exposure to particulate matter from both ambient and residential (household) sources. 
@@ -3821,7 +3821,7 @@
     <t>HH air pollution (solid fuels), premature deaths (% of total)</t>
   </si>
   <si>
-    <t>As reported in OECD (2020), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en.
+    <t>As reported in OECD (2022), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en.
 Reported here is the number of premature deaths attributed to exposure to household air pollution from solid fuels each year, as a percentage of total attributable premature deaths.
 According to the World Health Organization (WHO), around 3 billion people still cook using solid fuels (such as wood, crop waste, charcoal, coal and dung) and kerosene in open fires and inefficient stoves. These cooking practices are inefficient, and use fuels and technologies that produce high levels of household air pollution with a range of health-damaging pollutants, including small soot particles that penetrate deep into the lungs. In poorly ventilated dwellings, indoor smoke can be 100 times higher than acceptable levels for fine particles.
 Exposure to household air pollution from solid fuels is estimated based on the proportion of households using solid cooking fuels. The definition of solid fuel includes coal, wood, charcoal, dung, and agricultural residues. Data were extracted from multi-country survey series as well as country-specific survey series, covering more than 195 countries. Each nationally or sub-nationally representative data point provided an estimate for the percentage of households using solid cooking fuels. Estimates for the usage of solid fuels for non-cooking purpose were excluded, i.e. primary fuels for lighting. An integrated exposure-response curve is used to calculate a relative risk for exposure to particulate matter from both ambient and residential (household) sources.
@@ -3835,7 +3835,7 @@
     <t>HH air pollution (solid fuels), premature deaths (per million population)</t>
   </si>
   <si>
-    <t>Author's calculations based on data reported in OECD (2020), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en, using population figures from the World Population Prospects 2022 to calculates death rates per million inhabitants.
+    <t>Author's calculations based on data reported in OECD (2022), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en, using population figures from the World Population Prospects 2022 to calculates death rates per million inhabitants.
 Reported here is the number of premature deaths attributed to exposure to household air pollution from solid fuels each year, per million inhabitants. 
 According to the World Health Organization (WHO), around 3 billion people still cook using solid fuels (such as wood, crop waste, charcoal, coal and dung) and kerosene in open fires and inefficient stoves. These cooking practices are inefficient, and use fuels and technologies that produce high levels of household air pollution with a range of health-damaging pollutants, including small soot particles that penetrate deep into the lungs. In poorly ventilated dwellings, indoor smoke can be 100 times higher than acceptable levels for fine particles.
 Exposure to household air pollution from solid fuels is estimated based on the proportion of households using solid cooking fuels. The definition of solid fuel includes coal, wood, charcoal, dung, and agricultural residues. Data were extracted from multi-country survey series as well as country-specific survey series, covering more than 195 countries. Each nationally or sub-nationally representative data point provided an estimate for the percentage of households using solid cooking fuels. Estimates for the usage of solid fuels for non-cooking purpose were excluded, i.e. primary fuels for lighting. An integrated exposure-response curve is used to calculate a relative risk for exposure to particulate matter from both ambient and residential (household) sources.
@@ -3849,7 +3849,7 @@
     <t>HH air pollution (solid fuels), welfare cost of premature deaths (USD per capita)</t>
   </si>
   <si>
-    <t>As reported in OECD (2020), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en.
+    <t>As reported in OECD (2022), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en.
 Welfare costs of premature deaths from exposure to household air pollution from solid fuels are expressed in millions of constant 2015 USD per capita.
 Cost estimates represent only the cost of premature mortalities. They are calculated using estimates of the “Value of a Statistical Life” (VSL) and the number of premature deaths attributable to each environmental risk. They exclude any morbidity impacts (labour productivity losses, treatment costs and willingness to pay to avoid pain and suffering from illness). They also exclude impacts other than those on human health (e.g. on built structures, agricultural productivity, ecosystem health). The social cost of the exposure to these environment-related risks is thus greater than the cost of mortalities presented in this chapter. Yet the available evidence suggests that mortality costs account for the bulk of the total costs to society. Finally, VSL also captures non-market values that are unrelated to expenditures and therefore not an integral part of the calculation of GDP. Consequently, the cost estimates are compared with GDP only for illustration.
 According to the World Health Organization (WHO), around 3 billion people still cook using solid fuels (such as wood, crop waste, charcoal, coal and dung) and kerosene in open fires and inefficient stoves. These cooking practices are inefficient, and use fuels and technologies that produce high levels of household air pollution with a range of health-damaging pollutants, including small soot particles that penetrate deep into the lungs. In poorly ventilated dwellings, indoor smoke can be 100 times higher than acceptable levels for fine particles.
@@ -3864,7 +3864,7 @@
     <t>HH air pollution (solid fuels), welfare cost of premature deaths (% of GDP)</t>
   </si>
   <si>
-    <t>As reported in OECD (2020), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en.
+    <t>As reported in OECD (2022), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en.
 Welfare costs of premature deaths from exposure to household air pollution from solid fuels are expressed as a percentage of GDP.
 Cost estimates represent only the cost of premature mortalities. They are calculated using estimates of the “Value of a Statistical Life” (VSL) and the number of premature deaths attributable to each environmental risk. They exclude any morbidity impacts (labour productivity losses, treatment costs and willingness to pay to avoid pain and suffering from illness). They also exclude impacts other than those on human health (e.g. on built structures, agricultural productivity, ecosystem health). The social cost of the exposure to these environment-related risks is thus greater than the cost of mortalities presented in this chapter. Yet the available evidence suggests that mortality costs account for the bulk of the total costs to society. Finally, VSL also captures non-market values that are unrelated to expenditures and therefore not an integral part of the calculation of GDP. Consequently, the cost estimates are compared with GDP only for illustration.
 According to the World Health Organization (WHO), around 3 billion people still cook using solid fuels (such as wood, crop waste, charcoal, coal and dung) and kerosene in open fires and inefficient stoves. These cooking practices are inefficient, and use fuels and technologies that produce high levels of household air pollution with a range of health-damaging pollutants, including small soot particles that penetrate deep into the lungs. In poorly ventilated dwellings, indoor smoke can be 100 times higher than acceptable levels for fine particles.
@@ -3879,7 +3879,7 @@
     <t>HH air pollution (solid fuels), welfare cost of premature deaths (% of total)</t>
   </si>
   <si>
-    <t>As reported in OECD (2020), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en.
+    <t>As reported in OECD (2022), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en.
 Welfare costs of premature deaths from exposure to household air pollution from solid fuels are expressed as a percentage of the welfare cost of total attributable premature deaths.
 Cost estimates represent only the cost of premature mortalities. They are calculated using estimates of the “Value of a Statistical Life” (VSL) and the number of premature deaths attributable to each environmental risk. They exclude any morbidity impacts (labour productivity losses, treatment costs and willingness to pay to avoid pain and suffering from illness). They also exclude impacts other than those on human health (e.g. on built structures, agricultural productivity, ecosystem health). The social cost of the exposure to these environment-related risks is thus greater than the cost of mortalities presented in this chapter. Yet the available evidence suggests that mortality costs account for the bulk of the total costs to society. Finally, VSL also captures non-market values that are unrelated to expenditures and therefore not an integral part of the calculation of GDP. Consequently, the cost estimates are compared with GDP only for illustration.
 According to the World Health Organization (WHO), around 3 billion people still cook using solid fuels (such as wood, crop waste, charcoal, coal and dung) and kerosene in open fires and inefficient stoves. These cooking practices are inefficient, and use fuels and technologies that produce high levels of household air pollution with a range of health-damaging pollutants, including small soot particles that penetrate deep into the lungs. In poorly ventilated dwellings, indoor smoke can be 100 times higher than acceptable levels for fine particles.
@@ -3894,7 +3894,7 @@
     <t>Ambient Ozone, premature deaths (per million population)</t>
   </si>
   <si>
-    <t>Author's calculations based on data reported in OECD (2020), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en, using population figures from the World Population Prospects 2022 to calculates death rates per million inhabitants.
+    <t>Author's calculations based on data reported in OECD (2022), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en, using population figures from the World Population Prospects 2022 to calculates death rates per million inhabitants.
 Reported here is the number of premature deaths attributed to exposure to ambient ozone (O3) each year, per million inhabitants. 
 Ambient (or ground-level) ozone (O3) has serious consequences for human health, contributing to, or triggering, respiratory diseases. These include breathing problems, asthma and reduced lung function (WHO). Ozone exposure is highest in emission-dense countries with warm and sunny summers. The most important determinants are background atmospheric chemistry, climate, anthropogenic and biogenic emissions of ozone precursors such as volatile organic compounds, and the ratios between different emitted chemicals.
 Exposure to ambient ozone is defined as the seasonal (6-month period with highest mean) 8-hour daily maximum ozone concentrations, measured in ppb (part per billion). Exposure estimates by the GBD team incorporate a comprehensive ozone measurement database enabling a continent-specific weighted blend of six chemical transport models, and the calibration with ground measurements.
@@ -3908,10 +3908,10 @@
     <t>High temperature, premature deaths (per million population)</t>
   </si>
   <si>
-    <t>Author's calculations based on data reported in OECD (2020), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en, using population figures from the World Population Prospects 2022 to calculates death rates per million inhabitants.
+    <t>Author's calculations based on data reported in OECD (2022), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en, using population figures from the World Population Prospects 2022 to calculates death rates per million inhabitants.
 Reported here is the number of premature deaths attributed to exposure to high temperatures each year, per million inhabitants. 
 Ambient temperature affects human health in various ways. There is substantial epidemiologic evidence of increased risk of mortality from high or low non-optimal ambient temperatures or extreme temperature events. Non-optimal temperatures have been associated, among other causes, with ischaemic heart disease, stroke, hypertensive heart disease, diabetes, respiratory infections and obstructive pulmonary diseases. In addition, extreme weather events such as heat waves, droughts or porlar vortex are expected to be more frequent and intense under climate change, with significant associated health impacts.
-Exposure to high and low temperature is estimated by the GBD team combining ERA5 climate reanalysis data with gridded population data. An integrated exposure-response meta-analysis model is used to calculate a relative mortality risk for exposure to average daily temperatures and temperature zones. The GBD study performs a systematic assessment of risk across the whole temperature range (i.e. including moderate non-optimal temperatures) in populations exposed to different climates. The method is described in detail in the technical appendix 1 of GBD 2019 Risk Factor Collaborators (2020).
+Exposure to high and low temperature is estimated by the GBD team combining ERA5 climate reanalysis data with gridded population data. An integrated exposure-response meta-analysis model is used to calculate a relative mortality risk for exposure to average daily temperatures and temperature zones. The GBD study performs a systematic assessment of risk across the whole temperature range (i.e. including moderate non-optimal temperatures) in populations exposed to different climates. The method is described in detail in the technical appendix 1 of GBD 2019 Risk Factor Collaborators (2022).
 Data on mortality and DALYs from exposure to environmental risks are taken from GBD (2019), Global Burden of Disease Study 2019 Results. Welfare costs are calculated using a methodology adapted from OECD (2017b), The Rising Cost of Ambient Air Pollution thus far in the 21st Century: Results from the BRIICS and the OECD Countries.
 For further details please consult: https://stats.oecd.org/wbos/fileview2.aspx?IDFile=1356df09-6bd4-4b0b-9a95-d56e145769ad</t>
   </si>
@@ -3922,10 +3922,10 @@
     <t>Low temperature, premature deaths (per million population)</t>
   </si>
   <si>
-    <t>Author's calculations based on data reported in OECD (2020), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en, using population figures from the World Population Prospects 2022 to calculates death rates per million inhabitants.
+    <t>Author's calculations based on data reported in OECD (2022), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en, using population figures from the World Population Prospects 2022 to calculates death rates per million inhabitants.
 Reported here is the number of premature deaths attributed to exposure to low temperatures each year, per million inhabitants. 
 Ambient temperature affects human health in various ways. There is substantial epidemiologic evidence of increased risk of mortality from high or low non-optimal ambient temperatures or extreme temperature events. Non-optimal temperatures have been associated, among other causes, with ischaemic heart disease, stroke, hypertensive heart disease, diabetes, respiratory infections and obstructive pulmonary diseases. In addition, extreme weather events such as heat waves, droughts or porlar vortex are expected to be more frequent and intense under climate change, with significant associated health impacts.
-Exposure to high and low temperature is estimated by the GBD team combining ERA5 climate reanalysis data with gridded population data. An integrated exposure-response meta-analysis model is used to calculate a relative mortality risk for exposure to average daily temperatures and temperature zones. The GBD study performs a systematic assessment of risk across the whole temperature range (i.e. including moderate non-optimal temperatures) in populations exposed to different climates. The method is described in detail in the technical appendix 1 of GBD 2019 Risk Factor Collaborators (2020).
+Exposure to high and low temperature is estimated by the GBD team combining ERA5 climate reanalysis data with gridded population data. An integrated exposure-response meta-analysis model is used to calculate a relative mortality risk for exposure to average daily temperatures and temperature zones. The GBD study performs a systematic assessment of risk across the whole temperature range (i.e. including moderate non-optimal temperatures) in populations exposed to different climates. The method is described in detail in the technical appendix 1 of GBD 2019 Risk Factor Collaborators (2022).
 Data on mortality and DALYs from exposure to environmental risks are taken from GBD (2019), Global Burden of Disease Study 2019 Results. Welfare costs are calculated using a methodology adapted from OECD (2017b), The Rising Cost of Ambient Air Pollution thus far in the 21st Century: Results from the BRIICS and the OECD Countries.
 For further details please consult: https://stats.oecd.org/wbos/fileview2.aspx?IDFile=1356df09-6bd4-4b0b-9a95-d56e145769ad</t>
   </si>
@@ -3936,7 +3936,7 @@
     <t>Lead, premature deaths (per million population)</t>
   </si>
   <si>
-    <t>Author's calculations based on data reported in OECD (2020), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en, using population figures from the World Population Prospects 2022 to calculates death rates per million inhabitants.
+    <t>Author's calculations based on data reported in OECD (2022), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en, using population figures from the World Population Prospects 2022 to calculates death rates per million inhabitants.
 Reported here is the number of premature deaths attributed to exposure to lead each year, per million inhabitants. 
 Lead (Pb) is a toxic metal found in the Earth’s crust. Its widespread use has resulted in extensive environmental contamination, human exposure and significant public health problems in many parts of the world. Important sources of environmental contamination include mining, smelting, manufacturing , recycling activities and the continued use of leaded paint, gasoline, and aviation fuel in some countries. More than three quarters of global lead consumption is for the manufacture of lead-acid batteries for motor vehicles however lead is also used in many other products like pigments, paints, solder, stained glass, lead crystal glassware, ammunition, ceramic glazes, jewellery, toys and in some cosmetics and traditional medicines. Drinking water delivered through lead pipes or pipes joined with lead solder may contain lead. Much of the lead in global commerce is now obtained from recycling.
 Young children are particularly vulnerable to the toxic effects of lead and can suffer profound and permanent adverse health effects, particularly affecting the development of the brain and nervous system. Lead also causes long-term harm in adults, including increased risk of high blood pressure and kidney damage. Exposure of pregnant women to high levels of lead can cause miscarriage, stillbirth, premature birth and low birth weight.
@@ -3951,7 +3951,7 @@
     <t>Residential radon, premature deaths (per million population)</t>
   </si>
   <si>
-    <t>Author's calculations based on data reported in OECD (2020), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en, using population figures from the World Population Prospects 2022 to calculates death rates per million inhabitants.
+    <t>Author's calculations based on data reported in OECD (2022), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en, using population figures from the World Population Prospects 2022 to calculates death rates per million inhabitants.
 Reported here is the number of premature deaths attributed to exposure to residential radon each year, per million inhabitants. 
 Radon (Rn) is a radioactive gas that is produced as a by-product of the decay chain of uranium, occurring naturally within the Earth’s crust. Some fraction of this natural radon production escapes into the atmosphere, where it forms at low concentration unless build-up is caused by enclosed spaces like homes, mines, or caves. Soil gas infiltration is recognized as the most important source of residential radon. Other sources, including building materials and water extracted from wells, are of less importance in most circumstances. Radon is a major contributor to the ionizing radiation dose received by the general population, and is the second cause of lung cancer, after smoking. Epidemiological studies have provided convincing evidence of an association between indoor radon exposure and lung cancer, even at the relatively low radon levels commonly found in residential buildings.
 Exposure to residential radon is expressed as average daily exposure to indoor air radon gas levels measured in Becquerels (disintegrations per second) per cubic meter (Bq/m3). Exposure to radon is then determined using values validated by an expert group of the GBD team. These values are taken from the literature, government agencies, and monitoring stations. The relative risk of radon is extracted from a meta-analysis of case-control studies showing the association of residential radon with lung cancer.
@@ -3965,7 +3965,7 @@
     <t>Unsafe water source, premature deaths (per million population)</t>
   </si>
   <si>
-    <t>Author's calculations based on data reported in OECD (2020), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en, using population figures from the World Population Prospects 2022 to calculates death rates per million inhabitants.
+    <t>Author's calculations based on data reported in OECD (2022), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en, using population figures from the World Population Prospects 2022 to calculates death rates per million inhabitants.
 Reported here is the number of premature deaths attributed to exposure to unsafe water sources each year, per million inhabitants. 
 Unsafe water source is defined based on reported primary water source used by the household and use of household water treatment to improve the quality of drinking water before consumption. Water sources are defined as improved based on the WHO-UNICEF joint monitoring programme of improved and unimproved water sources and sanitation facilities, which includes piped water as improved water, and households with access to piped water connection to the house, yard, or plot were defined as having access to piped water supply. Solar treatment, chlorine treatment, boiling, or the use of filters are all established by the joint monitoring programme as effective point-of-use household water treatments based on effect sizes calculated from network meta-analysis.
 Exposure to unsafe water sources is expressed as the proportion of individuals with unimproved water source prevalence or household water treatment. Water source data and household water treatment data include country-specific demographic health surveys and malaria indicator survey series, validated by the GBD team of experts.
@@ -3979,7 +3979,7 @@
     <t>Unsafe sanitation, premature deaths (per million population)</t>
   </si>
   <si>
-    <t>Author's calculations based on data reported in OECD (2020), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en, using population figures from the World Population Prospects 2022 to calculates death rates per million inhabitants.
+    <t>Author's calculations based on data reported in OECD (2022), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en, using population figures from the World Population Prospects 2022 to calculates death rates per million inhabitants.
 Reported here is the number of premature deaths attributed to exposure to unsafe sanitation each year, per million inhabitants. 
 Unsafe sanitation is defined based on the primary toilet type used by households. Improved facilities are defined based on the WHO-UNICEF joint monitoring programme of improved and unimproved water sources and sanitation facilities, which includes flush toilets or any toilet with connection to the sewer or septic tank. 
 Exposure to unsafe sanitation is expressed as the proportion of individuals without sewer connection or improved sanitation. Improved sanitation facilities and sewer connection data is obtained from censuses and nationally representative surveys, validated by the GBD team of experts.
@@ -3993,7 +3993,7 @@
     <t>Handwashing facilities, premature deaths (per million population)</t>
   </si>
   <si>
-    <t>Author's calculations based on data reported in OECD (2020), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en, using population figures from the World Population Prospects 2022 to calculates death rates per million inhabitants.
+    <t>Author's calculations based on data reported in OECD (2022), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en, using population figures from the World Population Prospects 2022 to calculates death rates per million inhabitants.
 Reported here is the number of premature deaths attributed to lack of access to handwashing facilities each year, per million inhabitants. 
 Unsafe handwashing facility is defined based on the availability of a handwashing station with soap and water. No access to handwashing facility is expressed as the proportion of individuals without sewer connection or improved sanitation. Improved sanitation facilities and sewer connection data is obtained from country-specific censuses, demographic health surveys and malaria indicator survey series, validated by the GBD team of experts.
 Data on mortality and DALYs from exposure to environmental risks are taken from GBD (2019), Global Burden of Disease Study 2019 Results. Welfare costs are calculated using a methodology adapted from OECD (2017b), The Rising Cost of Ambient Air Pollution thus far in the 21st Century: Results from the BRIICS and the OECD Countries.
@@ -4006,7 +4006,7 @@
     <t>Occupational air pollution, premature deaths (per million population)</t>
   </si>
   <si>
-    <t>Author's calculations based on data reported in OECD (2020), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en, using population figures from the World Population Prospects 2022 to calculates death rates per million inhabitants.
+    <t>Author's calculations based on data reported in OECD (2022), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en, using population figures from the World Population Prospects 2022 to calculates death rates per million inhabitants.
 Reported here is the number of premature deaths attributed to exposure to occupational particulate matter, gases and fumes each year, per million inhabitants. 
 Exposure to particulate matter, gases and fumes has significant adverse effects on health. Particulate matter can be inhaled and cause serious health problems including both respiratory and cardiovascular disease. Exposure to these occupational risks has been shown to considerably increase the risk of heart disease and stroke in particular.
 Exposure to occupational particulate matter, gases and fumes is expressed as the proportion of the population that is occupationally exposed to particulates, based on distributions of occupation across economic activities. Data on economic activity proportions, occupation proportions, employment to population ratio estimates are obtained from the International Labour Organization. Exposure rates are provided by expert group recommendations, literature, and a modelling of prevalence of exposure developed by the GBD team
@@ -4020,7 +4020,7 @@
     <t>Occupational carcinogens, premature deaths (per million population)</t>
   </si>
   <si>
-    <t>Author's calculations based on data reported in OECD (2020), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en, using population figures from the World Population Prospects 2022 to calculates death rates per million inhabitants.
+    <t>Author's calculations based on data reported in OECD (2022), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en, using population figures from the World Population Prospects 2022 to calculates death rates per million inhabitants.
 Reported here is the number of premature deaths attributed to exposure to occupational carcinogens each year, per million inhabitants. 
 Occupation carcinogens include arsenic, benzene, beryllium, cadmium, chromium, diesel engine exhaust, formaldehyde, nickel, polycyclic aromatic hydrocarbons, silica, sulphuric acid, and trichloroethylene. Exposure to these agents causes a wide range of cancers; cancers of the lung and other respiratory sites, followed by skin, account for the largest proportion. The dominant routes of exposure are inhalation and dermal contact.
 Exposure to occupational carcinogens is expressed as the proportion of the population that is occupationally exposed to carcinogens at high or low exposure levels, based on distributions of occupation across economic activities. Data on economic activity proportions, occupation proportions, employment to population ratio estimates are obtained from the International Labour Organization. Exposure rates are provided by expert group recommendations, literature, and a modelling of prevalence of exposure developed by the GBD team.
@@ -4034,7 +4034,7 @@
     <t>Second-hand smoke, premature deaths (per million population)</t>
   </si>
   <si>
-    <t>Author's calculations based on data reported in OECD (2020), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en, using population figures from the World Population Prospects 2022 to calculates death rates per million inhabitants.
+    <t>Author's calculations based on data reported in OECD (2022), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en, using population figures from the World Population Prospects 2022 to calculates death rates per million inhabitants.
 Reported here is the number of premature deaths attributed to exposure to second-hand smoke each year, per million inhabitants. 
 Second-hand smoke is one of the most important and most widespread exposures in the indoor environment. The link between second-hand smoke and several health outcomes, such as respiratory infections, ischaemic heart disease, lung cancer and asthma, have long been established. Smoke-free health regulations in public places, including all indoor workplaces, protects people from the harms of second-hand smoke, helps smokers quit and reduces youth smoking.
 Exposure to second-hand smoke is expressed as the proportion of the population exposed to second-hand smoke at home, work or in other public places. Household surveys are used to study the household composition as a proxy for non-occupational second-hand smoke exposure; all persons living with a daily smoker are assumed to be exposed to tobacco smoke. Surveys are used to estimate the proportion of individuals exposed to second-hand smoke at work. Only non-smokers are considered to be exposed to second-hand smoke. Non-smokers are defined as all persons who are not daily smokers (ex-smokers and occasional smokers are considered non-smokers) in the analysis done by the GBD team. Input survey data includes country-specific demographic health surveys, the multiple indicator cluster surveys, the living Standards Measurement Surveys, Global Adult Tobacco Surveys, Eurobarometer Surveys, and the World Health Organisation stepwise approach to surveillance survey.
@@ -4048,10 +4048,10 @@
     <t>Diet high in red meat, premature deaths (per million population)</t>
   </si>
   <si>
-    <t>Author's calculations based on data reported in OECD (2020), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en, using population figures from the World Population Prospects 2022 to calculates death rates per million inhabitants.
+    <t>Author's calculations based on data reported in OECD (2022), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en, using population figures from the World Population Prospects 2022 to calculates death rates per million inhabitants.
 Reported here is the number of premature deaths attributed to diets high in red meat each year, per million inhabitants. 
 Eating meat has many known health benefits, however the WHO advise people to limit intake of processed meat and red meat, which are linked to increased risks of death from heart disease, diabetes, and other illnesses. In the case of red meat, according to the WHO’s meta-analysis of epidemiological studies, there exists positive associations between eating red meat and developing colorectal cancer. There is also evidence of links with pancreatic cancer and prostate cancer. The lowest level of consumption of red meat at which the risks of mortality have been observed is of 18-27 gr/day.
-In addition to the impact that a diet high in red meat has on human health, meat consumption has an important burden for the environment. The production, processing and distribution of meat lead to land use changes, increased freshwater use, water pollution, air pollution and emissions of greenhouse gases. Among the range of animal products, red meat has potentially the highest impact on the environment. However, even the lowest-level impact animal products typically exceed those of vegetable substitutes, raising the importance of a dietary change (Poore, J. and Nemecek, T., 20182). Exposure to diet high in red meat is defined as average daily consumption of greater than 22.5 grams per day of red meat (beef, veal, pork, lamb, mutton, horse, and goat but excluding poultry, fish, eggs, and all processed meats). Dietary data used to calculate exposure includes nationally and sub nationally representative nutrition surveys, household budget surveys, accounts of national sales, and United Nations FAO Food Balance Sheets and Supply and Utilization Accounts.
+In addition to the impact that a diet high in red meat has on human health, meat consumption has an important burden for the environment. The production, processing and distribution of meat lead to land use changes, increased freshwater use, water pollution, air pollution and emissions of greenhouse gases. Among the range of animal products, red meat has potentially the highest impact on the environment. However, even the lowest-level impact animal products typically exceed those of vegetable substitutes, raising the importance of a dietary change (Poore, J. and Nemecek, T., 20222). Exposure to diet high in red meat is defined as average daily consumption of greater than 22.5 grams per day of red meat (beef, veal, pork, lamb, mutton, horse, and goat but excluding poultry, fish, eggs, and all processed meats). Dietary data used to calculate exposure includes nationally and sub nationally representative nutrition surveys, household budget surveys, accounts of national sales, and United Nations FAO Food Balance Sheets and Supply and Utilization Accounts.
 Data on mortality and DALYs from exposure to environmental risks are taken from GBD (2019), Global Burden of Disease Study 2019 Results. Welfare costs are calculated using a methodology adapted from OECD (2017b), The Rising Cost of Ambient Air Pollution thus far in the 21st Century: Results from the BRIICS and the OECD Countries.
 For further details please consult: https://stats.oecd.org/wbos/fileview2.aspx?IDFile=1356df09-6bd4-4b0b-9a95-d56e145769ad</t>
   </si>
@@ -4065,10 +4065,10 @@
     <t>Diet high in processed meat, premature deaths (per million population)</t>
   </si>
   <si>
-    <t>Author's calculations based on data reported in OECD (2020), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en, using population figures from the World Population Prospects 2022 to calculates death rates per million inhabitants.
+    <t>Author's calculations based on data reported in OECD (2022), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en, using population figures from the World Population Prospects 2022 to calculates death rates per million inhabitants.
 Reported here is the number of premature deaths attributed to diets high in processed meats each year, per million inhabitants. 
 Eating meat has many known health benefits, however the WHO advise people to limit intake of processed meat and red meat, which are linked to increased risks of death from heart disease, diabetes, and other illnesses. In the case of processed meat, according to the WHO, there is sufficient evidence from epidemiological studies that eating processed meat causes colorectal cancer. An association with stomach cancer was also seen, but the evidence is not conclusive. The lowest level of consumption of processed meat at which the risks of mortality have been observed is of 0-4 gr/day.
-In addition to the impact that a diet high in red meat has on human health, meat consumption has an important burden for the environment. The production, processing and distribution of meat leads to land use changes, increased freshwater use, water pollution, air pollution and emissions of greenhouse gases. Among the range of animal products, red meat (used in most processed meats) has potentially the highest impact on the environment, however, even the lowest-level impact animal products typically exceed those of vegetable substitutes, raising the importance of a dietary change (Poore, J. and Nemecek, T., 2018).
+In addition to the impact that a diet high in red meat has on human health, meat consumption has an important burden for the environment. The production, processing and distribution of meat leads to land use changes, increased freshwater use, water pollution, air pollution and emissions of greenhouse gases. Among the range of animal products, red meat (used in most processed meats) has potentially the highest impact on the environment, however, even the lowest-level impact animal products typically exceed those of vegetable substitutes, raising the importance of a dietary change (Poore, J. and Nemecek, T., 2022).
 Exposure to diet high in processed meat is defined as average daily consumption of greater than 2 grams of meat preserved by smoking, curing, salting, or addition of chemical preservatives. Dietary data used to calculate exposure includes nationally and sub-nationally representative nutrition surveys, household budget surveys, accounts of national sales, and United Nations FAO Food Balance Sheets and Supply and Utilization Accounts.
 Data on mortality and DALYs from exposure to environmental risks are taken from GBD (2019), Global Burden of Disease Study 2019 Results. Welfare costs are calculated using a methodology adapted from OECD (2017b), The Rising Cost of Ambient Air Pollution thus far in the 21st Century: Results from the BRIICS and the OECD Countries.
 For further details please consult: https://stats.oecd.org/wbos/fileview2.aspx?IDFile=1356df09-6bd4-4b0b-9a95-d56e145769ad</t>
@@ -4129,7 +4129,7 @@
   </si>
   <si>
     <t>Dynamic general equilibrium model-based (DGE) estimates of informal output (% of GDP).
-Indicator included within the global database of informal activity developed by the World Bank's Prospects Group. The dataset was developed following a methodology outlined in Elgin, C., M. A. Kose, F. Ohnsorge, and S. Yu. 2021. “Understanding Informality.” CERP Discussion Paper 16497, Centre for Economic Policy Research, London. www.worldbank.org/en/research/brief/informal-economy-database</t>
+Indicator included within the global database of informal activity developed by the World Bank's Prospects Group. The dataset was developed following a methodology outlined in Elgin, C., M. A. Kose, F. Ohnsorge, and S. Yu. 2022. “Understanding Informality.” CERP Discussion Paper 16497, Centre for Economic Policy Research, London. www.worldbank.org/en/research/brief/informal-economy-database</t>
   </si>
   <si>
     <t>1990-2018</t>
@@ -4145,7 +4145,7 @@
   </si>
   <si>
     <t>Multiple indicators multiple causes model-based (MIMIC) estimates of informal output (% of GDP).
-Indicator included within the global database of informal activity developed by the World Bank's Prospects Group. The dataset was developed following a methodology outlined in Elgin, C., M. A. Kose, F. Ohnsorge, and S. Yu. 2021. “Understanding Informality.” CERP Discussion Paper 16497, Centre for Economic Policy Research, London. www.worldbank.org/en/research/brief/informal-economy-database</t>
+Indicator included within the global database of informal activity developed by the World Bank's Prospects Group. The dataset was developed following a methodology outlined in Elgin, C., M. A. Kose, F. Ohnsorge, and S. Yu. 2022. “Understanding Informality.” CERP Discussion Paper 16497, Centre for Economic Policy Research, London. www.worldbank.org/en/research/brief/informal-economy-database</t>
   </si>
   <si>
     <t>1993-2018</t>
@@ -4158,7 +4158,7 @@
   </si>
   <si>
     <t>Percent of firms competing against unregistered or informal firms.
-Indicator included within the global database of informal activity developed by the World Bank's Prospects Group. The dataset was developed following a methodology outlined in Elgin, C., M. A. Kose, F. Ohnsorge, and S. Yu. 2021. “Understanding Informality.” CERP Discussion Paper 16497, Centre for Economic Policy Research, London. www.worldbank.org/en/research/brief/informal-economy-database</t>
+Indicator included within the global database of informal activity developed by the World Bank's Prospects Group. The dataset was developed following a methodology outlined in Elgin, C., M. A. Kose, F. Ohnsorge, and S. Yu. 2022. “Understanding Informality.” CERP Discussion Paper 16497, Centre for Economic Policy Research, London. www.worldbank.org/en/research/brief/informal-economy-database</t>
   </si>
   <si>
     <t>WBInfFrmReg</t>
@@ -4168,7 +4168,7 @@
   </si>
   <si>
     <t>Percent of firms formally registered when they started operations in the country.
-Indicator included within the global database of informal activity developed by the World Bank's Prospects Group. The dataset was developed following a methodology outlined in Elgin, C., M. A. Kose, F. Ohnsorge, and S. Yu. 2021. “Understanding Informality.” CERP Discussion Paper 16497, Centre for Economic Policy Research, London. www.worldbank.org/en/research/brief/informal-economy-database</t>
+Indicator included within the global database of informal activity developed by the World Bank's Prospects Group. The dataset was developed following a methodology outlined in Elgin, C., M. A. Kose, F. Ohnsorge, and S. Yu. 2022. “Understanding Informality.” CERP Discussion Paper 16497, Centre for Economic Policy Research, London. www.worldbank.org/en/research/brief/informal-economy-database</t>
   </si>
   <si>
     <t>WBInfCmpCnst</t>
@@ -4178,7 +4178,7 @@
   </si>
   <si>
     <t>Percent of firms identifying practices of competitors in the informal sector as a constraint.
-Indicator included within the global database of informal activity developed by the World Bank's Prospects Group. The dataset was developed following a methodology outlined in Elgin, C., M. A. Kose, F. Ohnsorge, and S. Yu. 2021. “Understanding Informality.” CERP Discussion Paper 16497, Centre for Economic Policy Research, London. www.worldbank.org/en/research/brief/informal-economy-database</t>
+Indicator included within the global database of informal activity developed by the World Bank's Prospects Group. The dataset was developed following a methodology outlined in Elgin, C., M. A. Kose, F. Ohnsorge, and S. Yu. 2022. “Understanding Informality.” CERP Discussion Paper 16497, Centre for Economic Policy Research, London. www.worldbank.org/en/research/brief/informal-economy-database</t>
   </si>
   <si>
     <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2023</t>
@@ -4875,7 +4875,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{E8558832-00FC-43C4-BF14-23BB384E3A87}">
+    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{72FC30D6-868B-4192-9C05-36F4E3C7CF32}">
       <tableStyleElement type="wholeTable" dxfId="22"/>
       <tableStyleElement type="headerRow" dxfId="21"/>
       <tableStyleElement type="firstRowStripe" dxfId="20"/>
@@ -4893,25 +4893,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E320C4DC-572F-4C31-BE63-002B660D723B}" name="Table36" displayName="Table36" ref="B3:R366" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A46DDADE-11DC-438B-B9BF-B0B0E1F6111B}" name="Table36" displayName="Table36" ref="B3:R366" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{3FB81B88-7258-4844-8294-7B1D37E6B124}" name="Indicator Code" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{ABBC3C99-3E8B-48FB-8538-1394195F2855}" name="Table" dataDxfId="15" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{BA28E295-4E74-4F45-916E-5B2FD578601E}" name="Indicator Name" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{78226D8C-7D97-4F73-98BA-B4477FE032C9}" name="Indicator description" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{BC49619C-97D8-4040-BF88-B92B0A5CC7F0}" name="Unit of measure" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{60C95F35-DF8B-4C1B-9839-13175859D1A0}" name="Scale" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{805D9CB1-59F6-48CC-B44B-81F4D070576C}" name="Calculation used in aggregation" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{D89CFE99-03A5-400C-81EC-DF61A7467570}" name="Weight used in aggregation" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{1835E08B-F331-4232-A126-17065067B1C4}" name="Years covered by data" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{775750F2-F4C6-45C1-B73C-E8397DFF3975}" name="Reference year for coverage statistics" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{2C6C6024-935A-4265-8A12-18ED18161C8E}" name="Data coverage - % of African countries" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{00B285C4-2FB9-41E4-A00B-43D212D7992D}" name="Data coverage - % of population of African countries" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{1FE9FBA2-9433-42B4-A76C-F43D739413F7}" name="Data coverage - % of GDP (in PPP dollars) of African countries" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{E4429B25-5B55-483E-85BC-460D2E750B71}" name="Data coverage - % of non-African countries" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{5A3B405D-A532-4F3A-9D2E-9C4B8B640B09}" name="Data coverage - % of population of non-African countries" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{0DCD29C8-305E-44D0-AB9E-1D0D6944AE1B}" name="Data coverage - % of GDP in PPP dollars of non-African countries" dataDxfId="1"/>
-    <tableColumn id="17" xr3:uid="{9B358624-BE5B-430E-BA86-B0A16BA37E4D}" name="Source" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{E7B04EDD-9446-4B11-AB92-99208030837F}" name="Indicator Code" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{523F7482-83D3-49B4-9C1D-40E418DF3DD0}" name="Table" dataDxfId="15" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{8F0DEE7F-00AF-4055-A802-C37608162E5D}" name="Indicator Name" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{2836445D-3663-435F-83ED-C59C82FEF907}" name="Indicator description" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{7D772AE8-6120-401A-99F6-B3BB8B293381}" name="Unit of measure" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{663EAB6F-6B0A-4E5D-94A0-141B1A573074}" name="Scale" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{3C262F7B-5CC3-42E8-9667-D8D50CDB705F}" name="Calculation used in aggregation" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{47F3FA52-FFEA-4383-99EC-8460DEE34AFC}" name="Weight used in aggregation" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{4D59D2CA-4EA0-46ED-A5EE-B851F6AC8D9B}" name="Years covered by data" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{0400F2BE-9DF4-4AE9-9E76-2657684C612F}" name="Reference year for coverage statistics" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{D4890BB5-A50C-492C-92AC-7765D5577FA7}" name="Data coverage - % of African countries" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{F1D1D8B4-FE7F-43C4-ADE1-6916430F2808}" name="Data coverage - % of population of African countries" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{84E9D06C-691E-4AF0-9CBF-6A1CB526595E}" name="Data coverage - % of GDP (in PPP dollars) of African countries" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{66E291C7-6C4C-4999-9DA4-CAB85E3E1FD7}" name="Data coverage - % of non-African countries" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{7B8E1028-0B99-4744-AD02-95A2E4B00439}" name="Data coverage - % of population of non-African countries" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{9E2463E0-99E9-4D32-96F0-8C3481EAC831}" name="Data coverage - % of GDP in PPP dollars of non-African countries" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{86635210-FE25-46A9-A006-B04CE5BACCCE}" name="Source" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="AfDD Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5213,7 +5213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCE90D0-19DC-4003-9E58-DB27213D23DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024BF9BD-9F3B-45A2-98C2-5A122CEAF7EF}">
   <dimension ref="A1:R376"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
@@ -5601,7 +5601,7 @@
         <v>56</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>35</v>
@@ -5949,7 +5949,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="B16" s="17" t="s">
         <v>87</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:18" ht="42" x14ac:dyDescent="0.35">
       <c r="B18" s="17" t="s">
         <v>99</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="2:18" ht="126" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
       <c r="B37" s="17" t="s">
         <v>162</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="2:18" ht="126" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
       <c r="B38" s="17" t="s">
         <v>165</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="2:18" ht="126" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
       <c r="B39" s="17" t="s">
         <v>167</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="2:18" ht="126" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
       <c r="B40" s="17" t="s">
         <v>169</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="B41" s="17" t="s">
         <v>171</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B42" s="17" t="s">
         <v>175</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="51" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="B51" s="17" t="s">
         <v>203</v>
       </c>
@@ -8493,7 +8493,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="B64" s="17" t="s">
         <v>243</v>
       </c>
@@ -8758,7 +8758,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="69" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B69" s="17" t="s">
         <v>261</v>
       </c>
@@ -8864,7 +8864,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="71" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B71" s="17" t="s">
         <v>267</v>
       </c>
@@ -11620,7 +11620,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="123" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B123" s="17" t="s">
         <v>429</v>
       </c>
@@ -11673,7 +11673,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="124" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B124" s="17" t="s">
         <v>434</v>
       </c>
@@ -11726,7 +11726,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="125" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B125" s="17" t="s">
         <v>437</v>
       </c>
@@ -12044,7 +12044,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="131" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="B131" s="17" t="s">
         <v>455</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="134" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="B134" s="17" t="s">
         <v>467</v>
       </c>
@@ -12256,7 +12256,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="135" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="B135" s="17" t="s">
         <v>470</v>
       </c>
@@ -12309,7 +12309,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="136" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="B136" s="17" t="s">
         <v>473</v>
       </c>
@@ -12362,7 +12362,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="137" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="B137" s="17" t="s">
         <v>476</v>
       </c>
@@ -12415,7 +12415,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="138" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="B138" s="17" t="s">
         <v>479</v>
       </c>
@@ -12468,7 +12468,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="139" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="B139" s="17" t="s">
         <v>481</v>
       </c>
@@ -12521,7 +12521,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="140" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="B140" s="17" t="s">
         <v>484</v>
       </c>
@@ -13634,7 +13634,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="161" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
       <c r="B161" s="17" t="s">
         <v>551</v>
       </c>
@@ -14005,7 +14005,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="168" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
       <c r="B168" s="17" t="s">
         <v>575</v>
       </c>
@@ -14058,7 +14058,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="169" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B169" s="17" t="s">
         <v>577</v>
       </c>
@@ -14323,7 +14323,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="174" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:18" ht="126" x14ac:dyDescent="0.35">
       <c r="B174" s="17" t="s">
         <v>593</v>
       </c>
@@ -14641,7 +14641,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="180" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:18" ht="126" x14ac:dyDescent="0.35">
       <c r="B180" s="17" t="s">
         <v>593</v>
       </c>
@@ -14800,7 +14800,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="183" spans="2:18" ht="126" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
       <c r="B183" s="17" t="s">
         <v>616</v>
       </c>
@@ -15648,7 +15648,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="199" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B199" s="17" t="s">
         <v>661</v>
       </c>
@@ -17556,7 +17556,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="235" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:18" ht="126" x14ac:dyDescent="0.35">
       <c r="B235" s="17" t="s">
         <v>770</v>
       </c>
@@ -18192,7 +18192,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="247" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:18" ht="42" x14ac:dyDescent="0.35">
       <c r="B247" s="17" t="s">
         <v>810</v>
       </c>
@@ -20948,7 +20948,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="299" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="299" spans="2:18" ht="84" x14ac:dyDescent="0.35">
       <c r="B299" s="17" t="s">
         <v>974</v>
       </c>
@@ -21213,7 +21213,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="304" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="304" spans="2:18" ht="126" x14ac:dyDescent="0.35">
       <c r="B304" s="17" t="s">
         <v>992</v>
       </c>
@@ -21266,7 +21266,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="305" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="305" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
       <c r="B305" s="17" t="s">
         <v>995</v>
       </c>
@@ -21584,7 +21584,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="311" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="311" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
       <c r="B311" s="17" t="s">
         <v>1013</v>
       </c>
@@ -21902,7 +21902,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="317" spans="2:18" ht="283.5" x14ac:dyDescent="0.35">
+    <row r="317" spans="2:18" ht="294" x14ac:dyDescent="0.35">
       <c r="B317" s="17" t="s">
         <v>1036</v>
       </c>
@@ -23598,7 +23598,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="349" spans="2:18" ht="336" x14ac:dyDescent="0.35">
+    <row r="349" spans="2:18" ht="346.5" x14ac:dyDescent="0.35">
       <c r="B349" s="17" t="s">
         <v>1136</v>
       </c>
@@ -23757,7 +23757,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="352" spans="2:18" ht="189" x14ac:dyDescent="0.35">
+    <row r="352" spans="2:18" ht="199.5" x14ac:dyDescent="0.35">
       <c r="B352" s="17" t="s">
         <v>1145</v>
       </c>
@@ -23969,7 +23969,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="356" spans="2:18" ht="252" x14ac:dyDescent="0.35">
+    <row r="356" spans="2:18" ht="262.5" x14ac:dyDescent="0.35">
       <c r="B356" s="17" t="s">
         <v>1157</v>
       </c>
@@ -24708,10 +24708,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contents!A1" display="Back to Contents" xr:uid="{D75AA75D-E6AB-465E-B6AA-959FB5059BDF}"/>
-    <hyperlink ref="B368" r:id="rId1" xr:uid="{B4E5B6D8-9989-4A5C-9974-47808AF58660}"/>
-    <hyperlink ref="B371" r:id="rId2" xr:uid="{FAA46F52-5699-4A7A-95E1-40F11F0DEB3F}"/>
-    <hyperlink ref="B370" r:id="rId3" xr:uid="{20E92F3F-BEF2-42EA-A34F-65365A891BBD}"/>
+    <hyperlink ref="B1" location="Contents!A1" display="Back to Contents" xr:uid="{536832F7-F0F2-4DBB-AC69-093421AF7934}"/>
+    <hyperlink ref="B368" r:id="rId1" xr:uid="{C4C264A5-EF65-4A4D-93BA-057D690400DE}"/>
+    <hyperlink ref="B371" r:id="rId2" xr:uid="{2FE7CAA9-6BED-4D66-B0AA-01B60AA0101D}"/>
+    <hyperlink ref="B370" r:id="rId3" xr:uid="{4953AEA2-3EA1-4F67-9AB2-7BFC01C4E511}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/AfDD_2023_List_of_indicators.xlsx
+++ b/AfDD_2023_List_of_indicators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF42633A-8B60-4DE0-A484-5D189AF35248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAA43CF-4CE2-4EA0-9EAB-DFA86DC453E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{43F96EE2-920D-4481-ACF6-C5B6F4658391}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{AEF64545-D56F-4707-8DE5-6CB2541A894E}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Indicators!$A$3:$A$339</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3963" uniqueCount="1196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3914" uniqueCount="1196">
   <si>
     <t>List of indicators, descriptions and details</t>
   </si>
@@ -241,7 +241,7 @@
     <t>2013-22 maximum</t>
   </si>
   <si>
-    <t>World Development Indicators (data from central banks, national agencies, and WB country desks - updated 22/12/2022)</t>
+    <t>World Development Indicators (data from central banks, national agencies, and WB country desks - updated 10/10/2023)</t>
   </si>
   <si>
     <t>PovHC215</t>
@@ -1009,7 +1009,7 @@
     <t>2005-2020</t>
   </si>
   <si>
-    <t>UNCTADStat Online Data Centre (retrieved 21/12/2022)</t>
+    <t>UNCTADStat Online Data Centre (updated 22/09/2023)</t>
   </si>
   <si>
     <t>ExpICTSrvPrp</t>
@@ -1297,31 +1297,31 @@
     <t>GovRevUSD</t>
   </si>
   <si>
-    <t>General government revenue (millions of USD), 2022</t>
+    <t>General government revenue (millions of USD)</t>
   </si>
   <si>
     <t>TaxUSD</t>
   </si>
   <si>
-    <t>General government taxes (millions of USD), 2022</t>
+    <t>General government taxes (millions of USD)</t>
   </si>
   <si>
     <t>GovGrantsUSD</t>
   </si>
   <si>
-    <t>General government revenue, grants (millions of USD), 2022</t>
+    <t>General government revenue, grants (millions of USD)</t>
   </si>
   <si>
     <t>GovExpendUSD</t>
   </si>
   <si>
-    <t>General government expenditure (millions of USD), 2022</t>
+    <t>General government expenditure (millions of USD)</t>
   </si>
   <si>
     <t>GovGrossDebtUSD</t>
   </si>
   <si>
-    <t>General government gross debt (millions of USD), 2022</t>
+    <t>General government gross debt (millions of USD)</t>
   </si>
   <si>
     <t>ExpUnproc</t>
@@ -1678,7 +1678,7 @@
 For more information, see: www.imf.org/external/pubs/ft/bop/2014/pdf/GuideFinal.pdf</t>
   </si>
   <si>
-    <t>IMF Balance of Payments and International Investment Position Statistics (BOP/IIP) (updated 19/12/2022)</t>
+    <t>IMF Balance of Payments and International Investment Position Statistics (BOP/IIP) (updated 25/10/2023)</t>
   </si>
   <si>
     <t>UNCTADFDIPGD</t>
@@ -1691,7 +1691,7 @@
 These figures correspond to the definition of FDI. They are contained in the Balance of Payments Manual: Fifth Edition (BPM5) (Washington, D.C., International Monetary Fund, 1993) and the Detailed Benchmark Definition of Foreign Direct Investment: Third Edition (BD3) (Paris, Organisation for Economic Co-operation and Development, 1996). "FDI refers to an investment made to acquire lasting interest in enterprises operating outside of the economy of the investor. Further, in cases of FDI, the investor´s purpose is to gain an effective voice in the management of the enterprise. The foreign entity or group of associated entities that makes the investment is termed the 'direct investor'. The unincorporated or incorporated enterprise-a branch or subsidiary, respectively, in which direct investment is made-is referred to as a 'direct investment enterprise'. Some degree of equity ownership is almost always considered to be associated with an effective voice in the management of an enterprise; the BPM5 suggests a threshold of 10 per cent of equity ownership to qualify an investor as a foreign direct investor." For more information, see: https://unctad.org/en/Pages/DIAE/Foreign-Direct-Investment-(FDI).aspx</t>
   </si>
   <si>
-    <t>UNCTADStat Online Data Centre, FDI Online Database (retrieved 25/08/2022)</t>
+    <t>UNCTADStat Online Data Centre, FDI Online Database (updated 22/09/2023)</t>
   </si>
   <si>
     <t>PortfolioInFlPGD</t>
@@ -1724,7 +1724,7 @@
     <t>Net ODA reported by the OECD Development Assessment Committtee, from all donors, as a % of US dollar GDP according to the World Economic Outlook. https://unctad.org/en/Pages/DIAE/Foreign-Direct-Investment-(FDI).aspx</t>
   </si>
   <si>
-    <t>Official Development Assistance (ODA) reported by OECD Development Assistance Committee (updated 11/04/2023)</t>
+    <t>Official Development Assistance (ODA) reported by OECD Development Assistance Committee (updated 27/10/2023)</t>
   </si>
   <si>
     <t>RemitPGD</t>
@@ -1736,7 +1736,7 @@
     <t>World Bank staff calculation based on data from IMF Balance of Payments Statistics database and data releases from central banks, national statistical agencies, and World Bank country desks. See Migration and Development Brief 28, Appendix A for details. All numbers are in current (nominal) US $. For a discussion of the definition of remittances, see Dilip Ratha, 2003, "Workers' Remittances: An Important and Stable Source of External Development Finance", Global Development Finance 2003, World Bank. Data since 2005 are based on IMF BOP Statistics that use the definitions of IMF BPM6. GDP data is from WDI. For latest data and analysis on migration and remittances, please visit: http://www.worldbank.org/en/topic/migrationremittancesdiasporaissues/brief/migration-remittances-data</t>
   </si>
   <si>
-    <t>World Bank-KNOMAD, Global Knowledge Partnership on Migration and Development (November 2022)</t>
+    <t>World Bank-KNOMAD, Global Knowledge Partnership on Migration and Development (June 2023)</t>
   </si>
   <si>
     <t>TotalFinInflowsPGD</t>
@@ -1828,7 +1828,7 @@
 Data calculations are based on macro-fiscal indicators compiled from sources including the OECD Database, National Accounts data from the Penn World Tables (PWT), Eurostat and the IMF World Economic Outlook (WEO). For more information, please see : https://infrastructuregovern.imf.org/content/dam/PIMA/Knowledge-Hub/dataset/InvestmentandCapitalStockDatabaseUserManualandFAQ_May2022.pdf</t>
   </si>
   <si>
-    <t>IMF Investment and Capital Stock Dataset (IMF ICSD) (retrieved 20/12/2022)</t>
+    <t>IMF Investment and Capital Stock Dataset (IMF ICSD) (updated 15/06/2022)</t>
   </si>
   <si>
     <t>IPPPPGD</t>
@@ -1996,7 +1996,7 @@
     <t>Ratio of sums</t>
   </si>
   <si>
-    <t>2001-2021</t>
+    <t>2001-2022</t>
   </si>
   <si>
     <t>ROIDebitLiab</t>
@@ -2110,7 +2110,7 @@
   </si>
   <si>
     <t>From the online data portal FAOSTAT maintained by the Statistics Division of the Food and Agriculture Organization of the United Nations (FAO): the domain "Forests" disseminates information on activity data (hectares of forestland area) and CO2 emissions and removals corresponding to forest carbon stock changes (aboveground and belowground living biomass). 
-Estimates are computed following the 2006 IPCC Guidelines for National greenhouse gas Inventories (IPCC, 2006). Data from the Forest Resources Assessment 2022 (FAO, 2022) are used as input.Activity data are sourced from the most recently available GHG National Inventories (NGHGI) or from National Communications. Emission data are sourced directly from the UNFCCC data portal or from Biennial Update Reports (BURs). For more information, please see : https://fenixservices.fao.org/faostat/static/documents/GF/GF_e.pdf</t>
+Estimates are computed following the 2006 IPCC Guidelines for National greenhouse gas Inventories (IPCC, 2006). Data from the Forest Resources Assessment 2022 (FAO) are used as input.Activity data are sourced from the most recently available GHG National Inventories (NGHGI) or from National Communications. Emission data are sourced directly from the UNFCCC data portal or from Biennial Update Reports (BURs). For more information, please see : https://fenixservices.fao.org/faostat/static/documents/GF/GF_e.pdf</t>
   </si>
   <si>
     <t>kilotonnes</t>
@@ -2705,7 +2705,7 @@
     <t>Public flows into solar power in millions of 2022 USD are from IRENASTAT Online Data Query Tool. 
 Solar includes photovoltaic (PV) (both utility scale and rooftop solar PV), concentrated solar power and solar heating systems (e.g. solar water heaters).
 According to IRENA: "Public flows (2022 USD million) are the financial flows in the form of commitments originating from public institutions like governments, multilateral development banks and other public finance institutions. A commitment represents a legal contract to mobilise financial funds directed to one or more countries. These flows are corrected for currency exchange rates and inflation to a base year of 2022. As a result, figures for all years are reported in millions of 2022 international USD. These flows include as much information as possible, but are not exhaustive of all global flows originated from public institutions."
-Data calculated from DAC Statistics database, 2022 (OECD) and IRENA Public Finance Database.
+Data calculated from DAC Statistics database (OECD) and IRENA Public Finance Database.
 For more information, please see: https://mc-cd8320d4-36a1-40ac-83cc-3389-cdn-endpoint.azureedge.net/-/media/Files/IRENA/Agency/Publication/2023/Feb/IRENA_Global_Landscape_Renewable_Energy_Finance_2023_Methodology.pdf?rev=aef90c7ec1864f8db755d109bc02ed77</t>
   </si>
   <si>
@@ -2724,7 +2724,7 @@
     <t>Public flows into wind power in millions of 2022 USD are from IRENASTAT Online Data Query Tool. 
 Wind includes both onshore and offshore wind.
 According to IRENA: "Public flows (2022 USD million) are the financial flows in the form of commitments originating from public institutions like governments, multilateral development banks and other public finance institutions. A commitment represents a legal contract to mobilise financial funds directed to one or more countries. These flows are corrected for currency exchange rates and inflation to a base year. In this case, 2019 international USD, resulting in millions of 2019 USD. These flows include as much information as possible, but are not exhaustive of all global flows originated from public institutions."
-Data calculated from DAC Statistics database, 2022 (OECD) and IRENA Public Finance Database.
+Data calculated from DAC Statistics database (OECD) and IRENA Public Finance Database.
 For more information, please see: https://mc-cd8320d4-36a1-40ac-83cc-3389-cdn-endpoint.azureedge.net/-/media/Files/IRENA/Agency/Publication/2023/Feb/IRENA_Global_Landscape_Renewable_Energy_Finance_2023_Methodology.pdf?rev=aef90c7ec1864f8db755d109bc02ed77</t>
   </si>
   <si>
@@ -2736,7 +2736,7 @@
   <si>
     <t>Public flows into geothermal power in millions of 2022 USD are from IRENASTAT Online Data Query Tool. 
 According to IRENA: "Public flows (2022 USD million) are the financial flows in the form of commitments originating from public institutions like governments, multilateral development banks and other public finance institutions. A commitment represents a legal contract to mobilise financial funds directed to one or more countries. These flows are corrected for currency exchange rates and inflation to a base year. In this case, 2019 international USD, resulting in millions of 2019 USD. These flows include as much information as possible, but are not exhaustive of all global flows originated from public institutions."
-Data calculated from DAC Statistics database, 2022 (OECD) and IRENA Public Finance Database.
+Data calculated from DAC Statistics database (OECD) and IRENA Public Finance Database.
 For more information, please see: https://mc-cd8320d4-36a1-40ac-83cc-3389-cdn-endpoint.azureedge.net/-/media/Files/IRENA/Agency/Publication/2023/Feb/IRENA_Global_Landscape_Renewable_Energy_Finance_2023_Methodology.pdf?rev=aef90c7ec1864f8db755d109bc02ed77</t>
   </si>
   <si>
@@ -2748,7 +2748,7 @@
   <si>
     <t>Public flows into hydropower in millions of 2022 USD are from IRENASTAT Online Data Query Tool. 
 According to IRENA: "Public flows (2022 USD million) are the financial flows in the form of commitments originating from public institutions like governments, multilateral development banks and other public finance institutions. A commitment represents a legal contract to mobilise financial funds directed to one or more countries. These flows are corrected for currency exchange rates and inflation to a base year. In this case, 2019 international USD, resulting in millions of 2019 USD. These flows include as much information as possible, but are not exhaustive of all global flows originated from public institutions."
-Data calculated from DAC Statistics database, 2022 (OECD) and IRENA Public Finance Database.
+Data calculated from DAC Statistics database (OECD) and IRENA Public Finance Database.
 For more information, please see: https://mc-cd8320d4-36a1-40ac-83cc-3389-cdn-endpoint.azureedge.net/-/media/Files/IRENA/Agency/Publication/2023/Feb/IRENA_Global_Landscape_Renewable_Energy_Finance_2023_Methodology.pdf?rev=aef90c7ec1864f8db755d109bc02ed77</t>
   </si>
   <si>
@@ -2761,7 +2761,7 @@
     <t>Public flows into biofuels in millions of 2022 USD are from IRENASTAT Online Data Query Tool.
 Biofuels includes biodiesel, bioethanol and biomethane.
 According to IRENA: "Public flows (2022 USD million) are the financial flows in the form of commitments originating from public institutions like governments, multilateral development banks and other public finance institutions. A commitment represents a legal contract to mobilise financial funds directed to one or more countries. These flows are corrected for currency exchange rates and inflation to a base year. In this case, 2019 international USD, resulting in millions of 2019 USD. These flows include as much information as possible, but are not exhaustive of all global flows originated from public institutions."
-Data calculated from DAC Statistics database, 2022 (OECD) and IRENA Public Finance Database.
+Data calculated from DAC Statistics database (OECD) and IRENA Public Finance Database.
 For more information, please see: https://mc-cd8320d4-36a1-40ac-83cc-3389-cdn-endpoint.azureedge.net/-/media/Files/IRENA/Agency/Publication/2023/Feb/IRENA_Global_Landscape_Renewable_Energy_Finance_2023_Methodology.pdf?rev=aef90c7ec1864f8db755d109bc02ed77</t>
   </si>
   <si>
@@ -2773,7 +2773,7 @@
   <si>
     <t>Public flows into renewable energy not elsewhere specified in millions of 2022 USD are from IRENASTAT Online Data Query Tool.
 According to IRENA: "Public flows (2022 USD million) are the financial flows in the form of commitments originating from public institutions like governments, multilateral development banks and other public finance institutions. A commitment represents a legal contract to mobilise financial funds directed to one or more countries. These flows are corrected for currency exchange rates and inflation to a base year. In this case, 2019 international USD, resulting in millions of 2019 USD. These flows include as much information as possible, but are not exhaustive of all global flows originated from public institutions."
-Data calculated from DAC Statistics database, 2022 (OECD) and IRENA Public Finance Database.
+Data calculated from DAC Statistics database (OECD) and IRENA Public Finance Database.
 For more information, please see: https://mc-cd8320d4-36a1-40ac-83cc-3389-cdn-endpoint.azureedge.net/-/media/Files/IRENA/Agency/Publication/2023/Feb/IRENA_Global_Landscape_Renewable_Energy_Finance_2023_Methodology.pdf?rev=aef90c7ec1864f8db755d109bc02ed77</t>
   </si>
   <si>
@@ -2785,7 +2785,7 @@
   <si>
     <t>Public flows into renewable power in millions of 2022 USD are from IRENASTAT Online Data Query Tool.
 According to IRENA: "Public flows (2022 USD million) are the financial flows in the form of commitments originating from public institutions like governments, multilateral development banks and other public finance institutions. A commitment represents a legal contract to mobilise financial funds directed to one or more countries. These flows are corrected for currency exchange rates and inflation to a base year. In this case, 2019 international USD, resulting in millions of 2019 USD. These flows include as much information as possible, but are not exhaustive of all global flows originated from public institutions."
-Data calculated from DAC Statistics database, 2022 (OECD) and IRENA Public Finance Database.
+Data calculated from DAC Statistics database (OECD) and IRENA Public Finance Database.
 For more information, please see: https://mc-cd8320d4-36a1-40ac-83cc-3389-cdn-endpoint.azureedge.net/-/media/Files/IRENA/Agency/Publication/2023/Feb/IRENA_Global_Landscape_Renewable_Energy_Finance_2023_Methodology.pdf?rev=aef90c7ec1864f8db755d109bc02ed77</t>
   </si>
   <si>
@@ -2797,7 +2797,7 @@
   <si>
     <t>Public flows into fossil fuels in millions of 2022 USD are from IRENASTAT Online Data Query Tool.
 According to IRENA: "Public flows (2022 USD million) are the financial flows in the form of commitments originating from public institutions like governments, multilateral development banks and other public finance institutions. A commitment represents a legal contract to mobilise financial funds directed to one or more countries. These flows are corrected for currency exchange rates and inflation to a base year. In this case, 2019 international USD, resulting in millions of 2019 USD. These flows include as much information as possible, but are not exhaustive of all global flows originated from public institutions."
-Data calculated from DAC Statistics database, 2022 (OECD) and IRENA Public Finance Database.
+Data calculated from DAC Statistics database (OECD) and IRENA Public Finance Database.
 For more information, please see: https://mc-cd8320d4-36a1-40ac-83cc-3389-cdn-endpoint.azureedge.net/-/media/Files/IRENA/Agency/Publication/2023/Feb/IRENA_Global_Landscape_Renewable_Energy_Finance_2023_Methodology.pdf?rev=aef90c7ec1864f8db755d109bc02ed77</t>
   </si>
   <si>
@@ -4048,7 +4048,7 @@
     <t>Author's calculations based on data reported in OECD (2022), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en, using population figures from the World Population Prospects 2022 to calculates death rates per million inhabitants.
 Reported here is the number of premature deaths attributed to diets high in red meat each year, per million inhabitants. 
 Eating meat has many known health benefits, however the WHO advise people to limit intake of processed meat and red meat, which are linked to increased risks of death from heart disease, diabetes, and other illnesses. In the case of red meat, according to the WHO’s meta-analysis of epidemiological studies, there exists positive associations between eating red meat and developing colorectal cancer. There is also evidence of links with pancreatic cancer and prostate cancer. The lowest level of consumption of red meat at which the risks of mortality have been observed is of 18-27 gr/day.
-In addition to the impact that a diet high in red meat has on human health, meat consumption has an important burden for the environment. The production, processing and distribution of meat lead to land use changes, increased freshwater use, water pollution, air pollution and emissions of greenhouse gases. Among the range of animal products, red meat has potentially the highest impact on the environment. However, even the lowest-level impact animal products typically exceed those of vegetable substitutes, raising the importance of a dietary change (Poore, J. and Nemecek, T., 20222). Exposure to diet high in red meat is defined as average daily consumption of greater than 22.5 grams per day of red meat (beef, veal, pork, lamb, mutton, horse, and goat but excluding poultry, fish, eggs, and all processed meats). Dietary data used to calculate exposure includes nationally and sub nationally representative nutrition surveys, household budget surveys, accounts of national sales, and United Nations FAO Food Balance Sheets and Supply and Utilization Accounts.
+In addition to the impact that a diet high in red meat has on human health, meat consumption has an important burden for the environment. The production, processing and distribution of meat lead to land use changes, increased freshwater use, water pollution, air pollution and emissions of greenhouse gases. Among the range of animal products, red meat has potentially the highest impact on the environment. However, even the lowest-level impact animal products typically exceed those of vegetable substitutes, raising the importance of a dietary change (Poore, J. and Nemecek, T.2). Exposure to diet high in red meat is defined as average daily consumption of greater than 22.5 grams per day of red meat (beef, veal, pork, lamb, mutton, horse, and goat but excluding poultry, fish, eggs, and all processed meats). Dietary data used to calculate exposure includes nationally and sub nationally representative nutrition surveys, household budget surveys, accounts of national sales, and United Nations FAO Food Balance Sheets and Supply and Utilization Accounts.
 Data on mortality and DALYs from exposure to environmental risks are taken from GBD (2019), Global Burden of Disease Study 2019 Results. Welfare costs are calculated using a methodology adapted from OECD (2017b), The Rising Cost of Ambient Air Pollution thus far in the 21st Century: Results from the BRIICS and the OECD Countries.
 For further details please consult: https://stats.oecd.org/wbos/fileview2.aspx?IDFile=1356df09-6bd4-4b0b-9a95-d56e145769ad</t>
   </si>
@@ -4065,7 +4065,7 @@
     <t>Author's calculations based on data reported in OECD (2022), "Air quality and health: Mortality and welfare cost from exposure to air pollution", OECD Environment Statistics (database) (accessed February 20, 2023) https://doi.org/10.1787/c14fb169-en, using population figures from the World Population Prospects 2022 to calculates death rates per million inhabitants.
 Reported here is the number of premature deaths attributed to diets high in processed meats each year, per million inhabitants. 
 Eating meat has many known health benefits, however the WHO advise people to limit intake of processed meat and red meat, which are linked to increased risks of death from heart disease, diabetes, and other illnesses. In the case of processed meat, according to the WHO, there is sufficient evidence from epidemiological studies that eating processed meat causes colorectal cancer. An association with stomach cancer was also seen, but the evidence is not conclusive. The lowest level of consumption of processed meat at which the risks of mortality have been observed is of 0-4 gr/day.
-In addition to the impact that a diet high in red meat has on human health, meat consumption has an important burden for the environment. The production, processing and distribution of meat leads to land use changes, increased freshwater use, water pollution, air pollution and emissions of greenhouse gases. Among the range of animal products, red meat (used in most processed meats) has potentially the highest impact on the environment, however, even the lowest-level impact animal products typically exceed those of vegetable substitutes, raising the importance of a dietary change (Poore, J. and Nemecek, T., 2022).
+In addition to the impact that a diet high in red meat has on human health, meat consumption has an important burden for the environment. The production, processing and distribution of meat leads to land use changes, increased freshwater use, water pollution, air pollution and emissions of greenhouse gases. Among the range of animal products, red meat (used in most processed meats) has potentially the highest impact on the environment, however, even the lowest-level impact animal products typically exceed those of vegetable substitutes, raising the importance of a dietary change (Poore, J. and Nemecek, T.).
 Exposure to diet high in processed meat is defined as average daily consumption of greater than 2 grams of meat preserved by smoking, curing, salting, or addition of chemical preservatives. Dietary data used to calculate exposure includes nationally and sub-nationally representative nutrition surveys, household budget surveys, accounts of national sales, and United Nations FAO Food Balance Sheets and Supply and Utilization Accounts.
 Data on mortality and DALYs from exposure to environmental risks are taken from GBD (2019), Global Burden of Disease Study 2019 Results. Welfare costs are calculated using a methodology adapted from OECD (2017b), The Rising Cost of Ambient Air Pollution thus far in the 21st Century: Results from the BRIICS and the OECD Countries.
 For further details please consult: https://stats.oecd.org/wbos/fileview2.aspx?IDFile=1356df09-6bd4-4b0b-9a95-d56e145769ad</t>
@@ -4872,7 +4872,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{F8FD507C-1EDD-45E5-9D22-14A22C973B68}">
+    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{072FDCD6-705D-4FDD-BF4F-4E26D6A7D1CB}">
       <tableStyleElement type="wholeTable" dxfId="22"/>
       <tableStyleElement type="headerRow" dxfId="21"/>
       <tableStyleElement type="firstRowStripe" dxfId="20"/>
@@ -4890,25 +4890,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F8C052C-72DD-4F61-BDB1-DCEAD68E20F6}" name="Table36" displayName="Table36" ref="B2:R365" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4AED888-3B50-45C5-937E-2D0987C0C1BD}" name="Table36" displayName="Table36" ref="B2:R365" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{EFB25364-FD86-4AB7-BF75-02D0ACF84E38}" name="Indicator Code" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{1F71F36A-B1D6-4FEE-A682-9EBF0D7B2D09}" name="Table" dataDxfId="15" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{25F32215-4FC2-488E-8D85-242FD2EDF114}" name="Indicator Name" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{82B31320-AA17-49C1-A996-955D4687C4AF}" name="Indicator description" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{79C7115B-91CF-4083-B918-AFCEF92B43C4}" name="Unit of measure" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{58EEE89B-A6A6-49E2-83A1-111F21B8ABA2}" name="Scale" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{C47FAEF6-366E-4A5B-B3FF-0945A2BB5664}" name="Calculation used in aggregation" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{DD0BDECA-A827-4C0F-B83D-6CC0E7FC3281}" name="Weight used in aggregation" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{FE2FF742-99A8-4031-B97B-407A73485968}" name="Years covered by data" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{6EE4CA00-C996-4920-A3B3-3C28509AB44D}" name="Reference year for coverage statistics" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{9E601919-50CD-45FB-86B0-BBE02364A38E}" name="Data coverage - % of African countries" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{08F789CA-7591-4836-8422-5237125B8512}" name="Data coverage - % of population of African countries" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{32ECDEA5-939C-465D-B355-1BA6575504BE}" name="Data coverage - % of GDP (in PPP dollars) of African countries" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{E8FDCF8F-2370-408C-A4D7-B35C4AE4A84F}" name="Data coverage - % of non-African countries" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{5B003AC3-2C6F-4ED6-BA45-95997BBB97EA}" name="Data coverage - % of population of non-African countries" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{CAF3C7FD-7C58-484F-A775-B12E38763B0F}" name="Data coverage - % of GDP in PPP dollars of non-African countries" dataDxfId="1"/>
-    <tableColumn id="17" xr3:uid="{65E4F111-DDC0-4667-B2AE-2A6D93CDEA84}" name="Source" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{6CFAAB97-396A-4061-8B3E-25CF32A3EAD8}" name="Indicator Code" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{EEA733AE-BF2F-49E3-9A70-F9D21885EA4F}" name="Table" dataDxfId="15" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{1BE73568-90D2-464E-A823-B715B7F1D844}" name="Indicator Name" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{CE9CD605-3154-48E5-A0C4-CEBC197AB617}" name="Indicator description" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{485F4138-F26A-49E2-A13A-FE4E11B72389}" name="Unit of measure" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{801F16FD-C450-433A-A0A5-2E176E0D6D73}" name="Scale" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{DCE8F0F8-9F22-493C-934F-CA5500FC5C9E}" name="Calculation used in aggregation" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{560C2D79-AB47-4EF1-B20A-678407914A8B}" name="Weight used in aggregation" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{48383B54-6816-420C-948F-325B19DCFCD9}" name="Years covered by data" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{AE99EB68-2B51-496E-8DB4-16119C67DF68}" name="Reference year for coverage statistics" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{0906BB5F-EDCF-41EA-9C2B-79B49CEB50CC}" name="Data coverage - % of African countries" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{4286B5C4-EEAB-4F8F-A439-28D4FDA3AFCF}" name="Data coverage - % of population of African countries" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{FA3E00D7-9D7E-4437-A1A6-246AD2E5DCDF}" name="Data coverage - % of GDP (in PPP dollars) of African countries" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{07F6BC36-4F71-41E5-BAD4-529B4D3E1B8A}" name="Data coverage - % of non-African countries" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{1B26A16C-3223-4F15-AF4D-0C984787AF61}" name="Data coverage - % of population of non-African countries" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{BD7AAA7D-1528-47D6-A779-85444FEAFD26}" name="Data coverage - % of GDP in PPP dollars of non-African countries" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{7AF31CB0-A60B-431D-BD92-FFD3629EE10D}" name="Source" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="AfDD Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5210,27 +5210,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84FF5509-9ABC-4561-B6C5-1E39FE6E0840}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC254DB-0123-4402-9CED-35B36FF44DB6}">
   <dimension ref="A1:R375"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="7.90625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="36.54296875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="88.7265625" customWidth="1"/>
-    <col min="6" max="8" width="20.36328125" customWidth="1"/>
-    <col min="9" max="16" width="20.36328125" style="5" customWidth="1"/>
-    <col min="17" max="17" width="20.36328125" style="3" customWidth="1"/>
-    <col min="18" max="18" width="37.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="88.77734375" customWidth="1"/>
+    <col min="6" max="8" width="20.33203125" customWidth="1"/>
+    <col min="9" max="16" width="20.33203125" style="5" customWidth="1"/>
+    <col min="17" max="17" width="20.33203125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="37.77734375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5251,7 +5251,7 @@
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
     </row>
-    <row r="2" spans="1:18" s="12" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" s="12" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="9" t="s">
         <v>1</v>
@@ -5305,7 +5305,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
         <v>18</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B4" s="17" t="s">
         <v>29</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
         <v>36</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
         <v>40</v>
       </c>
@@ -5496,28 +5496,28 @@
         <v>2020</v>
       </c>
       <c r="L6" s="11">
-        <v>100</v>
+        <v>98.113207547169793</v>
       </c>
       <c r="M6" s="11">
-        <v>100</v>
+        <v>99.735094437053306</v>
       </c>
       <c r="N6" s="11">
         <v>100</v>
       </c>
       <c r="O6" s="11">
-        <v>96.402877697841802</v>
+        <v>95.683453237410106</v>
       </c>
       <c r="P6" s="11">
-        <v>99.098455885573301</v>
+        <v>98.655729632377501</v>
       </c>
       <c r="Q6" s="11">
-        <v>100</v>
+        <v>99.8707037563764</v>
       </c>
       <c r="R6" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
         <v>47</v>
       </c>
@@ -5549,19 +5549,19 @@
         <v>2022</v>
       </c>
       <c r="L7" s="11">
-        <v>100</v>
+        <v>98.113207547169793</v>
       </c>
       <c r="M7" s="11">
-        <v>100</v>
+        <v>99.738211907338894</v>
       </c>
       <c r="N7" s="11">
         <v>100</v>
       </c>
       <c r="O7" s="11">
-        <v>94.964028776978395</v>
+        <v>95.683453237410106</v>
       </c>
       <c r="P7" s="11">
-        <v>98.368431228599704</v>
+        <v>98.452849609075997</v>
       </c>
       <c r="Q7" s="11">
         <v>100</v>
@@ -5570,7 +5570,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
         <v>51</v>
       </c>
@@ -5602,19 +5602,19 @@
         <v>2022</v>
       </c>
       <c r="L8" s="11">
-        <v>100</v>
+        <v>98.113207547169793</v>
       </c>
       <c r="M8" s="11">
-        <v>100</v>
+        <v>99.738211907338894</v>
       </c>
       <c r="N8" s="11">
         <v>100</v>
       </c>
       <c r="O8" s="11">
-        <v>94.964028776978395</v>
+        <v>96.402877697841802</v>
       </c>
       <c r="P8" s="11">
-        <v>98.368431228599704</v>
+        <v>99.085306563102705</v>
       </c>
       <c r="Q8" s="11">
         <v>100</v>
@@ -5623,7 +5623,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="51" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
         <v>56</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>99.992388172277103</v>
       </c>
       <c r="N9" s="11">
-        <v>99.955677527566706</v>
+        <v>99.953355119444595</v>
       </c>
       <c r="O9" s="11">
         <v>87.050359712230204</v>
@@ -5670,13 +5670,13 @@
         <v>95.685370490526495</v>
       </c>
       <c r="Q9" s="11">
-        <v>96.406664319218706</v>
+        <v>96.411243649155097</v>
       </c>
       <c r="R9" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B10" s="17" t="s">
         <v>62</v>
       </c>
@@ -5708,13 +5708,13 @@
         <v>66</v>
       </c>
       <c r="L10" s="11">
-        <v>84.905660377358501</v>
+        <v>86.792452830188694</v>
       </c>
       <c r="M10" s="11">
-        <v>86.099538890991496</v>
+        <v>86.502995646178704</v>
       </c>
       <c r="N10" s="11">
-        <v>87.109240734376698</v>
+        <v>87.150774050576103</v>
       </c>
       <c r="O10" s="11">
         <v>68.345323741007206</v>
@@ -5723,13 +5723,13 @@
         <v>94.270036457232607</v>
       </c>
       <c r="Q10" s="11">
-        <v>95.621053897727094</v>
+        <v>95.630223177652894</v>
       </c>
       <c r="R10" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
         <v>68</v>
       </c>
@@ -5761,13 +5761,13 @@
         <v>66</v>
       </c>
       <c r="L11" s="11">
-        <v>84.905660377358501</v>
+        <v>86.792452830188694</v>
       </c>
       <c r="M11" s="11">
-        <v>86.099538890991496</v>
+        <v>86.502995646178704</v>
       </c>
       <c r="N11" s="11">
-        <v>87.109240734376698</v>
+        <v>87.150774050576103</v>
       </c>
       <c r="O11" s="11">
         <v>68.345323741007206</v>
@@ -5776,13 +5776,13 @@
         <v>94.270036457232607</v>
       </c>
       <c r="Q11" s="11">
-        <v>95.621053897727094</v>
+        <v>95.630223177652894</v>
       </c>
       <c r="R11" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B12" s="17" t="s">
         <v>71</v>
       </c>
@@ -5829,13 +5829,13 @@
         <v>99.595614290131294</v>
       </c>
       <c r="Q12" s="11">
-        <v>99.998184138508805</v>
+        <v>99.998185723877995</v>
       </c>
       <c r="R12" s="16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B13" s="17" t="s">
         <v>77</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>96.024501714632095</v>
       </c>
       <c r="N13" s="11">
-        <v>91.971129078933899</v>
+        <v>91.970530930770906</v>
       </c>
       <c r="O13" s="11">
         <v>74.820143884892104</v>
@@ -5882,13 +5882,13 @@
         <v>95.639726575809604</v>
       </c>
       <c r="Q13" s="11">
-        <v>96.231114171036097</v>
+        <v>96.233766019938102</v>
       </c>
       <c r="R13" s="16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B14" s="17" t="s">
         <v>81</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B15" s="17" t="s">
         <v>86</v>
       </c>
@@ -5973,28 +5973,28 @@
         <v>2020</v>
       </c>
       <c r="L15" s="11">
-        <v>100</v>
+        <v>98.113207547169793</v>
       </c>
       <c r="M15" s="11">
-        <v>100</v>
+        <v>99.735094437053306</v>
       </c>
       <c r="N15" s="11">
         <v>100</v>
       </c>
       <c r="O15" s="11">
-        <v>96.402877697841802</v>
+        <v>95.683453237410106</v>
       </c>
       <c r="P15" s="11">
-        <v>99.098455885573301</v>
+        <v>98.655729632377501</v>
       </c>
       <c r="Q15" s="11">
-        <v>100</v>
+        <v>99.8707037563764</v>
       </c>
       <c r="R15" s="16" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
         <v>92</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B17" s="17" t="s">
         <v>98</v>
       </c>
@@ -6094,13 +6094,13 @@
         <v>99.841708839713505</v>
       </c>
       <c r="Q17" s="11">
-        <v>99.367016968382401</v>
+        <v>99.367841369006896</v>
       </c>
       <c r="R17" s="16" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="2:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B18" s="17" t="s">
         <v>101</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>87.463787529746298</v>
       </c>
       <c r="N18" s="11">
-        <v>93.519864659746304</v>
+        <v>93.468811816381304</v>
       </c>
       <c r="O18" s="11">
         <v>58.9928057553957</v>
@@ -6147,13 +6147,13 @@
         <v>97.432514236379106</v>
       </c>
       <c r="Q18" s="11">
-        <v>96.395807127609999</v>
+        <v>96.343182856860096</v>
       </c>
       <c r="R18" s="16" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B19" s="17" t="s">
         <v>105</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>87.463787529746298</v>
       </c>
       <c r="N19" s="11">
-        <v>93.519864659746304</v>
+        <v>93.468811816381304</v>
       </c>
       <c r="O19" s="11">
         <v>58.9928057553957</v>
@@ -6200,13 +6200,13 @@
         <v>97.432514236379106</v>
       </c>
       <c r="Q19" s="11">
-        <v>96.395807127609999</v>
+        <v>96.343182856860096</v>
       </c>
       <c r="R19" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B20" s="17" t="s">
         <v>109</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>97.416094523775897</v>
       </c>
       <c r="N20" s="11">
-        <v>97.055868635974903</v>
+        <v>97.130724509857799</v>
       </c>
       <c r="O20" s="11">
         <v>61.151079136690697</v>
@@ -6253,13 +6253,13 @@
         <v>98.368746159440207</v>
       </c>
       <c r="Q20" s="11">
-        <v>98.439957634044504</v>
+        <v>98.4371833889698</v>
       </c>
       <c r="R20" s="16" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B21" s="17" t="s">
         <v>112</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>97.416094523775897</v>
       </c>
       <c r="N21" s="11">
-        <v>97.055868635974903</v>
+        <v>97.130724509857799</v>
       </c>
       <c r="O21" s="11">
         <v>61.151079136690697</v>
@@ -6306,13 +6306,13 @@
         <v>98.368746159440207</v>
       </c>
       <c r="Q21" s="11">
-        <v>98.439957634044504</v>
+        <v>98.4371833889698</v>
       </c>
       <c r="R21" s="16" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="2:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:18" ht="51" x14ac:dyDescent="0.3">
       <c r="B22" s="17" t="s">
         <v>115</v>
       </c>
@@ -6365,7 +6365,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:18" ht="51" x14ac:dyDescent="0.3">
       <c r="B23" s="17" t="s">
         <v>120</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="2:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B24" s="17" t="s">
         <v>123</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B25" s="17" t="s">
         <v>126</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>99.293157557648499</v>
       </c>
       <c r="N25" s="11">
-        <v>97.306052285041901</v>
+        <v>97.297285432064896</v>
       </c>
       <c r="O25" s="11">
         <v>60.431654676259001</v>
@@ -6518,13 +6518,13 @@
         <v>82.681736449471401</v>
       </c>
       <c r="Q25" s="11">
-        <v>58.404283671281199</v>
+        <v>58.426136504728497</v>
       </c>
       <c r="R25" s="16" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B26" s="17" t="s">
         <v>132</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>99.293157557648499</v>
       </c>
       <c r="N26" s="11">
-        <v>97.306052285041901</v>
+        <v>97.297285432064896</v>
       </c>
       <c r="O26" s="11">
         <v>60.431654676259001</v>
@@ -6571,13 +6571,13 @@
         <v>82.681736449471401</v>
       </c>
       <c r="Q26" s="11">
-        <v>58.404283671281199</v>
+        <v>58.426136504728497</v>
       </c>
       <c r="R26" s="16" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B27" s="17" t="s">
         <v>135</v>
       </c>
@@ -6615,7 +6615,7 @@
         <v>99.293157557648499</v>
       </c>
       <c r="N27" s="11">
-        <v>97.306052285041901</v>
+        <v>97.297285432064896</v>
       </c>
       <c r="O27" s="11">
         <v>60.431654676259001</v>
@@ -6624,13 +6624,13 @@
         <v>82.681736449471401</v>
       </c>
       <c r="Q27" s="11">
-        <v>58.404283671281199</v>
+        <v>58.426136504728497</v>
       </c>
       <c r="R27" s="16" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:18" ht="102" x14ac:dyDescent="0.3">
       <c r="B28" s="17" t="s">
         <v>138</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>99.293157557648499</v>
       </c>
       <c r="N28" s="11">
-        <v>97.306052285041901</v>
+        <v>97.297285432064896</v>
       </c>
       <c r="O28" s="11">
         <v>60.431654676259001</v>
@@ -6677,13 +6677,13 @@
         <v>82.681736449471401</v>
       </c>
       <c r="Q28" s="11">
-        <v>58.404283671281199</v>
+        <v>58.426136504728497</v>
       </c>
       <c r="R28" s="16" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:18" ht="102" x14ac:dyDescent="0.3">
       <c r="B29" s="17" t="s">
         <v>141</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>99.293157557648499</v>
       </c>
       <c r="N29" s="11">
-        <v>97.306052285041901</v>
+        <v>97.297285432064896</v>
       </c>
       <c r="O29" s="11">
         <v>61.151079136690697</v>
@@ -6730,13 +6730,13 @@
         <v>82.683184194879601</v>
       </c>
       <c r="Q29" s="11">
-        <v>58.405903666333501</v>
+        <v>58.427776281103</v>
       </c>
       <c r="R29" s="16" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:18" ht="102" x14ac:dyDescent="0.3">
       <c r="B30" s="17" t="s">
         <v>144</v>
       </c>
@@ -6774,7 +6774,7 @@
         <v>99.293157557648499</v>
       </c>
       <c r="N30" s="11">
-        <v>97.306052285041901</v>
+        <v>97.297285432064896</v>
       </c>
       <c r="O30" s="11">
         <v>61.151079136690697</v>
@@ -6783,13 +6783,13 @@
         <v>82.683184194879601</v>
       </c>
       <c r="Q30" s="11">
-        <v>58.405903666333501</v>
+        <v>58.427776281103</v>
       </c>
       <c r="R30" s="16" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:18" ht="102" x14ac:dyDescent="0.3">
       <c r="B31" s="17" t="s">
         <v>147</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>99.293157557648499</v>
       </c>
       <c r="N31" s="11">
-        <v>97.306052285041901</v>
+        <v>97.297285432064896</v>
       </c>
       <c r="O31" s="11">
         <v>61.151079136690697</v>
@@ -6836,13 +6836,13 @@
         <v>82.683184194879601</v>
       </c>
       <c r="Q31" s="11">
-        <v>58.405903666333501</v>
+        <v>58.427776281103</v>
       </c>
       <c r="R31" s="16" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:18" ht="102" x14ac:dyDescent="0.3">
       <c r="B32" s="17" t="s">
         <v>150</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>99.293157557648499</v>
       </c>
       <c r="N32" s="11">
-        <v>97.306052285041901</v>
+        <v>97.297285432064896</v>
       </c>
       <c r="O32" s="11">
         <v>61.151079136690697</v>
@@ -6889,13 +6889,13 @@
         <v>82.683184194879601</v>
       </c>
       <c r="Q32" s="11">
-        <v>58.405903666333501</v>
+        <v>58.427776281103</v>
       </c>
       <c r="R32" s="16" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B33" s="17" t="s">
         <v>153</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>99.992388172277103</v>
       </c>
       <c r="N33" s="11">
-        <v>99.955677527566706</v>
+        <v>99.953355119444595</v>
       </c>
       <c r="O33" s="11">
         <v>87.050359712230204</v>
@@ -6942,13 +6942,13 @@
         <v>95.685370490526495</v>
       </c>
       <c r="Q33" s="11">
-        <v>96.406664319218706</v>
+        <v>96.411243649155097</v>
       </c>
       <c r="R33" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B34" s="17" t="s">
         <v>156</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>99.992388172277103</v>
       </c>
       <c r="N34" s="11">
-        <v>99.955677527566706</v>
+        <v>99.953355119444595</v>
       </c>
       <c r="O34" s="11">
         <v>87.050359712230204</v>
@@ -6995,13 +6995,13 @@
         <v>95.685370490526495</v>
       </c>
       <c r="Q34" s="11">
-        <v>96.406664319218706</v>
+        <v>96.411243649155097</v>
       </c>
       <c r="R34" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B35" s="17" t="s">
         <v>158</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>99.992255362735307</v>
       </c>
       <c r="N35" s="11">
-        <v>99.957777146479302</v>
+        <v>99.955522897595401</v>
       </c>
       <c r="O35" s="11">
         <v>88.489208633093497</v>
@@ -7048,13 +7048,13 @@
         <v>98.535649929109198</v>
       </c>
       <c r="Q35" s="11">
-        <v>99.816407863313302</v>
+        <v>99.768242939504205</v>
       </c>
       <c r="R35" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:18" ht="122.4" x14ac:dyDescent="0.3">
       <c r="B36" s="17" t="s">
         <v>161</v>
       </c>
@@ -7092,7 +7092,7 @@
         <v>99.992255362735307</v>
       </c>
       <c r="N36" s="11">
-        <v>99.957777146479302</v>
+        <v>99.955522897595401</v>
       </c>
       <c r="O36" s="11">
         <v>88.489208633093497</v>
@@ -7101,13 +7101,13 @@
         <v>98.535649929109198</v>
       </c>
       <c r="Q36" s="11">
-        <v>99.816407863313302</v>
+        <v>99.768242939504205</v>
       </c>
       <c r="R36" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:18" ht="122.4" x14ac:dyDescent="0.3">
       <c r="B37" s="17" t="s">
         <v>164</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>99.992255362735307</v>
       </c>
       <c r="N37" s="11">
-        <v>99.957777146479302</v>
+        <v>99.955522897595401</v>
       </c>
       <c r="O37" s="11">
         <v>88.489208633093497</v>
@@ -7154,13 +7154,13 @@
         <v>98.535649929109198</v>
       </c>
       <c r="Q37" s="11">
-        <v>99.816407863313302</v>
+        <v>99.768242939504205</v>
       </c>
       <c r="R37" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:18" ht="122.4" x14ac:dyDescent="0.3">
       <c r="B38" s="17" t="s">
         <v>166</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>99.992255362735307</v>
       </c>
       <c r="N38" s="11">
-        <v>99.957777146479302</v>
+        <v>99.955522897595401</v>
       </c>
       <c r="O38" s="11">
         <v>88.489208633093497</v>
@@ -7207,13 +7207,13 @@
         <v>98.535649929109198</v>
       </c>
       <c r="Q38" s="11">
-        <v>99.816407863313302</v>
+        <v>99.768242939504205</v>
       </c>
       <c r="R38" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:18" ht="122.4" x14ac:dyDescent="0.3">
       <c r="B39" s="17" t="s">
         <v>168</v>
       </c>
@@ -7266,7 +7266,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B40" s="17" t="s">
         <v>170</v>
       </c>
@@ -7294,32 +7294,32 @@
       <c r="J40" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="K40" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L40" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M40" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="N40" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="O40" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="P40" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q40" s="11" t="s">
-        <v>27</v>
+      <c r="K40" s="9">
+        <v>2021</v>
+      </c>
+      <c r="L40" s="11">
+        <v>96.2264150943397</v>
+      </c>
+      <c r="M40" s="11">
+        <v>98.954827922528693</v>
+      </c>
+      <c r="N40" s="11">
+        <v>99.916959090988399</v>
+      </c>
+      <c r="O40" s="11">
+        <v>89.208633093525194</v>
+      </c>
+      <c r="P40" s="11">
+        <v>97.980055264762598</v>
+      </c>
+      <c r="Q40" s="11">
+        <v>99.593184843012807</v>
       </c>
       <c r="R40" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B41" s="17" t="s">
         <v>174</v>
       </c>
@@ -7347,32 +7347,32 @@
       <c r="J41" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="K41" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L41" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M41" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="N41" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="O41" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="P41" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q41" s="11" t="s">
-        <v>27</v>
+      <c r="K41" s="9">
+        <v>2021</v>
+      </c>
+      <c r="L41" s="11">
+        <v>96.2264150943397</v>
+      </c>
+      <c r="M41" s="11">
+        <v>98.954827922528693</v>
+      </c>
+      <c r="N41" s="11">
+        <v>99.916959090988399</v>
+      </c>
+      <c r="O41" s="11">
+        <v>93.525179856115102</v>
+      </c>
+      <c r="P41" s="11">
+        <v>97.984693738026905</v>
+      </c>
+      <c r="Q41" s="11">
+        <v>99.597184277099004</v>
       </c>
       <c r="R41" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B42" s="17" t="s">
         <v>177</v>
       </c>
@@ -7400,32 +7400,32 @@
       <c r="J42" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="K42" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L42" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M42" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="N42" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="O42" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="P42" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q42" s="11" t="s">
-        <v>27</v>
+      <c r="K42" s="9">
+        <v>2021</v>
+      </c>
+      <c r="L42" s="11">
+        <v>96.2264150943397</v>
+      </c>
+      <c r="M42" s="11">
+        <v>98.954827922528693</v>
+      </c>
+      <c r="N42" s="11">
+        <v>99.916959090988399</v>
+      </c>
+      <c r="O42" s="11">
+        <v>93.525179856115102</v>
+      </c>
+      <c r="P42" s="11">
+        <v>97.984693738026905</v>
+      </c>
+      <c r="Q42" s="11">
+        <v>99.597184277099004</v>
       </c>
       <c r="R42" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B43" s="17" t="s">
         <v>180</v>
       </c>
@@ -7454,7 +7454,7 @@
         <v>130</v>
       </c>
       <c r="K43" s="9">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="L43" s="11">
         <v>100</v>
@@ -7469,7 +7469,7 @@
         <v>99.280575539568403</v>
       </c>
       <c r="P43" s="11">
-        <v>99.999426252060005</v>
+        <v>99.999433020367405</v>
       </c>
       <c r="Q43" s="11">
         <v>100</v>
@@ -7478,7 +7478,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="44" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B44" s="17" t="s">
         <v>185</v>
       </c>
@@ -7507,7 +7507,7 @@
         <v>130</v>
       </c>
       <c r="K44" s="9">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="L44" s="11">
         <v>100</v>
@@ -7531,7 +7531,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B45" s="17" t="s">
         <v>188</v>
       </c>
@@ -7560,7 +7560,7 @@
         <v>130</v>
       </c>
       <c r="K45" s="9">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="L45" s="11">
         <v>100</v>
@@ -7584,7 +7584,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="46" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B46" s="17" t="s">
         <v>191</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>130</v>
       </c>
       <c r="K46" s="9">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="L46" s="11">
         <v>100</v>
@@ -7637,7 +7637,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="47" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B47" s="17" t="s">
         <v>194</v>
       </c>
@@ -7666,7 +7666,7 @@
         <v>130</v>
       </c>
       <c r="K47" s="9">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="L47" s="11">
         <v>100</v>
@@ -7690,7 +7690,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="48" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B48" s="17" t="s">
         <v>196</v>
       </c>
@@ -7719,7 +7719,7 @@
         <v>130</v>
       </c>
       <c r="K48" s="9">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="L48" s="11">
         <v>100</v>
@@ -7743,7 +7743,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="49" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B49" s="17" t="s">
         <v>199</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>130</v>
       </c>
       <c r="K49" s="9">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="L49" s="11">
         <v>100</v>
@@ -7796,7 +7796,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="50" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B50" s="17" t="s">
         <v>202</v>
       </c>
@@ -7824,32 +7824,32 @@
       <c r="J50" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="K50" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L50" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M50" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="N50" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="O50" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="P50" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q50" s="11" t="s">
-        <v>27</v>
+      <c r="K50" s="9">
+        <v>2021</v>
+      </c>
+      <c r="L50" s="11">
+        <v>98.113207547169793</v>
+      </c>
+      <c r="M50" s="11">
+        <v>99.992255362735307</v>
+      </c>
+      <c r="N50" s="11">
+        <v>99.955522897595401</v>
+      </c>
+      <c r="O50" s="11">
+        <v>88.489208633093497</v>
+      </c>
+      <c r="P50" s="11">
+        <v>98.535649929109198</v>
+      </c>
+      <c r="Q50" s="11">
+        <v>99.768242939504205</v>
       </c>
       <c r="R50" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B51" s="17" t="s">
         <v>205</v>
       </c>
@@ -7877,32 +7877,32 @@
       <c r="J51" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="K51" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L51" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M51" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="N51" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="O51" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="P51" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q51" s="11" t="s">
-        <v>27</v>
+      <c r="K51" s="9">
+        <v>2021</v>
+      </c>
+      <c r="L51" s="11">
+        <v>98.113207547169793</v>
+      </c>
+      <c r="M51" s="11">
+        <v>99.992255362735307</v>
+      </c>
+      <c r="N51" s="11">
+        <v>99.955522897595401</v>
+      </c>
+      <c r="O51" s="11">
+        <v>88.489208633093497</v>
+      </c>
+      <c r="P51" s="11">
+        <v>98.535649929109198</v>
+      </c>
+      <c r="Q51" s="11">
+        <v>99.768242939504205</v>
       </c>
       <c r="R51" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B52" s="17" t="s">
         <v>208</v>
       </c>
@@ -7930,32 +7930,32 @@
       <c r="J52" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="K52" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L52" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M52" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="N52" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="O52" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="P52" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q52" s="11" t="s">
-        <v>27</v>
+      <c r="K52" s="9">
+        <v>2021</v>
+      </c>
+      <c r="L52" s="11">
+        <v>98.113207547169793</v>
+      </c>
+      <c r="M52" s="11">
+        <v>99.992255362735307</v>
+      </c>
+      <c r="N52" s="11">
+        <v>99.955522897595401</v>
+      </c>
+      <c r="O52" s="11">
+        <v>88.489208633093497</v>
+      </c>
+      <c r="P52" s="11">
+        <v>98.535649929109198</v>
+      </c>
+      <c r="Q52" s="11">
+        <v>99.768242939504205</v>
       </c>
       <c r="R52" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B53" s="17" t="s">
         <v>211</v>
       </c>
@@ -7983,32 +7983,32 @@
       <c r="J53" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="K53" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L53" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M53" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="N53" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="O53" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="P53" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q53" s="11" t="s">
-        <v>27</v>
+      <c r="K53" s="9">
+        <v>2021</v>
+      </c>
+      <c r="L53" s="11">
+        <v>98.113207547169793</v>
+      </c>
+      <c r="M53" s="11">
+        <v>99.992255362735307</v>
+      </c>
+      <c r="N53" s="11">
+        <v>99.955522897595401</v>
+      </c>
+      <c r="O53" s="11">
+        <v>88.489208633093497</v>
+      </c>
+      <c r="P53" s="11">
+        <v>98.535649929109198</v>
+      </c>
+      <c r="Q53" s="11">
+        <v>99.768242939504205</v>
       </c>
       <c r="R53" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="2:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:18" ht="51" x14ac:dyDescent="0.3">
       <c r="B54" s="17" t="s">
         <v>214</v>
       </c>
@@ -8040,13 +8040,13 @@
         <v>66</v>
       </c>
       <c r="L54" s="11">
-        <v>84.905660377358501</v>
+        <v>86.792452830188694</v>
       </c>
       <c r="M54" s="11">
-        <v>86.099538890991496</v>
+        <v>86.502995646178704</v>
       </c>
       <c r="N54" s="11">
-        <v>87.109240734376698</v>
+        <v>87.150774050576103</v>
       </c>
       <c r="O54" s="11">
         <v>68.345323741007206</v>
@@ -8055,13 +8055,13 @@
         <v>94.270036457232607</v>
       </c>
       <c r="Q54" s="11">
-        <v>95.621053897727094</v>
+        <v>95.630223177652894</v>
       </c>
       <c r="R54" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="2:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:18" ht="51" x14ac:dyDescent="0.3">
       <c r="B55" s="17" t="s">
         <v>218</v>
       </c>
@@ -8093,13 +8093,13 @@
         <v>66</v>
       </c>
       <c r="L55" s="11">
-        <v>84.905660377358501</v>
+        <v>86.792452830188694</v>
       </c>
       <c r="M55" s="11">
-        <v>86.099538890991496</v>
+        <v>86.502995646178704</v>
       </c>
       <c r="N55" s="11">
-        <v>87.109240734376698</v>
+        <v>87.150774050576103</v>
       </c>
       <c r="O55" s="11">
         <v>68.345323741007206</v>
@@ -8108,13 +8108,13 @@
         <v>94.270036457232607</v>
       </c>
       <c r="Q55" s="11">
-        <v>95.621053897727094</v>
+        <v>95.630223177652894</v>
       </c>
       <c r="R55" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B56" s="17" t="s">
         <v>221</v>
       </c>
@@ -8146,13 +8146,13 @@
         <v>66</v>
       </c>
       <c r="L56" s="11">
-        <v>83.018867924528294</v>
+        <v>84.905660377358501</v>
       </c>
       <c r="M56" s="11">
-        <v>85.242483371807197</v>
+        <v>85.645940126994304</v>
       </c>
       <c r="N56" s="11">
-        <v>86.958731775886903</v>
+        <v>87.0009587475747</v>
       </c>
       <c r="O56" s="11">
         <v>68.345323741007206</v>
@@ -8161,13 +8161,13 @@
         <v>94.270036457232607</v>
       </c>
       <c r="Q56" s="11">
-        <v>95.621053897727094</v>
+        <v>95.630223177652894</v>
       </c>
       <c r="R56" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="2:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B57" s="17" t="s">
         <v>224</v>
       </c>
@@ -8205,7 +8205,7 @@
         <v>98.208938931739993</v>
       </c>
       <c r="N57" s="11">
-        <v>97.058801697771102</v>
+        <v>97.055914670365198</v>
       </c>
       <c r="O57" s="11">
         <v>48.201438848920901</v>
@@ -8214,13 +8214,13 @@
         <v>79.538476951577906</v>
       </c>
       <c r="Q57" s="11">
-        <v>49.934591423095902</v>
+        <v>49.962703351461201</v>
       </c>
       <c r="R57" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="2:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B58" s="17" t="s">
         <v>227</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>98.208938931739993</v>
       </c>
       <c r="N58" s="11">
-        <v>97.058801697771102</v>
+        <v>97.055914670365198</v>
       </c>
       <c r="O58" s="11">
         <v>48.201438848920901</v>
@@ -8267,13 +8267,13 @@
         <v>79.538476951577906</v>
       </c>
       <c r="Q58" s="11">
-        <v>49.934591423095902</v>
+        <v>49.962703351461201</v>
       </c>
       <c r="R58" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="2:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B59" s="17" t="s">
         <v>230</v>
       </c>
@@ -8311,7 +8311,7 @@
         <v>98.208938931739993</v>
       </c>
       <c r="N59" s="11">
-        <v>97.058801697771102</v>
+        <v>97.055914670365198</v>
       </c>
       <c r="O59" s="11">
         <v>48.201438848920901</v>
@@ -8320,13 +8320,13 @@
         <v>79.538476951577906</v>
       </c>
       <c r="Q59" s="11">
-        <v>49.934591423095902</v>
+        <v>49.962703351461201</v>
       </c>
       <c r="R59" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="2:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B60" s="17" t="s">
         <v>233</v>
       </c>
@@ -8364,7 +8364,7 @@
         <v>98.208938931739993</v>
       </c>
       <c r="N60" s="11">
-        <v>97.058801697771102</v>
+        <v>97.055914670365198</v>
       </c>
       <c r="O60" s="11">
         <v>48.920863309352498</v>
@@ -8373,13 +8373,13 @@
         <v>79.831863022037496</v>
       </c>
       <c r="Q60" s="11">
-        <v>50.335448855622602</v>
+        <v>50.363339320234502</v>
       </c>
       <c r="R60" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="2:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B61" s="17" t="s">
         <v>236</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>98.208938931739993</v>
       </c>
       <c r="N61" s="11">
-        <v>97.058801697771102</v>
+        <v>97.055914670365198</v>
       </c>
       <c r="O61" s="11">
         <v>48.201438848920901</v>
@@ -8426,13 +8426,13 @@
         <v>79.538476951577906</v>
       </c>
       <c r="Q61" s="11">
-        <v>49.934591423095902</v>
+        <v>49.962703351461201</v>
       </c>
       <c r="R61" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="2:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B62" s="17" t="s">
         <v>239</v>
       </c>
@@ -8470,7 +8470,7 @@
         <v>98.208938931739993</v>
       </c>
       <c r="N62" s="11">
-        <v>97.058801697771102</v>
+        <v>97.055914670365198</v>
       </c>
       <c r="O62" s="11">
         <v>48.920863309352498</v>
@@ -8479,13 +8479,13 @@
         <v>79.831863022037496</v>
       </c>
       <c r="Q62" s="11">
-        <v>50.335448855622602</v>
+        <v>50.363339320234502</v>
       </c>
       <c r="R62" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B63" s="17" t="s">
         <v>242</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>99.992138210963503</v>
       </c>
       <c r="N63" s="11">
-        <v>99.9590212234516</v>
+        <v>99.954575458804797</v>
       </c>
       <c r="O63" s="11">
         <v>89.928057553956904</v>
@@ -8532,13 +8532,13 @@
         <v>99.9868429257385</v>
       </c>
       <c r="Q63" s="11">
-        <v>99.989578580514802</v>
+        <v>99.989529661566195</v>
       </c>
       <c r="R63" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="2:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B64" s="17" t="s">
         <v>245</v>
       </c>
@@ -8576,7 +8576,7 @@
         <v>99.373959039664001</v>
       </c>
       <c r="N64" s="11">
-        <v>99.340007590646195</v>
+        <v>99.335049366246906</v>
       </c>
       <c r="O64" s="11">
         <v>84.172661870503603</v>
@@ -8585,13 +8585,13 @@
         <v>99.298973719028993</v>
       </c>
       <c r="Q64" s="11">
-        <v>99.856931904372402</v>
+        <v>99.857276419872207</v>
       </c>
       <c r="R64" s="16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B65" s="17" t="s">
         <v>249</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>79.910730748958102</v>
       </c>
       <c r="N65" s="11">
-        <v>82.405029303360195</v>
+        <v>82.403468058109695</v>
       </c>
       <c r="O65" s="11">
         <v>85.611510791366896</v>
@@ -8638,13 +8638,13 @@
         <v>99.450593285326903</v>
       </c>
       <c r="Q65" s="11">
-        <v>99.901339690634202</v>
+        <v>99.901382315332896</v>
       </c>
       <c r="R65" s="16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B66" s="17" t="s">
         <v>252</v>
       </c>
@@ -8682,7 +8682,7 @@
         <v>95.084642722482997</v>
       </c>
       <c r="N66" s="11">
-        <v>89.601123347787293</v>
+        <v>89.5330752874452</v>
       </c>
       <c r="O66" s="11">
         <v>67.625899280575595</v>
@@ -8691,13 +8691,13 @@
         <v>94.289435578219994</v>
       </c>
       <c r="Q66" s="11">
-        <v>95.329430212959295</v>
+        <v>95.285158363783097</v>
       </c>
       <c r="R66" s="16" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="67" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B67" s="17" t="s">
         <v>257</v>
       </c>
@@ -8744,13 +8744,13 @@
         <v>96.580056230523098</v>
       </c>
       <c r="Q67" s="11">
-        <v>96.7934590441929</v>
+        <v>96.750309262070701</v>
       </c>
       <c r="R67" s="16" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="68" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B68" s="17" t="s">
         <v>260</v>
       </c>
@@ -8788,7 +8788,7 @@
         <v>95.345400700096107</v>
       </c>
       <c r="N68" s="11">
-        <v>90.147589225373906</v>
+        <v>90.084408170141003</v>
       </c>
       <c r="O68" s="11">
         <v>74.820143884892104</v>
@@ -8797,13 +8797,13 @@
         <v>94.798079138574707</v>
       </c>
       <c r="Q68" s="11">
-        <v>95.492179369016895</v>
+        <v>95.448317217555797</v>
       </c>
       <c r="R68" s="16" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="69" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:18" ht="102" x14ac:dyDescent="0.3">
       <c r="B69" s="17" t="s">
         <v>263</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>99.406245031207902</v>
       </c>
       <c r="N69" s="11">
-        <v>99.400836178401704</v>
+        <v>99.489775468915795</v>
       </c>
       <c r="O69" s="11">
         <v>75.539568345323801</v>
@@ -8850,13 +8850,13 @@
         <v>96.025988736961494</v>
       </c>
       <c r="Q69" s="11">
-        <v>95.959165611971997</v>
+        <v>95.914047738149904</v>
       </c>
       <c r="R69" s="16" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="70" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B70" s="17" t="s">
         <v>266</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>98.843967025551507</v>
       </c>
       <c r="N70" s="11">
-        <v>97.359779119834798</v>
+        <v>97.449780576693399</v>
       </c>
       <c r="O70" s="11">
         <v>76.258992805755398</v>
@@ -8903,13 +8903,13 @@
         <v>96.078155809011406</v>
       </c>
       <c r="Q70" s="11">
-        <v>96.604552167992296</v>
+        <v>96.561530600466696</v>
       </c>
       <c r="R70" s="16" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="71" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B71" s="17" t="s">
         <v>269</v>
       </c>
@@ -8947,7 +8947,7 @@
         <v>97.147010024813596</v>
       </c>
       <c r="N71" s="11">
-        <v>99.159344161276906</v>
+        <v>99.130434017112606</v>
       </c>
       <c r="O71" s="11">
         <v>97.122302158273399</v>
@@ -8956,13 +8956,13 @@
         <v>99.5973908827809</v>
       </c>
       <c r="Q71" s="11">
-        <v>99.999649377911794</v>
+        <v>99.999648581744495</v>
       </c>
       <c r="R71" s="16" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="72" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B72" s="17" t="s">
         <v>274</v>
       </c>
@@ -9000,7 +9000,7 @@
         <v>99.073243571031398</v>
       </c>
       <c r="N72" s="11">
-        <v>97.439525304635396</v>
+        <v>97.409821006267507</v>
       </c>
       <c r="O72" s="11">
         <v>94.244604316546798</v>
@@ -9009,13 +9009,13 @@
         <v>98.406800735849799</v>
       </c>
       <c r="Q72" s="11">
-        <v>99.661976999864095</v>
+        <v>99.661797030336501</v>
       </c>
       <c r="R72" s="16" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="73" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B73" s="17" t="s">
         <v>276</v>
       </c>
@@ -9068,7 +9068,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="74" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B74" s="17" t="s">
         <v>278</v>
       </c>
@@ -9106,7 +9106,7 @@
         <v>91.205412943019297</v>
       </c>
       <c r="N74" s="11">
-        <v>97.864943438540905</v>
+        <v>97.865377421552495</v>
       </c>
       <c r="O74" s="11">
         <v>97.841726618705096</v>
@@ -9115,13 +9115,13 @@
         <v>99.997166909469499</v>
       </c>
       <c r="Q74" s="11">
-        <v>99.999563094328394</v>
+        <v>99.999549385175101</v>
       </c>
       <c r="R74" s="16" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="75" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B75" s="17" t="s">
         <v>280</v>
       </c>
@@ -9159,7 +9159,7 @@
         <v>99.307628632850296</v>
       </c>
       <c r="N75" s="11">
-        <v>99.590988947550002</v>
+        <v>99.560849549737696</v>
       </c>
       <c r="O75" s="11">
         <v>97.122302158273399</v>
@@ -9168,13 +9168,13 @@
         <v>99.997106258827202</v>
       </c>
       <c r="Q75" s="11">
-        <v>99.999277989278696</v>
+        <v>99.999264205862801</v>
       </c>
       <c r="R75" s="16" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="76" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B76" s="17" t="s">
         <v>283</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>77.090441403844906</v>
       </c>
       <c r="N76" s="11">
-        <v>85.704791870422298</v>
+        <v>85.679250584826093</v>
       </c>
       <c r="O76" s="11">
         <v>50.359712230215798</v>
@@ -9221,13 +9221,13 @@
         <v>71.6595603577166</v>
       </c>
       <c r="Q76" s="11">
-        <v>47.4290359371848</v>
+        <v>47.402144480678601</v>
       </c>
       <c r="R76" s="16" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="77" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B77" s="17" t="s">
         <v>287</v>
       </c>
@@ -9265,7 +9265,7 @@
         <v>98.4746215411826</v>
       </c>
       <c r="N77" s="11">
-        <v>99.063989958510703</v>
+        <v>99.162580389773694</v>
       </c>
       <c r="O77" s="11">
         <v>56.834532374100696</v>
@@ -9274,13 +9274,13 @@
         <v>86.687131588424705</v>
       </c>
       <c r="Q77" s="11">
-        <v>75.413870335941297</v>
+        <v>75.420865282407703</v>
       </c>
       <c r="R77" s="16" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="78" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B78" s="17" t="s">
         <v>292</v>
       </c>
@@ -9318,7 +9318,7 @@
         <v>93.577313983432504</v>
       </c>
       <c r="N78" s="11">
-        <v>92.956066201697695</v>
+        <v>92.956367615939001</v>
       </c>
       <c r="O78" s="11">
         <v>74.100719424460394</v>
@@ -9327,13 +9327,13 @@
         <v>98.712160720189203</v>
       </c>
       <c r="Q78" s="11">
-        <v>99.522036691229701</v>
+        <v>99.522274949587398</v>
       </c>
       <c r="R78" s="16" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="79" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B79" s="17" t="s">
         <v>297</v>
       </c>
@@ -9371,7 +9371,7 @@
         <v>84.719309178310994</v>
       </c>
       <c r="N79" s="11">
-        <v>70.761570444903199</v>
+        <v>70.7375852193085</v>
       </c>
       <c r="O79" s="11">
         <v>20.143884892086302</v>
@@ -9380,13 +9380,13 @@
         <v>34.627362210963199</v>
       </c>
       <c r="Q79" s="11">
-        <v>13.855300217654399</v>
+        <v>13.841615334048999</v>
       </c>
       <c r="R79" s="16" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="80" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B80" s="17" t="s">
         <v>303</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>84.719309178310994</v>
       </c>
       <c r="N80" s="11">
-        <v>70.761570444903199</v>
+        <v>70.7375852193085</v>
       </c>
       <c r="O80" s="11">
         <v>20.143884892086302</v>
@@ -9433,13 +9433,13 @@
         <v>34.627362210963199</v>
       </c>
       <c r="Q80" s="11">
-        <v>13.855300217654399</v>
+        <v>13.841615334048999</v>
       </c>
       <c r="R80" s="16" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="81" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B81" s="17" t="s">
         <v>305</v>
       </c>
@@ -9477,7 +9477,7 @@
         <v>84.719309178310994</v>
       </c>
       <c r="N81" s="11">
-        <v>70.761570444903199</v>
+        <v>70.7375852193085</v>
       </c>
       <c r="O81" s="11">
         <v>20.143884892086302</v>
@@ -9486,13 +9486,13 @@
         <v>34.627362210963199</v>
       </c>
       <c r="Q81" s="11">
-        <v>13.855300217654399</v>
+        <v>13.841615334048999</v>
       </c>
       <c r="R81" s="16" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="82" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B82" s="17" t="s">
         <v>307</v>
       </c>
@@ -9530,7 +9530,7 @@
         <v>84.719309178310994</v>
       </c>
       <c r="N82" s="11">
-        <v>70.761570444903199</v>
+        <v>70.7375852193085</v>
       </c>
       <c r="O82" s="11">
         <v>20.143884892086302</v>
@@ -9539,13 +9539,13 @@
         <v>34.627362210963199</v>
       </c>
       <c r="Q82" s="11">
-        <v>13.855300217654399</v>
+        <v>13.841615334048999</v>
       </c>
       <c r="R82" s="16" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="83" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B83" s="17" t="s">
         <v>309</v>
       </c>
@@ -9583,7 +9583,7 @@
         <v>82.231775088844401</v>
       </c>
       <c r="N83" s="11">
-        <v>70.103868571351001</v>
+        <v>70.079929079876905</v>
       </c>
       <c r="O83" s="11">
         <v>19.424460431654701</v>
@@ -9592,13 +9592,13 @@
         <v>34.6179877467764</v>
       </c>
       <c r="Q83" s="11">
-        <v>13.8467389839787</v>
+        <v>13.833064017622201</v>
       </c>
       <c r="R83" s="16" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="84" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B84" s="17" t="s">
         <v>313</v>
       </c>
@@ -9636,7 +9636,7 @@
         <v>82.231775088844401</v>
       </c>
       <c r="N84" s="11">
-        <v>70.103868571351001</v>
+        <v>70.079929079876905</v>
       </c>
       <c r="O84" s="11">
         <v>19.424460431654701</v>
@@ -9645,13 +9645,13 @@
         <v>34.6179877467764</v>
       </c>
       <c r="Q84" s="11">
-        <v>13.8467389839787</v>
+        <v>13.833064017622201</v>
       </c>
       <c r="R84" s="16" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="85" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B85" s="17" t="s">
         <v>315</v>
       </c>
@@ -9689,7 +9689,7 @@
         <v>82.231775088844401</v>
       </c>
       <c r="N85" s="11">
-        <v>70.103868571351001</v>
+        <v>70.079929079876905</v>
       </c>
       <c r="O85" s="11">
         <v>19.424460431654701</v>
@@ -9698,13 +9698,13 @@
         <v>34.6179877467764</v>
       </c>
       <c r="Q85" s="11">
-        <v>13.8467389839787</v>
+        <v>13.833064017622201</v>
       </c>
       <c r="R85" s="16" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="86" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B86" s="17" t="s">
         <v>317</v>
       </c>
@@ -9742,7 +9742,7 @@
         <v>82.231775088844401</v>
       </c>
       <c r="N86" s="11">
-        <v>70.103868571351001</v>
+        <v>70.079929079876905</v>
       </c>
       <c r="O86" s="11">
         <v>19.424460431654701</v>
@@ -9751,13 +9751,13 @@
         <v>34.6179877467764</v>
       </c>
       <c r="Q86" s="11">
-        <v>13.8467389839787</v>
+        <v>13.833064017622201</v>
       </c>
       <c r="R86" s="16" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="87" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B87" s="17" t="s">
         <v>319</v>
       </c>
@@ -9795,7 +9795,7 @@
         <v>89.802373826518405</v>
       </c>
       <c r="N87" s="11">
-        <v>82.999921528346306</v>
+        <v>82.974157114458393</v>
       </c>
       <c r="O87" s="11">
         <v>75.539568345323801</v>
@@ -9804,13 +9804,13 @@
         <v>95.506061117097303</v>
       </c>
       <c r="Q87" s="11">
-        <v>96.180951687111005</v>
+        <v>96.182869390577096</v>
       </c>
       <c r="R87" s="16" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="88" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B88" s="17" t="s">
         <v>324</v>
       </c>
@@ -9848,7 +9848,7 @@
         <v>89.802373826518405</v>
       </c>
       <c r="N88" s="11">
-        <v>82.999921528346306</v>
+        <v>82.974157114458393</v>
       </c>
       <c r="O88" s="11">
         <v>75.539568345323801</v>
@@ -9857,13 +9857,13 @@
         <v>95.506061117097303</v>
       </c>
       <c r="Q88" s="11">
-        <v>96.180951687111005</v>
+        <v>96.182869390577096</v>
       </c>
       <c r="R88" s="16" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="89" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B89" s="17" t="s">
         <v>326</v>
       </c>
@@ -9901,7 +9901,7 @@
         <v>94.535340991430701</v>
       </c>
       <c r="N89" s="11">
-        <v>95.231660906430093</v>
+        <v>95.202287875817305</v>
       </c>
       <c r="O89" s="11">
         <v>87.7697841726619</v>
@@ -9910,13 +9910,13 @@
         <v>96.674806348416098</v>
       </c>
       <c r="Q89" s="11">
-        <v>98.6172667717818</v>
+        <v>98.617663396854795</v>
       </c>
       <c r="R89" s="16" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="90" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B90" s="17" t="s">
         <v>329</v>
       </c>
@@ -9954,7 +9954,7 @@
         <v>94.535340991430701</v>
       </c>
       <c r="N90" s="11">
-        <v>95.231660906430093</v>
+        <v>95.202287875817305</v>
       </c>
       <c r="O90" s="11">
         <v>87.7697841726619</v>
@@ -9963,13 +9963,13 @@
         <v>96.674806348416098</v>
       </c>
       <c r="Q90" s="11">
-        <v>98.6172667717818</v>
+        <v>98.617663396854795</v>
       </c>
       <c r="R90" s="16" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="91" spans="2:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:18" ht="51" x14ac:dyDescent="0.3">
       <c r="B91" s="17" t="s">
         <v>331</v>
       </c>
@@ -10007,7 +10007,7 @@
         <v>98.018513439662797</v>
       </c>
       <c r="N91" s="11">
-        <v>99.119872483358293</v>
+        <v>99.215428967740493</v>
       </c>
       <c r="O91" s="11">
         <v>76.978417266187094</v>
@@ -10016,13 +10016,13 @@
         <v>99.053804304105896</v>
       </c>
       <c r="Q91" s="11">
-        <v>99.800484179625897</v>
+        <v>99.8006985119804</v>
       </c>
       <c r="R91" s="16" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="92" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B92" s="17" t="s">
         <v>336</v>
       </c>
@@ -10075,7 +10075,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B93" s="17" t="s">
         <v>341</v>
       </c>
@@ -10128,7 +10128,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="94" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B94" s="17" t="s">
         <v>344</v>
       </c>
@@ -10181,7 +10181,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B95" s="17" t="s">
         <v>347</v>
       </c>
@@ -10234,7 +10234,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="2:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B96" s="17" t="s">
         <v>351</v>
       </c>
@@ -10287,7 +10287,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="97" spans="2:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B97" s="17" t="s">
         <v>355</v>
       </c>
@@ -10340,7 +10340,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="2:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:18" ht="51" x14ac:dyDescent="0.3">
       <c r="B98" s="17" t="s">
         <v>358</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="2:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:18" ht="51" x14ac:dyDescent="0.3">
       <c r="B99" s="17" t="s">
         <v>361</v>
       </c>
@@ -10431,7 +10431,7 @@
         <v>97.349297114739599</v>
       </c>
       <c r="N99" s="11">
-        <v>97.268405163652403</v>
+        <v>97.35203686893</v>
       </c>
       <c r="O99" s="11">
         <v>54.676258992805799</v>
@@ -10440,13 +10440,13 @@
         <v>82.860780163891107</v>
       </c>
       <c r="Q99" s="11">
-        <v>56.586753007316098</v>
+        <v>56.6188634048778</v>
       </c>
       <c r="R99" s="16" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="100" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B100" s="17" t="s">
         <v>364</v>
       </c>
@@ -10484,7 +10484,7 @@
         <v>99.307707138585599</v>
       </c>
       <c r="N100" s="11">
-        <v>99.216082827637806</v>
+        <v>99.216180224046596</v>
       </c>
       <c r="O100" s="11">
         <v>77.697841726618705</v>
@@ -10493,13 +10493,13 @@
         <v>99.088134530268405</v>
       </c>
       <c r="Q100" s="11">
-        <v>99.744424006193498</v>
+        <v>99.744449654510106</v>
       </c>
       <c r="R100" s="16" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="101" spans="2:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:18" ht="51" x14ac:dyDescent="0.3">
       <c r="B101" s="17" t="s">
         <v>369</v>
       </c>
@@ -10537,7 +10537,7 @@
         <v>99.307707138585599</v>
       </c>
       <c r="N101" s="11">
-        <v>99.216082827637806</v>
+        <v>99.216180224046596</v>
       </c>
       <c r="O101" s="11">
         <v>76.258992805755398</v>
@@ -10546,13 +10546,13 @@
         <v>99.039879483159197</v>
       </c>
       <c r="Q101" s="11">
-        <v>99.508974178227305</v>
+        <v>99.509055228956299</v>
       </c>
       <c r="R101" s="16" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="102" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B102" s="17" t="s">
         <v>372</v>
       </c>
@@ -10590,7 +10590,7 @@
         <v>99.307707138585599</v>
       </c>
       <c r="N102" s="11">
-        <v>99.216082827637806</v>
+        <v>99.216180224046596</v>
       </c>
       <c r="O102" s="11">
         <v>76.258992805755398</v>
@@ -10599,13 +10599,13 @@
         <v>99.039879483159197</v>
       </c>
       <c r="Q102" s="11">
-        <v>99.508974178227305</v>
+        <v>99.509055228956299</v>
       </c>
       <c r="R102" s="16" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="103" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B103" s="17" t="s">
         <v>375</v>
       </c>
@@ -10643,7 +10643,7 @@
         <v>99.307707138585599</v>
       </c>
       <c r="N103" s="11">
-        <v>99.216082827637806</v>
+        <v>99.216180224046596</v>
       </c>
       <c r="O103" s="11">
         <v>76.978417266187094</v>
@@ -10652,13 +10652,13 @@
         <v>99.0473878008263</v>
       </c>
       <c r="Q103" s="11">
-        <v>99.516505290489704</v>
+        <v>99.516594846953197</v>
       </c>
       <c r="R103" s="16" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="104" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B104" s="17" t="s">
         <v>378</v>
       </c>
@@ -10696,7 +10696,7 @@
         <v>98.450651619401299</v>
       </c>
       <c r="N104" s="11">
-        <v>99.065573869148096</v>
+        <v>99.066364921045107</v>
       </c>
       <c r="O104" s="11">
         <v>76.978417266187094</v>
@@ -10705,13 +10705,13 @@
         <v>99.0473878008263</v>
       </c>
       <c r="Q104" s="11">
-        <v>99.516505290489704</v>
+        <v>99.516594846953197</v>
       </c>
       <c r="R104" s="16" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="105" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B105" s="17" t="s">
         <v>380</v>
       </c>
@@ -10749,7 +10749,7 @@
         <v>99.307707138585599</v>
       </c>
       <c r="N105" s="11">
-        <v>99.216082827637806</v>
+        <v>99.216180224046596</v>
       </c>
       <c r="O105" s="11">
         <v>76.978417266187094</v>
@@ -10758,13 +10758,13 @@
         <v>99.0473878008263</v>
       </c>
       <c r="Q105" s="11">
-        <v>99.516505290489704</v>
+        <v>99.516594846953197</v>
       </c>
       <c r="R105" s="16" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="106" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B106" s="17" t="s">
         <v>383</v>
       </c>
@@ -10817,7 +10817,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="107" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B107" s="17" t="s">
         <v>387</v>
       </c>
@@ -10870,7 +10870,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="108" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B108" s="17" t="s">
         <v>390</v>
       </c>
@@ -10923,7 +10923,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B109" s="17" t="s">
         <v>393</v>
       </c>
@@ -10976,7 +10976,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B110" s="17" t="s">
         <v>396</v>
       </c>
@@ -11029,7 +11029,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B111" s="17" t="s">
         <v>399</v>
       </c>
@@ -11082,7 +11082,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="112" spans="2:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B112" s="17" t="s">
         <v>402</v>
       </c>
@@ -11114,19 +11114,19 @@
         <v>2021</v>
       </c>
       <c r="L112" s="11">
-        <v>100</v>
+        <v>98.113207547169793</v>
       </c>
       <c r="M112" s="11">
-        <v>100</v>
+        <v>99.736658183288299</v>
       </c>
       <c r="N112" s="11">
         <v>100</v>
       </c>
       <c r="O112" s="11">
-        <v>94.964028776978395</v>
+        <v>96.402877697841802</v>
       </c>
       <c r="P112" s="11">
-        <v>98.387734299358698</v>
+        <v>99.093902486283895</v>
       </c>
       <c r="Q112" s="11">
         <v>100</v>
@@ -11135,7 +11135,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="2:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B113" s="17" t="s">
         <v>406</v>
       </c>
@@ -11167,13 +11167,13 @@
         <v>2021</v>
       </c>
       <c r="L113" s="11">
-        <v>98.113207547169793</v>
+        <v>96.2264150943397</v>
       </c>
       <c r="M113" s="11">
-        <v>99.510075352280097</v>
+        <v>99.246733535568396</v>
       </c>
       <c r="N113" s="11">
-        <v>98.017805451654198</v>
+        <v>98.017021173889802</v>
       </c>
       <c r="O113" s="11">
         <v>85.611510791366896</v>
@@ -11182,13 +11182,13 @@
         <v>94.163254630215107</v>
       </c>
       <c r="Q113" s="11">
-        <v>92.316162508131995</v>
+        <v>92.228356581196294</v>
       </c>
       <c r="R113" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="114" spans="2:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B114" s="17" t="s">
         <v>409</v>
       </c>
@@ -11220,10 +11220,10 @@
         <v>2021</v>
       </c>
       <c r="L114" s="11">
-        <v>100</v>
+        <v>98.113207547169793</v>
       </c>
       <c r="M114" s="11">
-        <v>100</v>
+        <v>99.736658183288299</v>
       </c>
       <c r="N114" s="11">
         <v>100</v>
@@ -11235,13 +11235,13 @@
         <v>91.614683484101505</v>
       </c>
       <c r="Q114" s="11">
-        <v>90.322232454226906</v>
+        <v>90.183933821994501</v>
       </c>
       <c r="R114" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="115" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B115" s="17" t="s">
         <v>412</v>
       </c>
@@ -11273,19 +11273,19 @@
         <v>2021</v>
       </c>
       <c r="L115" s="11">
-        <v>100</v>
+        <v>98.113207547169793</v>
       </c>
       <c r="M115" s="11">
-        <v>100</v>
+        <v>99.736658183288299</v>
       </c>
       <c r="N115" s="11">
         <v>100</v>
       </c>
       <c r="O115" s="11">
-        <v>94.964028776978395</v>
+        <v>96.402877697841802</v>
       </c>
       <c r="P115" s="11">
-        <v>98.387734299358698</v>
+        <v>99.093902486283895</v>
       </c>
       <c r="Q115" s="11">
         <v>100</v>
@@ -11294,7 +11294,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="116" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B116" s="17" t="s">
         <v>415</v>
       </c>
@@ -11326,28 +11326,28 @@
         <v>2021</v>
       </c>
       <c r="L116" s="11">
-        <v>98.113207547169793</v>
+        <v>96.2264150943397</v>
       </c>
       <c r="M116" s="11">
-        <v>99.510075352280097</v>
+        <v>99.246733535568396</v>
       </c>
       <c r="N116" s="11">
-        <v>98.017805451654198</v>
+        <v>98.017021173889802</v>
       </c>
       <c r="O116" s="11">
-        <v>94.244604316546798</v>
+        <v>94.964028776978395</v>
       </c>
       <c r="P116" s="11">
-        <v>98.387455739665597</v>
+        <v>98.473889471064496</v>
       </c>
       <c r="Q116" s="11">
-        <v>99.999821228442002</v>
+        <v>99.9513786076011</v>
       </c>
       <c r="R116" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="117" spans="2:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B117" s="17" t="s">
         <v>418</v>
       </c>
@@ -11379,19 +11379,19 @@
         <v>2021</v>
       </c>
       <c r="L117" s="11">
-        <v>100</v>
+        <v>98.113207547169793</v>
       </c>
       <c r="M117" s="11">
-        <v>100</v>
+        <v>99.736658183288299</v>
       </c>
       <c r="N117" s="11">
         <v>100</v>
       </c>
       <c r="O117" s="11">
-        <v>94.964028776978395</v>
+        <v>96.402877697841802</v>
       </c>
       <c r="P117" s="11">
-        <v>98.387734299358698</v>
+        <v>99.093902486283895</v>
       </c>
       <c r="Q117" s="11">
         <v>100</v>
@@ -11400,7 +11400,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="118" spans="2:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B118" s="17" t="s">
         <v>420</v>
       </c>
@@ -11432,13 +11432,13 @@
         <v>2021</v>
       </c>
       <c r="L118" s="11">
-        <v>98.113207547169793</v>
+        <v>96.2264150943397</v>
       </c>
       <c r="M118" s="11">
-        <v>99.510075352280097</v>
+        <v>99.246733535568396</v>
       </c>
       <c r="N118" s="11">
-        <v>98.017805451654198</v>
+        <v>98.017021173889802</v>
       </c>
       <c r="O118" s="11">
         <v>85.611510791366896</v>
@@ -11447,13 +11447,13 @@
         <v>94.163254630215107</v>
       </c>
       <c r="Q118" s="11">
-        <v>92.316162508131995</v>
+        <v>92.228356581196294</v>
       </c>
       <c r="R118" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="119" spans="2:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B119" s="17" t="s">
         <v>422</v>
       </c>
@@ -11485,10 +11485,10 @@
         <v>2021</v>
       </c>
       <c r="L119" s="11">
-        <v>100</v>
+        <v>98.113207547169793</v>
       </c>
       <c r="M119" s="11">
-        <v>100</v>
+        <v>99.736658183288299</v>
       </c>
       <c r="N119" s="11">
         <v>100</v>
@@ -11500,13 +11500,13 @@
         <v>91.614683484101505</v>
       </c>
       <c r="Q119" s="11">
-        <v>90.322232454226906</v>
+        <v>90.183933821994501</v>
       </c>
       <c r="R119" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="120" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B120" s="17" t="s">
         <v>424</v>
       </c>
@@ -11538,19 +11538,19 @@
         <v>2021</v>
       </c>
       <c r="L120" s="11">
-        <v>100</v>
+        <v>98.113207547169793</v>
       </c>
       <c r="M120" s="11">
-        <v>100</v>
+        <v>99.736658183288299</v>
       </c>
       <c r="N120" s="11">
         <v>100</v>
       </c>
       <c r="O120" s="11">
-        <v>94.964028776978395</v>
+        <v>96.402877697841802</v>
       </c>
       <c r="P120" s="11">
-        <v>98.387734299358698</v>
+        <v>99.093902486283895</v>
       </c>
       <c r="Q120" s="11">
         <v>100</v>
@@ -11559,7 +11559,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="121" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B121" s="17" t="s">
         <v>426</v>
       </c>
@@ -11591,28 +11591,28 @@
         <v>2021</v>
       </c>
       <c r="L121" s="11">
-        <v>98.113207547169793</v>
+        <v>96.2264150943397</v>
       </c>
       <c r="M121" s="11">
-        <v>99.510075352280097</v>
+        <v>99.246733535568396</v>
       </c>
       <c r="N121" s="11">
-        <v>98.017805451654198</v>
+        <v>98.017021173889802</v>
       </c>
       <c r="O121" s="11">
-        <v>94.244604316546798</v>
+        <v>94.964028776978395</v>
       </c>
       <c r="P121" s="11">
-        <v>98.387455739665597</v>
+        <v>98.473889471064496</v>
       </c>
       <c r="Q121" s="11">
-        <v>99.999821228442002</v>
+        <v>99.9513786076011</v>
       </c>
       <c r="R121" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="122" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B122" s="17" t="s">
         <v>428</v>
       </c>
@@ -11665,7 +11665,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="123" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B123" s="17" t="s">
         <v>433</v>
       </c>
@@ -11718,7 +11718,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="124" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B124" s="17" t="s">
         <v>436</v>
       </c>
@@ -11771,7 +11771,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="125" spans="2:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:18" ht="51" x14ac:dyDescent="0.3">
       <c r="B125" s="17" t="s">
         <v>439</v>
       </c>
@@ -11824,7 +11824,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="126" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B126" s="17" t="s">
         <v>442</v>
       </c>
@@ -11877,7 +11877,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="127" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B127" s="17" t="s">
         <v>445</v>
       </c>
@@ -11930,7 +11930,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="128" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B128" s="17" t="s">
         <v>448</v>
       </c>
@@ -11983,7 +11983,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="129" spans="2:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:18" ht="51" x14ac:dyDescent="0.3">
       <c r="B129" s="17" t="s">
         <v>451</v>
       </c>
@@ -12036,7 +12036,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="130" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B130" s="17" t="s">
         <v>454</v>
       </c>
@@ -12089,7 +12089,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="131" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B131" s="17" t="s">
         <v>460</v>
       </c>
@@ -12142,7 +12142,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="132" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B132" s="17" t="s">
         <v>463</v>
       </c>
@@ -12195,7 +12195,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="133" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B133" s="17" t="s">
         <v>466</v>
       </c>
@@ -12248,7 +12248,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="134" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B134" s="17" t="s">
         <v>469</v>
       </c>
@@ -12301,7 +12301,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="135" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B135" s="17" t="s">
         <v>472</v>
       </c>
@@ -12354,7 +12354,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="136" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B136" s="17" t="s">
         <v>475</v>
       </c>
@@ -12407,7 +12407,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="137" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B137" s="17" t="s">
         <v>478</v>
       </c>
@@ -12460,7 +12460,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="138" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B138" s="17" t="s">
         <v>480</v>
       </c>
@@ -12513,7 +12513,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="139" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B139" s="17" t="s">
         <v>483</v>
       </c>
@@ -12566,7 +12566,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="140" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B140" s="17" t="s">
         <v>485</v>
       </c>
@@ -12619,7 +12619,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="141" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B141" s="17" t="s">
         <v>488</v>
       </c>
@@ -12672,7 +12672,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="142" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B142" s="17" t="s">
         <v>491</v>
       </c>
@@ -12704,13 +12704,13 @@
         <v>2021</v>
       </c>
       <c r="L142" s="11">
-        <v>98.113207547169793</v>
+        <v>96.2264150943397</v>
       </c>
       <c r="M142" s="11">
-        <v>99.510075352280097</v>
+        <v>99.246733535568396</v>
       </c>
       <c r="N142" s="11">
-        <v>98.017805451654198</v>
+        <v>98.017021173889802</v>
       </c>
       <c r="O142" s="11">
         <v>94.244604316546798</v>
@@ -12719,13 +12719,13 @@
         <v>98.387212757225896</v>
       </c>
       <c r="Q142" s="11">
-        <v>99.998343077480897</v>
+        <v>99.897024139440504</v>
       </c>
       <c r="R142" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="143" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:18" ht="112.2" x14ac:dyDescent="0.3">
       <c r="B143" s="17" t="s">
         <v>495</v>
       </c>
@@ -12772,13 +12772,13 @@
         <v>23.573088230534601</v>
       </c>
       <c r="Q143" s="11">
-        <v>27.487456813933601</v>
+        <v>27.485591964694301</v>
       </c>
       <c r="R143" s="16" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="144" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B144" s="17" t="s">
         <v>499</v>
       </c>
@@ -12831,7 +12831,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="145" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B145" s="17" t="s">
         <v>502</v>
       </c>
@@ -12884,7 +12884,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="146" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B146" s="17" t="s">
         <v>505</v>
       </c>
@@ -12922,7 +12922,7 @@
         <v>99.850102971269905</v>
       </c>
       <c r="N146" s="11">
-        <v>99.933633626909398</v>
+        <v>99.933612862826294</v>
       </c>
       <c r="O146" s="11">
         <v>97.841726618705096</v>
@@ -12931,13 +12931,13 @@
         <v>77.961743253753696</v>
       </c>
       <c r="Q146" s="11">
-        <v>80.155089787929199</v>
+        <v>80.201779572710294</v>
       </c>
       <c r="R146" s="16" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="147" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B147" s="17" t="s">
         <v>508</v>
       </c>
@@ -12990,7 +12990,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="148" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B148" s="17" t="s">
         <v>511</v>
       </c>
@@ -13037,13 +13037,13 @@
         <v>94.389160251125702</v>
       </c>
       <c r="Q148" s="11">
-        <v>83.125652754774293</v>
+        <v>83.1653537321464</v>
       </c>
       <c r="R148" s="16" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="149" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:18" ht="112.2" x14ac:dyDescent="0.3">
       <c r="B149" s="17" t="s">
         <v>514</v>
       </c>
@@ -13090,13 +13090,13 @@
         <v>23.573088230534601</v>
       </c>
       <c r="Q149" s="11">
-        <v>27.487456813933601</v>
+        <v>27.485591964694301</v>
       </c>
       <c r="R149" s="16" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="150" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B150" s="17" t="s">
         <v>517</v>
       </c>
@@ -13149,7 +13149,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="151" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B151" s="17" t="s">
         <v>520</v>
       </c>
@@ -13202,7 +13202,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="152" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B152" s="17" t="s">
         <v>523</v>
       </c>
@@ -13249,13 +13249,13 @@
         <v>77.961743253753696</v>
       </c>
       <c r="Q152" s="11">
-        <v>80.155089787929199</v>
+        <v>80.201779572710294</v>
       </c>
       <c r="R152" s="16" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="153" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B153" s="17" t="s">
         <v>526</v>
       </c>
@@ -13308,7 +13308,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="154" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B154" s="17" t="s">
         <v>529</v>
       </c>
@@ -13355,13 +13355,13 @@
         <v>94.389160251125702</v>
       </c>
       <c r="Q154" s="11">
-        <v>83.125652754774293</v>
+        <v>83.1653537321464</v>
       </c>
       <c r="R154" s="16" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="155" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B155" s="17" t="s">
         <v>532</v>
       </c>
@@ -13414,7 +13414,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="156" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B156" s="17" t="s">
         <v>536</v>
       </c>
@@ -13467,7 +13467,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="157" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B157" s="17" t="s">
         <v>539</v>
       </c>
@@ -13520,7 +13520,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="158" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B158" s="17" t="s">
         <v>541</v>
       </c>
@@ -13546,7 +13546,7 @@
         <v>46</v>
       </c>
       <c r="J158" s="9" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K158" s="9">
         <v>2021</v>
@@ -13558,22 +13558,22 @@
         <v>79.3695839371007</v>
       </c>
       <c r="N158" s="11">
-        <v>87.638518081945307</v>
+        <v>87.700800641478594</v>
       </c>
       <c r="O158" s="11">
-        <v>84.172661870503603</v>
+        <v>84.8920863309353</v>
       </c>
       <c r="P158" s="11">
-        <v>94.487561091779199</v>
+        <v>94.573994823177998</v>
       </c>
       <c r="Q158" s="11">
-        <v>97.6762776409129</v>
+        <v>97.632499648325705</v>
       </c>
       <c r="R158" s="16" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="159" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:18" ht="102" x14ac:dyDescent="0.3">
       <c r="B159" s="17" t="s">
         <v>546</v>
       </c>
@@ -13599,34 +13599,34 @@
         <v>46</v>
       </c>
       <c r="J159" s="9" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K159" s="9">
         <v>2021</v>
       </c>
       <c r="L159" s="11">
-        <v>98.113207547169793</v>
+        <v>96.2264150943397</v>
       </c>
       <c r="M159" s="11">
-        <v>99.510075352280097</v>
+        <v>99.246733535568396</v>
       </c>
       <c r="N159" s="11">
-        <v>98.017805451654198</v>
+        <v>98.017021173889802</v>
       </c>
       <c r="O159" s="11">
-        <v>90.647482014388501</v>
+        <v>92.086330935251794</v>
       </c>
       <c r="P159" s="11">
-        <v>96.564122373703299</v>
+        <v>97.270290560628595</v>
       </c>
       <c r="Q159" s="11">
-        <v>97.802361793339699</v>
+        <v>97.805754064306697</v>
       </c>
       <c r="R159" s="16" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="160" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:18" ht="102" x14ac:dyDescent="0.3">
       <c r="B160" s="17" t="s">
         <v>550</v>
       </c>
@@ -13652,7 +13652,7 @@
         <v>46</v>
       </c>
       <c r="J160" s="9" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K160" s="9">
         <v>2021</v>
@@ -13664,22 +13664,22 @@
         <v>66.732464150518197</v>
       </c>
       <c r="N160" s="11">
-        <v>75.697106268687094</v>
+        <v>75.753918396518003</v>
       </c>
       <c r="O160" s="11">
-        <v>76.258992805755398</v>
+        <v>76.978417266187094</v>
       </c>
       <c r="P160" s="11">
-        <v>93.539047625573502</v>
+        <v>93.625481356972301</v>
       </c>
       <c r="Q160" s="11">
-        <v>97.447043056282794</v>
+        <v>97.4032033336984</v>
       </c>
       <c r="R160" s="16" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="161" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B161" s="17" t="s">
         <v>553</v>
       </c>
@@ -13705,7 +13705,7 @@
         <v>46</v>
       </c>
       <c r="J161" s="9" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K161" s="9">
         <v>2021</v>
@@ -13717,22 +13717,22 @@
         <v>80.151414197860305</v>
       </c>
       <c r="N161" s="11">
-        <v>87.721522683845606</v>
+        <v>87.783841550490294</v>
       </c>
       <c r="O161" s="11">
-        <v>84.172661870503603</v>
+        <v>84.8920863309353</v>
       </c>
       <c r="P161" s="11">
-        <v>94.487561091779199</v>
+        <v>94.573994823177998</v>
       </c>
       <c r="Q161" s="11">
-        <v>97.6762776409129</v>
+        <v>97.632499648325705</v>
       </c>
       <c r="R161" s="16" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="162" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B162" s="17" t="s">
         <v>556</v>
       </c>
@@ -13764,28 +13764,28 @@
         <v>2021</v>
       </c>
       <c r="L162" s="11">
-        <v>98.113207547169793</v>
+        <v>96.2264150943397</v>
       </c>
       <c r="M162" s="11">
-        <v>99.992255362735307</v>
+        <v>99.728913546023605</v>
       </c>
       <c r="N162" s="11">
-        <v>99.957777146479302</v>
+        <v>99.955522897595401</v>
       </c>
       <c r="O162" s="11">
-        <v>55.395683453237403</v>
+        <v>56.834532374100696</v>
       </c>
       <c r="P162" s="11">
-        <v>77.471577090085503</v>
+        <v>78.1777452770108</v>
       </c>
       <c r="Q162" s="11">
-        <v>48.428936219158501</v>
+        <v>48.475214130018699</v>
       </c>
       <c r="R162" s="16" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="163" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B163" s="17" t="s">
         <v>560</v>
       </c>
@@ -13823,22 +13823,22 @@
         <v>97.056735604318405</v>
       </c>
       <c r="N163" s="11">
-        <v>96.853966623684997</v>
+        <v>96.9118516661147</v>
       </c>
       <c r="O163" s="11">
-        <v>86.330935251798607</v>
+        <v>87.7697841726619</v>
       </c>
       <c r="P163" s="11">
-        <v>95.8963324610271</v>
+        <v>96.602500647952297</v>
       </c>
       <c r="Q163" s="11">
-        <v>98.159919688620406</v>
+        <v>98.160973705587395</v>
       </c>
       <c r="R163" s="16" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="164" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B164" s="17" t="s">
         <v>564</v>
       </c>
@@ -13876,22 +13876,22 @@
         <v>66.732464150518197</v>
       </c>
       <c r="N164" s="11">
-        <v>75.697106268687094</v>
+        <v>75.753918396518003</v>
       </c>
       <c r="O164" s="11">
-        <v>75.539568345323801</v>
+        <v>76.258992805755398</v>
       </c>
       <c r="P164" s="11">
-        <v>92.228849527654603</v>
+        <v>92.315283259053402</v>
       </c>
       <c r="Q164" s="11">
-        <v>95.299675873447796</v>
+        <v>95.259487168141803</v>
       </c>
       <c r="R164" s="16" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="165" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B165" s="17" t="s">
         <v>568</v>
       </c>
@@ -13917,7 +13917,7 @@
         <v>25</v>
       </c>
       <c r="J165" s="9" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K165" s="9">
         <v>2021</v>
@@ -13929,7 +13929,7 @@
         <v>79.3695839371007</v>
       </c>
       <c r="N165" s="11">
-        <v>87.638518081945307</v>
+        <v>87.700800641478594</v>
       </c>
       <c r="O165" s="11">
         <v>84.8920863309353</v>
@@ -13938,13 +13938,13 @@
         <v>94.573994823177998</v>
       </c>
       <c r="Q165" s="11">
-        <v>97.6762776409129</v>
+        <v>97.632499648325705</v>
       </c>
       <c r="R165" s="16" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="166" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B166" s="17" t="s">
         <v>571</v>
       </c>
@@ -13970,7 +13970,7 @@
         <v>25</v>
       </c>
       <c r="J166" s="9" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K166" s="9">
         <v>2021</v>
@@ -13982,7 +13982,7 @@
         <v>99.510075352280097</v>
       </c>
       <c r="N166" s="11">
-        <v>98.017805451654198</v>
+        <v>98.017021173889802</v>
       </c>
       <c r="O166" s="11">
         <v>92.805755395683505</v>
@@ -13991,13 +13991,13 @@
         <v>97.671684646242397</v>
       </c>
       <c r="Q166" s="11">
-        <v>97.802361793339699</v>
+        <v>97.805754064306697</v>
       </c>
       <c r="R166" s="16" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="167" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:18" ht="102" x14ac:dyDescent="0.3">
       <c r="B167" s="17" t="s">
         <v>574</v>
       </c>
@@ -14023,7 +14023,7 @@
         <v>25</v>
       </c>
       <c r="J167" s="9" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K167" s="9">
         <v>2021</v>
@@ -14035,7 +14035,7 @@
         <v>66.732464150518197</v>
       </c>
       <c r="N167" s="11">
-        <v>75.697106268687094</v>
+        <v>75.753918396518003</v>
       </c>
       <c r="O167" s="11">
         <v>76.978417266187094</v>
@@ -14044,13 +14044,13 @@
         <v>93.625481356972301</v>
       </c>
       <c r="Q167" s="11">
-        <v>97.447043056282794</v>
+        <v>97.4032033336984</v>
       </c>
       <c r="R167" s="16" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="168" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B168" s="17" t="s">
         <v>576</v>
       </c>
@@ -14076,7 +14076,7 @@
         <v>25</v>
       </c>
       <c r="J168" s="9" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K168" s="9">
         <v>2021</v>
@@ -14088,7 +14088,7 @@
         <v>80.151414197860305</v>
       </c>
       <c r="N168" s="11">
-        <v>87.721522683845606</v>
+        <v>87.783841550490294</v>
       </c>
       <c r="O168" s="11">
         <v>84.8920863309353</v>
@@ -14097,13 +14097,13 @@
         <v>94.573994823177998</v>
       </c>
       <c r="Q168" s="11">
-        <v>97.6762776409129</v>
+        <v>97.632499648325705</v>
       </c>
       <c r="R168" s="16" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="169" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B169" s="17" t="s">
         <v>579</v>
       </c>
@@ -14141,7 +14141,7 @@
         <v>99.992255362735307</v>
       </c>
       <c r="N169" s="11">
-        <v>99.957777146479302</v>
+        <v>99.955522897595401</v>
       </c>
       <c r="O169" s="11">
         <v>58.9928057553957</v>
@@ -14150,13 +14150,13 @@
         <v>79.082672466006699</v>
       </c>
       <c r="Q169" s="11">
-        <v>48.428936219158501</v>
+        <v>48.475214130018699</v>
       </c>
       <c r="R169" s="16" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="170" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B170" s="17" t="s">
         <v>582</v>
       </c>
@@ -14194,7 +14194,7 @@
         <v>97.056735604318405</v>
       </c>
       <c r="N170" s="11">
-        <v>96.853966623684997</v>
+        <v>96.9118516661147</v>
       </c>
       <c r="O170" s="11">
         <v>87.7697841726619</v>
@@ -14203,13 +14203,13 @@
         <v>96.602500647952297</v>
       </c>
       <c r="Q170" s="11">
-        <v>98.159919688620406</v>
+        <v>98.160973705587395</v>
       </c>
       <c r="R170" s="16" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="171" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B171" s="17" t="s">
         <v>584</v>
       </c>
@@ -14247,7 +14247,7 @@
         <v>66.732464150518197</v>
       </c>
       <c r="N171" s="11">
-        <v>75.697106268687094</v>
+        <v>75.753918396518003</v>
       </c>
       <c r="O171" s="11">
         <v>76.258992805755398</v>
@@ -14256,13 +14256,13 @@
         <v>92.315283259053402</v>
       </c>
       <c r="Q171" s="11">
-        <v>95.299675873447796</v>
+        <v>95.259487168141803</v>
       </c>
       <c r="R171" s="16" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="172" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:18" ht="122.4" x14ac:dyDescent="0.3">
       <c r="B172" s="17" t="s">
         <v>587</v>
       </c>
@@ -14300,7 +14300,7 @@
         <v>94.228416238997994</v>
       </c>
       <c r="N172" s="11">
-        <v>94.399066683093096</v>
+        <v>94.399966373589393</v>
       </c>
       <c r="O172" s="11">
         <v>78.417266187050402</v>
@@ -14309,13 +14309,13 @@
         <v>98.267413576569098</v>
       </c>
       <c r="Q172" s="11">
-        <v>99.3044555955438</v>
+        <v>99.304893545438205</v>
       </c>
       <c r="R172" s="16" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="173" spans="2:18" ht="126" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:18" ht="112.2" x14ac:dyDescent="0.3">
       <c r="B173" s="17" t="s">
         <v>592</v>
       </c>
@@ -14353,7 +14353,7 @@
         <v>97.3194620237186</v>
       </c>
       <c r="N173" s="11">
-        <v>96.910669312160707</v>
+        <v>96.911286198569201</v>
       </c>
       <c r="O173" s="11">
         <v>66.906474820143899</v>
@@ -14362,13 +14362,13 @@
         <v>87.891251116724106</v>
       </c>
       <c r="Q173" s="11">
-        <v>69.596618050883905</v>
+        <v>69.608387120423103</v>
       </c>
       <c r="R173" s="16" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="174" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:18" ht="112.2" x14ac:dyDescent="0.3">
       <c r="B174" s="17" t="s">
         <v>595</v>
       </c>
@@ -14406,7 +14406,7 @@
         <v>94.228416238997994</v>
       </c>
       <c r="N174" s="11">
-        <v>94.399066683093096</v>
+        <v>94.399966373589393</v>
       </c>
       <c r="O174" s="11">
         <v>78.417266187050402</v>
@@ -14415,13 +14415,13 @@
         <v>98.267413576569098</v>
       </c>
       <c r="Q174" s="11">
-        <v>99.3044555955438</v>
+        <v>99.304893545438205</v>
       </c>
       <c r="R174" s="16" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="175" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:18" ht="112.2" x14ac:dyDescent="0.3">
       <c r="B175" s="17" t="s">
         <v>598</v>
       </c>
@@ -14459,7 +14459,7 @@
         <v>94.228416238997994</v>
       </c>
       <c r="N175" s="11">
-        <v>94.399066683093096</v>
+        <v>94.399966373589393</v>
       </c>
       <c r="O175" s="11">
         <v>79.136690647481998</v>
@@ -14468,13 +14468,13 @@
         <v>98.267603365992301</v>
       </c>
       <c r="Q175" s="11">
-        <v>99.304542963257106</v>
+        <v>99.304980989923394</v>
       </c>
       <c r="R175" s="16" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="176" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:18" ht="132.6" x14ac:dyDescent="0.3">
       <c r="B176" s="17" t="s">
         <v>601</v>
       </c>
@@ -14512,7 +14512,7 @@
         <v>97.3194620237186</v>
       </c>
       <c r="N176" s="11">
-        <v>96.910669312160707</v>
+        <v>96.911286198569201</v>
       </c>
       <c r="O176" s="11">
         <v>66.906474820143899</v>
@@ -14521,13 +14521,13 @@
         <v>87.891251116724106</v>
       </c>
       <c r="Q176" s="11">
-        <v>69.596618050883905</v>
+        <v>69.608387120423103</v>
       </c>
       <c r="R176" s="16" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="177" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:18" ht="112.2" x14ac:dyDescent="0.3">
       <c r="B177" s="17" t="s">
         <v>604</v>
       </c>
@@ -14565,7 +14565,7 @@
         <v>94.228416238997994</v>
       </c>
       <c r="N177" s="11">
-        <v>94.399066683093096</v>
+        <v>94.399966373589393</v>
       </c>
       <c r="O177" s="11">
         <v>79.136690647481998</v>
@@ -14574,13 +14574,13 @@
         <v>98.267603365992301</v>
       </c>
       <c r="Q177" s="11">
-        <v>99.304542963257106</v>
+        <v>99.304980989923394</v>
       </c>
       <c r="R177" s="16" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="178" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:18" ht="122.4" x14ac:dyDescent="0.3">
       <c r="B178" s="17" t="s">
         <v>606</v>
       </c>
@@ -14618,7 +14618,7 @@
         <v>95.025993273354004</v>
       </c>
       <c r="N178" s="11">
-        <v>94.485475543874401</v>
+        <v>94.486359487272907</v>
       </c>
       <c r="O178" s="11">
         <v>77.697841726618705</v>
@@ -14627,13 +14627,13 @@
         <v>97.814189128554503</v>
       </c>
       <c r="Q178" s="11">
-        <v>99.125344486806597</v>
+        <v>99.125881291716397</v>
       </c>
       <c r="R178" s="16" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="179" spans="2:18" ht="126" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:18" ht="112.2" x14ac:dyDescent="0.3">
       <c r="B179" s="17" t="s">
         <v>592</v>
       </c>
@@ -14671,7 +14671,7 @@
         <v>97.3194620237186</v>
       </c>
       <c r="N179" s="11">
-        <v>96.910669312160707</v>
+        <v>96.911286198569201</v>
       </c>
       <c r="O179" s="11">
         <v>66.906474820143899</v>
@@ -14680,13 +14680,13 @@
         <v>87.891251116724106</v>
       </c>
       <c r="Q179" s="11">
-        <v>69.596618050883905</v>
+        <v>69.608387120423103</v>
       </c>
       <c r="R179" s="16" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="180" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:18" ht="112.2" x14ac:dyDescent="0.3">
       <c r="B180" s="17" t="s">
         <v>609</v>
       </c>
@@ -14724,7 +14724,7 @@
         <v>95.025993273354004</v>
       </c>
       <c r="N180" s="11">
-        <v>94.485475543874401</v>
+        <v>94.486359487272907</v>
       </c>
       <c r="O180" s="11">
         <v>77.697841726618705</v>
@@ -14733,13 +14733,13 @@
         <v>97.814189128554503</v>
       </c>
       <c r="Q180" s="11">
-        <v>99.125344486806597</v>
+        <v>99.125881291716397</v>
       </c>
       <c r="R180" s="16" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="181" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:18" ht="112.2" x14ac:dyDescent="0.3">
       <c r="B181" s="17" t="s">
         <v>612</v>
       </c>
@@ -14777,7 +14777,7 @@
         <v>95.025993273354004</v>
       </c>
       <c r="N181" s="11">
-        <v>94.485475543874401</v>
+        <v>94.486359487272907</v>
       </c>
       <c r="O181" s="11">
         <v>78.417266187050402</v>
@@ -14786,13 +14786,13 @@
         <v>97.814378917977606</v>
       </c>
       <c r="Q181" s="11">
-        <v>99.125431854519803</v>
+        <v>99.125968736201699</v>
       </c>
       <c r="R181" s="16" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="182" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:18" ht="122.4" x14ac:dyDescent="0.3">
       <c r="B182" s="17" t="s">
         <v>615</v>
       </c>
@@ -14830,7 +14830,7 @@
         <v>97.3194620237186</v>
       </c>
       <c r="N182" s="11">
-        <v>96.910669312160707</v>
+        <v>96.911286198569201</v>
       </c>
       <c r="O182" s="11">
         <v>65.467625899280605</v>
@@ -14839,13 +14839,13 @@
         <v>87.123615568893996</v>
       </c>
       <c r="Q182" s="11">
-        <v>69.417506942146602</v>
+        <v>69.429374866701295</v>
       </c>
       <c r="R182" s="16" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="183" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:18" ht="112.2" x14ac:dyDescent="0.3">
       <c r="B183" s="17" t="s">
         <v>618</v>
       </c>
@@ -14883,7 +14883,7 @@
         <v>95.025993273354004</v>
       </c>
       <c r="N183" s="11">
-        <v>94.485475543874401</v>
+        <v>94.486359487272907</v>
       </c>
       <c r="O183" s="11">
         <v>78.417266187050402</v>
@@ -14892,13 +14892,13 @@
         <v>97.814378917977606</v>
       </c>
       <c r="Q183" s="11">
-        <v>99.125431854519803</v>
+        <v>99.125968736201699</v>
       </c>
       <c r="R183" s="16" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="184" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:18" ht="102" x14ac:dyDescent="0.3">
       <c r="B184" s="17" t="s">
         <v>621</v>
       </c>
@@ -14924,7 +14924,7 @@
         <v>46</v>
       </c>
       <c r="J184" s="9" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K184" s="9">
         <v>2020</v>
@@ -14936,7 +14936,7 @@
         <v>77.628004409816299</v>
       </c>
       <c r="N184" s="11">
-        <v>86.006887203494699</v>
+        <v>86.073284633021501</v>
       </c>
       <c r="O184" s="11">
         <v>78.417266187050402</v>
@@ -14945,13 +14945,13 @@
         <v>92.538377519853</v>
       </c>
       <c r="Q184" s="11">
-        <v>95.799535469630101</v>
+        <v>95.792491692227699</v>
       </c>
       <c r="R184" s="16" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="185" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:18" ht="102" x14ac:dyDescent="0.3">
       <c r="B185" s="17" t="s">
         <v>624</v>
       </c>
@@ -14977,7 +14977,7 @@
         <v>46</v>
       </c>
       <c r="J185" s="9" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K185" s="9">
         <v>2020</v>
@@ -14989,7 +14989,7 @@
         <v>86.562989557795703</v>
       </c>
       <c r="N185" s="11">
-        <v>93.328728734915401</v>
+        <v>93.424005373476803</v>
       </c>
       <c r="O185" s="11">
         <v>83.453237410072006</v>
@@ -14998,13 +14998,13 @@
         <v>71.582903619559801</v>
       </c>
       <c r="Q185" s="11">
-        <v>76.827261941801495</v>
+        <v>76.840203500053605</v>
       </c>
       <c r="R185" s="16" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="186" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:18" ht="102" x14ac:dyDescent="0.3">
       <c r="B186" s="17" t="s">
         <v>626</v>
       </c>
@@ -15030,7 +15030,7 @@
         <v>46</v>
       </c>
       <c r="J186" s="9" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K186" s="9">
         <v>2020</v>
@@ -15042,7 +15042,7 @@
         <v>74.068129864480596</v>
       </c>
       <c r="N186" s="11">
-        <v>83.115228323258293</v>
+        <v>83.180874038011396</v>
       </c>
       <c r="O186" s="11">
         <v>73.381294964028797</v>
@@ -15051,13 +15051,13 @@
         <v>91.620166604281096</v>
       </c>
       <c r="Q186" s="11">
-        <v>95.515596839430899</v>
+        <v>95.508702997457306</v>
       </c>
       <c r="R186" s="16" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="187" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:18" ht="102" x14ac:dyDescent="0.3">
       <c r="B187" s="17" t="s">
         <v>628</v>
       </c>
@@ -15083,7 +15083,7 @@
         <v>46</v>
       </c>
       <c r="J187" s="9" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K187" s="9">
         <v>2020</v>
@@ -15095,7 +15095,7 @@
         <v>71.216868469707407</v>
       </c>
       <c r="N187" s="11">
-        <v>86.009850572724403</v>
+        <v>86.103376924362394</v>
       </c>
       <c r="O187" s="11">
         <v>74.820143884892104</v>
@@ -15104,13 +15104,13 @@
         <v>70.280600655870103</v>
       </c>
       <c r="Q187" s="11">
-        <v>76.332256638367994</v>
+        <v>76.345563049670204</v>
       </c>
       <c r="R187" s="16" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="188" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:18" ht="102" x14ac:dyDescent="0.3">
       <c r="B188" s="17" t="s">
         <v>630</v>
       </c>
@@ -15136,7 +15136,7 @@
         <v>25</v>
       </c>
       <c r="J188" s="9" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K188" s="9">
         <v>2020</v>
@@ -15148,7 +15148,7 @@
         <v>77.628004409816299</v>
       </c>
       <c r="N188" s="11">
-        <v>86.006887203494699</v>
+        <v>86.073284633021501</v>
       </c>
       <c r="O188" s="11">
         <v>78.417266187050402</v>
@@ -15157,13 +15157,13 @@
         <v>92.538377519853</v>
       </c>
       <c r="Q188" s="11">
-        <v>95.799535469630101</v>
+        <v>95.792491692227699</v>
       </c>
       <c r="R188" s="16" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="189" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:18" ht="102" x14ac:dyDescent="0.3">
       <c r="B189" s="17" t="s">
         <v>632</v>
       </c>
@@ -15189,7 +15189,7 @@
         <v>25</v>
       </c>
       <c r="J189" s="9" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K189" s="9">
         <v>2020</v>
@@ -15201,7 +15201,7 @@
         <v>86.562989557795703</v>
       </c>
       <c r="N189" s="11">
-        <v>93.328728734915401</v>
+        <v>93.424005373476803</v>
       </c>
       <c r="O189" s="11">
         <v>83.453237410072006</v>
@@ -15210,13 +15210,13 @@
         <v>71.582903619559801</v>
       </c>
       <c r="Q189" s="11">
-        <v>76.827261941801495</v>
+        <v>76.840203500053605</v>
       </c>
       <c r="R189" s="16" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="190" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:18" ht="102" x14ac:dyDescent="0.3">
       <c r="B190" s="17" t="s">
         <v>634</v>
       </c>
@@ -15242,7 +15242,7 @@
         <v>25</v>
       </c>
       <c r="J190" s="9" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K190" s="9">
         <v>2020</v>
@@ -15254,7 +15254,7 @@
         <v>74.068129864480596</v>
       </c>
       <c r="N190" s="11">
-        <v>83.115228323258293</v>
+        <v>83.180874038011396</v>
       </c>
       <c r="O190" s="11">
         <v>73.381294964028797</v>
@@ -15263,13 +15263,13 @@
         <v>91.620166604281096</v>
       </c>
       <c r="Q190" s="11">
-        <v>95.515596839430899</v>
+        <v>95.508702997457306</v>
       </c>
       <c r="R190" s="16" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="191" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:18" ht="102" x14ac:dyDescent="0.3">
       <c r="B191" s="17" t="s">
         <v>636</v>
       </c>
@@ -15295,7 +15295,7 @@
         <v>25</v>
       </c>
       <c r="J191" s="9" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K191" s="9">
         <v>2020</v>
@@ -15307,7 +15307,7 @@
         <v>71.216868469707407</v>
       </c>
       <c r="N191" s="11">
-        <v>86.009850572724403</v>
+        <v>86.103376924362394</v>
       </c>
       <c r="O191" s="11">
         <v>74.820143884892104</v>
@@ -15316,13 +15316,13 @@
         <v>70.280600655870103</v>
       </c>
       <c r="Q191" s="11">
-        <v>76.332256638367994</v>
+        <v>76.345563049670204</v>
       </c>
       <c r="R191" s="16" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="192" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:18" ht="102" x14ac:dyDescent="0.3">
       <c r="B192" s="17" t="s">
         <v>638</v>
       </c>
@@ -15360,7 +15360,7 @@
         <v>60.156489368935802</v>
       </c>
       <c r="N192" s="11">
-        <v>76.452655330687804</v>
+        <v>76.516788666870397</v>
       </c>
       <c r="O192" s="11">
         <v>68.345323741007206</v>
@@ -15369,13 +15369,13 @@
         <v>68.839533329530695</v>
       </c>
       <c r="Q192" s="11">
-        <v>75.409158439106093</v>
+        <v>75.413680463965207</v>
       </c>
       <c r="R192" s="16" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="193" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:18" ht="102" x14ac:dyDescent="0.3">
       <c r="B193" s="17" t="s">
         <v>642</v>
       </c>
@@ -15413,7 +15413,7 @@
         <v>77.628004409816299</v>
       </c>
       <c r="N193" s="11">
-        <v>86.006887203494699</v>
+        <v>86.073284633021501</v>
       </c>
       <c r="O193" s="11">
         <v>76.258992805755398</v>
@@ -15422,13 +15422,13 @@
         <v>70.128200479276899</v>
       </c>
       <c r="Q193" s="11">
-        <v>75.889296394549305</v>
+        <v>75.893655219618196</v>
       </c>
       <c r="R193" s="16" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="194" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B194" s="17" t="s">
         <v>645</v>
       </c>
@@ -15481,7 +15481,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="195" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B195" s="17" t="s">
         <v>651</v>
       </c>
@@ -15534,7 +15534,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="196" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B196" s="17" t="s">
         <v>654</v>
       </c>
@@ -15587,7 +15587,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="197" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B197" s="17" t="s">
         <v>657</v>
       </c>
@@ -15640,7 +15640,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="198" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B198" s="17" t="s">
         <v>660</v>
       </c>
@@ -15693,7 +15693,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="199" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B199" s="17" t="s">
         <v>663</v>
       </c>
@@ -15740,13 +15740,13 @@
         <v>99.999062877328598</v>
       </c>
       <c r="Q199" s="11">
-        <v>99.999865274479205</v>
+        <v>99.999865209436294</v>
       </c>
       <c r="R199" s="16" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="200" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B200" s="17" t="s">
         <v>666</v>
       </c>
@@ -15799,7 +15799,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="201" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B201" s="17" t="s">
         <v>669</v>
       </c>
@@ -15837,7 +15837,7 @@
         <v>99.209855783686095</v>
       </c>
       <c r="N201" s="11">
-        <v>99.917464375381797</v>
+        <v>99.917440602937504</v>
       </c>
       <c r="O201" s="11">
         <v>92.086330935251794</v>
@@ -15846,13 +15846,13 @@
         <v>98.938545270436506</v>
       </c>
       <c r="Q201" s="11">
-        <v>99.527923787777297</v>
+        <v>99.528170445556299</v>
       </c>
       <c r="R201" s="16" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="202" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B202" s="17" t="s">
         <v>673</v>
       </c>
@@ -15899,13 +15899,13 @@
         <v>99.813607472330602</v>
       </c>
       <c r="Q202" s="11">
-        <v>99.435630885846805</v>
+        <v>99.435906304672201</v>
       </c>
       <c r="R202" s="16" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="203" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B203" s="17" t="s">
         <v>677</v>
       </c>
@@ -15952,13 +15952,13 @@
         <v>99.998885980514501</v>
       </c>
       <c r="Q203" s="11">
-        <v>99.998312891586195</v>
+        <v>99.998314921135503</v>
       </c>
       <c r="R203" s="16" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="204" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B204" s="17" t="s">
         <v>680</v>
       </c>
@@ -16011,7 +16011,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="205" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B205" s="17" t="s">
         <v>682</v>
       </c>
@@ -16058,13 +16058,13 @@
         <v>99.813648718972303</v>
       </c>
       <c r="Q205" s="11">
-        <v>99.4241564917304</v>
+        <v>99.424475060710705</v>
       </c>
       <c r="R205" s="16" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="206" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B206" s="17" t="s">
         <v>685</v>
       </c>
@@ -16111,13 +16111,13 @@
         <v>99.998283979477506</v>
       </c>
       <c r="Q206" s="11">
-        <v>99.998312891586195</v>
+        <v>99.998314921135503</v>
       </c>
       <c r="R206" s="16" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="207" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B207" s="17" t="s">
         <v>687</v>
       </c>
@@ -16155,7 +16155,7 @@
         <v>95.9107672426329</v>
       </c>
       <c r="N207" s="11">
-        <v>97.975752642675502</v>
+        <v>97.975565002236905</v>
       </c>
       <c r="O207" s="11">
         <v>87.050359712230204</v>
@@ -16164,13 +16164,13 @@
         <v>99.166674080870095</v>
       </c>
       <c r="Q207" s="11">
-        <v>99.830565457956496</v>
+        <v>99.830646816852607</v>
       </c>
       <c r="R207" s="16" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="208" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B208" s="17" t="s">
         <v>690</v>
       </c>
@@ -16217,13 +16217,13 @@
         <v>99.998885980514501</v>
       </c>
       <c r="Q208" s="11">
-        <v>99.998312891586195</v>
+        <v>99.998314921135503</v>
       </c>
       <c r="R208" s="16" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="209" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B209" s="17" t="s">
         <v>692</v>
       </c>
@@ -16261,7 +16261,7 @@
         <v>83.879577098209097</v>
       </c>
       <c r="N209" s="11">
-        <v>91.124174741348398</v>
+        <v>91.123669047004597</v>
       </c>
       <c r="O209" s="11">
         <v>79.856115107913695</v>
@@ -16270,13 +16270,13 @@
         <v>95.801201622802694</v>
       </c>
       <c r="Q209" s="11">
-        <v>98.491185650021094</v>
+        <v>98.492240777186396</v>
       </c>
       <c r="R209" s="16" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="210" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B210" s="17" t="s">
         <v>695</v>
       </c>
@@ -16314,7 +16314,7 @@
         <v>83.879577098209097</v>
       </c>
       <c r="N210" s="11">
-        <v>91.124174741348398</v>
+        <v>91.123669047004597</v>
       </c>
       <c r="O210" s="11">
         <v>79.856115107913695</v>
@@ -16323,13 +16323,13 @@
         <v>95.801201622802694</v>
       </c>
       <c r="Q210" s="11">
-        <v>98.491185650021094</v>
+        <v>98.492240777186396</v>
       </c>
       <c r="R210" s="16" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="211" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B211" s="17" t="s">
         <v>698</v>
       </c>
@@ -16367,7 +16367,7 @@
         <v>83.879577098209097</v>
       </c>
       <c r="N211" s="11">
-        <v>91.124174741348398</v>
+        <v>91.123669047004597</v>
       </c>
       <c r="O211" s="11">
         <v>79.856115107913695</v>
@@ -16376,13 +16376,13 @@
         <v>95.801201622802694</v>
       </c>
       <c r="Q211" s="11">
-        <v>98.491185650021094</v>
+        <v>98.492240777186396</v>
       </c>
       <c r="R211" s="16" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="212" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B212" s="17" t="s">
         <v>701</v>
       </c>
@@ -16420,7 +16420,7 @@
         <v>79.004533567360994</v>
       </c>
       <c r="N212" s="11">
-        <v>88.896370473137694</v>
+        <v>88.897485056191599</v>
       </c>
       <c r="O212" s="11">
         <v>76.978417266187094</v>
@@ -16429,13 +16429,13 @@
         <v>95.714422285715401</v>
       </c>
       <c r="Q212" s="11">
-        <v>98.355996007781599</v>
+        <v>98.357363562363801</v>
       </c>
       <c r="R212" s="16" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="213" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B213" s="17" t="s">
         <v>704</v>
       </c>
@@ -16473,7 +16473,7 @@
         <v>78.090062380029295</v>
       </c>
       <c r="N213" s="11">
-        <v>87.511299015056295</v>
+        <v>87.511229589217507</v>
       </c>
       <c r="O213" s="11">
         <v>64.748201438848895</v>
@@ -16482,13 +16482,13 @@
         <v>93.971702885235004</v>
       </c>
       <c r="Q213" s="11">
-        <v>94.815024496742893</v>
+        <v>94.803744337442396</v>
       </c>
       <c r="R213" s="16" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="214" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B214" s="17" t="s">
         <v>707</v>
       </c>
@@ -16526,7 +16526,7 @@
         <v>98.816763743437306</v>
       </c>
       <c r="N214" s="11">
-        <v>99.437733288141104</v>
+        <v>99.437848444953104</v>
       </c>
       <c r="O214" s="11">
         <v>88.489208633093497</v>
@@ -16535,13 +16535,13 @@
         <v>77.5712224924618</v>
       </c>
       <c r="Q214" s="11">
-        <v>80.818869976083803</v>
+        <v>80.829445447793304</v>
       </c>
       <c r="R214" s="16" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="215" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B215" s="17" t="s">
         <v>710</v>
       </c>
@@ -16594,7 +16594,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="216" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B216" s="17" t="s">
         <v>714</v>
       </c>
@@ -16641,13 +16641,13 @@
         <v>99.992271169886294</v>
       </c>
       <c r="Q216" s="11">
-        <v>99.990677571264598</v>
+        <v>99.990625637221399</v>
       </c>
       <c r="R216" s="16" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="217" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B217" s="17" t="s">
         <v>717</v>
       </c>
@@ -16685,7 +16685,7 @@
         <v>93.518980182821196</v>
       </c>
       <c r="N217" s="11">
-        <v>95.363419120686203</v>
+        <v>95.367577118649194</v>
       </c>
       <c r="O217" s="11">
         <v>87.050359712230204</v>
@@ -16694,13 +16694,13 @@
         <v>98.916359412539506</v>
       </c>
       <c r="Q217" s="11">
-        <v>98.733548817643495</v>
+        <v>98.733969199794601</v>
       </c>
       <c r="R217" s="16" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="218" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B218" s="17" t="s">
         <v>720</v>
       </c>
@@ -16738,7 +16738,7 @@
         <v>93.518980182821196</v>
       </c>
       <c r="N218" s="11">
-        <v>95.363419120686203</v>
+        <v>95.367577118649194</v>
       </c>
       <c r="O218" s="11">
         <v>86.330935251798607</v>
@@ -16747,13 +16747,13 @@
         <v>98.807906817720394</v>
       </c>
       <c r="Q218" s="11">
-        <v>98.600989196205703</v>
+        <v>98.601485319803302</v>
       </c>
       <c r="R218" s="16" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="219" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B219" s="17" t="s">
         <v>723</v>
       </c>
@@ -16791,7 +16791,7 @@
         <v>93.518980182821196</v>
       </c>
       <c r="N219" s="11">
-        <v>95.363419120686203</v>
+        <v>95.367577118649194</v>
       </c>
       <c r="O219" s="11">
         <v>86.330935251798607</v>
@@ -16800,13 +16800,13 @@
         <v>98.807906817720394</v>
       </c>
       <c r="Q219" s="11">
-        <v>98.600989196205703</v>
+        <v>98.601485319803302</v>
       </c>
       <c r="R219" s="16" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="220" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B220" s="17" t="s">
         <v>726</v>
       </c>
@@ -16844,7 +16844,7 @@
         <v>95.916360374566693</v>
       </c>
       <c r="N220" s="11">
-        <v>97.987206194007001</v>
+        <v>97.991959445392197</v>
       </c>
       <c r="O220" s="11">
         <v>87.7697841726619</v>
@@ -16853,13 +16853,13 @@
         <v>99.571644748137302</v>
       </c>
       <c r="Q220" s="11">
-        <v>99.451114794937396</v>
+        <v>99.451420859024296</v>
       </c>
       <c r="R220" s="16" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="221" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B221" s="17" t="s">
         <v>729</v>
       </c>
@@ -16897,7 +16897,7 @@
         <v>95.916360374566693</v>
       </c>
       <c r="N221" s="11">
-        <v>97.987206194007001</v>
+        <v>97.991959445392197</v>
       </c>
       <c r="O221" s="11">
         <v>87.050359712230204</v>
@@ -16906,13 +16906,13 @@
         <v>99.411822164040998</v>
       </c>
       <c r="Q221" s="11">
-        <v>99.333561036980498</v>
+        <v>99.333969336189796</v>
       </c>
       <c r="R221" s="16" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="222" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B222" s="17" t="s">
         <v>732</v>
       </c>
@@ -16950,7 +16950,7 @@
         <v>95.916360374566693</v>
       </c>
       <c r="N222" s="11">
-        <v>97.987206194007001</v>
+        <v>97.991959445392197</v>
       </c>
       <c r="O222" s="11">
         <v>87.050359712230204</v>
@@ -16959,13 +16959,13 @@
         <v>99.435558083067406</v>
       </c>
       <c r="Q222" s="11">
-        <v>99.140580776667605</v>
+        <v>99.141802120151297</v>
       </c>
       <c r="R222" s="16" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="223" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B223" s="17" t="s">
         <v>736</v>
       </c>
@@ -17003,7 +17003,7 @@
         <v>99.498514431312799</v>
       </c>
       <c r="N223" s="11">
-        <v>97.755145461721597</v>
+        <v>97.755597081134496</v>
       </c>
       <c r="O223" s="11">
         <v>94.244604316546798</v>
@@ -17012,13 +17012,13 @@
         <v>98.0055240245281</v>
       </c>
       <c r="Q223" s="11">
-        <v>98.531918640356906</v>
+        <v>98.532376663354697</v>
       </c>
       <c r="R223" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="224" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B224" s="17" t="s">
         <v>739</v>
       </c>
@@ -17056,7 +17056,7 @@
         <v>99.498514431312799</v>
       </c>
       <c r="N224" s="11">
-        <v>97.755145461721597</v>
+        <v>97.755597081134496</v>
       </c>
       <c r="O224" s="11">
         <v>79.856115107913695</v>
@@ -17065,13 +17065,13 @@
         <v>87.980391620096597</v>
       </c>
       <c r="Q224" s="11">
-        <v>79.886893212725795</v>
+        <v>79.844976525843094</v>
       </c>
       <c r="R224" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="225" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B225" s="17" t="s">
         <v>742</v>
       </c>
@@ -17109,7 +17109,7 @@
         <v>99.498514431312799</v>
       </c>
       <c r="N225" s="11">
-        <v>97.755145461721597</v>
+        <v>97.755597081134496</v>
       </c>
       <c r="O225" s="11">
         <v>94.964028776978395</v>
@@ -17118,13 +17118,13 @@
         <v>98.050482216620594</v>
       </c>
       <c r="Q225" s="11">
-        <v>98.564732948564497</v>
+        <v>98.565173072055302</v>
       </c>
       <c r="R225" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="226" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B226" s="17" t="s">
         <v>745</v>
       </c>
@@ -17162,7 +17162,7 @@
         <v>99.498514431312799</v>
       </c>
       <c r="N226" s="11">
-        <v>97.755145461721597</v>
+        <v>97.755597081134496</v>
       </c>
       <c r="O226" s="11">
         <v>94.244604316546798</v>
@@ -17171,13 +17171,13 @@
         <v>98.0055240245281</v>
       </c>
       <c r="Q226" s="11">
-        <v>98.531918640356906</v>
+        <v>98.532376663354697</v>
       </c>
       <c r="R226" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="227" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B227" s="17" t="s">
         <v>748</v>
       </c>
@@ -17203,7 +17203,7 @@
         <v>46</v>
       </c>
       <c r="J227" s="9" t="s">
-        <v>130</v>
+        <v>649</v>
       </c>
       <c r="K227" s="9">
         <v>2019</v>
@@ -17215,7 +17215,7 @@
         <v>98.935322458775602</v>
       </c>
       <c r="N227" s="11">
-        <v>99.820200243854998</v>
+        <v>99.8202325109214</v>
       </c>
       <c r="O227" s="11">
         <v>94.964028776978395</v>
@@ -17224,13 +17224,13 @@
         <v>98.157730433113201</v>
       </c>
       <c r="Q227" s="11">
-        <v>99.769911029468105</v>
+        <v>99.769686193805398</v>
       </c>
       <c r="R227" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="228" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B228" s="17" t="s">
         <v>751</v>
       </c>
@@ -17256,34 +17256,34 @@
         <v>46</v>
       </c>
       <c r="J228" s="9" t="s">
-        <v>130</v>
+        <v>649</v>
       </c>
       <c r="K228" s="9">
         <v>2019</v>
       </c>
       <c r="L228" s="11">
-        <v>79.245283018867894</v>
+        <v>71.698113207547195</v>
       </c>
       <c r="M228" s="11">
-        <v>93.051412015618496</v>
+        <v>89.634686902313206</v>
       </c>
       <c r="N228" s="11">
-        <v>96.972839408985607</v>
+        <v>91.662715466461805</v>
       </c>
       <c r="O228" s="11">
-        <v>79.136690647481998</v>
+        <v>76.978417266187094</v>
       </c>
       <c r="P228" s="11">
-        <v>95.624389440976699</v>
+        <v>95.618431160665097</v>
       </c>
       <c r="Q228" s="11">
-        <v>97.880426425184794</v>
+        <v>97.880192058655794</v>
       </c>
       <c r="R228" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="229" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B229" s="17" t="s">
         <v>754</v>
       </c>
@@ -17309,7 +17309,7 @@
         <v>46</v>
       </c>
       <c r="J229" s="9" t="s">
-        <v>130</v>
+        <v>649</v>
       </c>
       <c r="K229" s="9">
         <v>2019</v>
@@ -17321,22 +17321,22 @@
         <v>98.935322458775602</v>
       </c>
       <c r="N229" s="11">
-        <v>99.820200243854998</v>
+        <v>99.8202325109214</v>
       </c>
       <c r="O229" s="11">
-        <v>91.366906474820198</v>
+        <v>89.208633093525194</v>
       </c>
       <c r="P229" s="11">
-        <v>98.094653264433305</v>
+        <v>97.948819866410005</v>
       </c>
       <c r="Q229" s="11">
-        <v>99.717262613102903</v>
+        <v>99.168792112545304</v>
       </c>
       <c r="R229" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="230" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B230" s="17" t="s">
         <v>757</v>
       </c>
@@ -17377,19 +17377,19 @@
         <v>100</v>
       </c>
       <c r="O230" s="11">
-        <v>93.525179856115102</v>
+        <v>92.805755395683505</v>
       </c>
       <c r="P230" s="11">
-        <v>99.101753051314304</v>
+        <v>98.608245939036394</v>
       </c>
       <c r="Q230" s="11">
-        <v>99.994328730860104</v>
+        <v>99.943017707137997</v>
       </c>
       <c r="R230" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="231" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B231" s="17" t="s">
         <v>760</v>
       </c>
@@ -17430,19 +17430,19 @@
         <v>100</v>
       </c>
       <c r="O231" s="11">
-        <v>96.402877697841802</v>
+        <v>95.683453237410106</v>
       </c>
       <c r="P231" s="11">
-        <v>99.104461993405906</v>
+        <v>98.610954881127896</v>
       </c>
       <c r="Q231" s="11">
-        <v>100</v>
+        <v>99.948698447527207</v>
       </c>
       <c r="R231" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="232" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B232" s="17" t="s">
         <v>763</v>
       </c>
@@ -17483,19 +17483,19 @@
         <v>100</v>
       </c>
       <c r="O232" s="11">
-        <v>88.489208633093497</v>
+        <v>87.7697841726619</v>
       </c>
       <c r="P232" s="11">
-        <v>98.044740273098597</v>
+        <v>97.551233160820601</v>
       </c>
       <c r="Q232" s="11">
-        <v>97.375146494706897</v>
+        <v>97.325051137889503</v>
       </c>
       <c r="R232" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="233" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B233" s="17" t="s">
         <v>766</v>
       </c>
@@ -17536,19 +17536,19 @@
         <v>100</v>
       </c>
       <c r="O233" s="11">
-        <v>95.683453237410106</v>
+        <v>94.964028776978395</v>
       </c>
       <c r="P233" s="11">
-        <v>99.103927322873105</v>
+        <v>98.610420210595095</v>
       </c>
       <c r="Q233" s="11">
-        <v>99.998312891586195</v>
+        <v>99.947013368662596</v>
       </c>
       <c r="R233" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="234" spans="2:18" ht="126" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:18" ht="112.2" x14ac:dyDescent="0.3">
       <c r="B234" s="17" t="s">
         <v>769</v>
       </c>
@@ -17574,7 +17574,7 @@
         <v>46</v>
       </c>
       <c r="J234" s="9" t="s">
-        <v>130</v>
+        <v>649</v>
       </c>
       <c r="K234" s="9">
         <v>2019</v>
@@ -17586,7 +17586,7 @@
         <v>98.927354678198597</v>
       </c>
       <c r="N234" s="11">
-        <v>99.776726717275395</v>
+        <v>99.771669109138699</v>
       </c>
       <c r="O234" s="11">
         <v>86.330935251798607</v>
@@ -17595,13 +17595,13 @@
         <v>98.145749670726701</v>
       </c>
       <c r="Q234" s="11">
-        <v>99.758407881889994</v>
+        <v>99.758177396641997</v>
       </c>
       <c r="R234" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="235" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B235" s="17" t="s">
         <v>772</v>
       </c>
@@ -17627,34 +17627,34 @@
         <v>46</v>
       </c>
       <c r="J235" s="9" t="s">
-        <v>130</v>
+        <v>649</v>
       </c>
       <c r="K235" s="9">
         <v>2019</v>
       </c>
       <c r="L235" s="11">
-        <v>77.358490566037801</v>
+        <v>69.811320754717002</v>
       </c>
       <c r="M235" s="11">
-        <v>93.043444235041505</v>
+        <v>89.626719121736201</v>
       </c>
       <c r="N235" s="11">
-        <v>96.929365882406003</v>
+        <v>91.614152064679104</v>
       </c>
       <c r="O235" s="11">
-        <v>74.100719424460394</v>
+        <v>73.381294964028797</v>
       </c>
       <c r="P235" s="11">
-        <v>94.505325079705102</v>
+        <v>94.502010100500797</v>
       </c>
       <c r="Q235" s="11">
-        <v>95.211495956233506</v>
+        <v>95.212863471373197</v>
       </c>
       <c r="R235" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="236" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:18" ht="132.6" x14ac:dyDescent="0.3">
       <c r="B236" s="17" t="s">
         <v>776</v>
       </c>
@@ -17701,13 +17701,13 @@
         <v>99.997088138298295</v>
       </c>
       <c r="Q236" s="11">
-        <v>99.995086756932196</v>
+        <v>99.995092179295099</v>
       </c>
       <c r="R236" s="16" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="237" spans="2:18" ht="147" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:18" ht="142.80000000000001" x14ac:dyDescent="0.3">
       <c r="B237" s="17" t="s">
         <v>781</v>
       </c>
@@ -17754,13 +17754,13 @@
         <v>99.997088138298295</v>
       </c>
       <c r="Q237" s="11">
-        <v>99.995086756932196</v>
+        <v>99.995092179295099</v>
       </c>
       <c r="R237" s="16" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="238" spans="2:18" ht="157.5" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:18" ht="153" x14ac:dyDescent="0.3">
       <c r="B238" s="17" t="s">
         <v>784</v>
       </c>
@@ -17807,13 +17807,13 @@
         <v>99.997088138298295</v>
       </c>
       <c r="Q238" s="11">
-        <v>99.995086756932196</v>
+        <v>99.995092179295099</v>
       </c>
       <c r="R238" s="16" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="239" spans="2:18" ht="168" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:18" ht="163.19999999999999" x14ac:dyDescent="0.3">
       <c r="B239" s="17" t="s">
         <v>787</v>
       </c>
@@ -17860,13 +17860,13 @@
         <v>99.997088138298295</v>
       </c>
       <c r="Q239" s="11">
-        <v>99.995086756932196</v>
+        <v>99.995092179295099</v>
       </c>
       <c r="R239" s="16" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="240" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:18" ht="132.6" x14ac:dyDescent="0.3">
       <c r="B240" s="17" t="s">
         <v>790</v>
       </c>
@@ -17913,13 +17913,13 @@
         <v>99.997088138298295</v>
       </c>
       <c r="Q240" s="11">
-        <v>99.995086756932196</v>
+        <v>99.995092179295099</v>
       </c>
       <c r="R240" s="16" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="241" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:18" ht="112.2" x14ac:dyDescent="0.3">
       <c r="B241" s="17" t="s">
         <v>793</v>
       </c>
@@ -17966,13 +17966,13 @@
         <v>99.997088138298295</v>
       </c>
       <c r="Q241" s="11">
-        <v>99.995086756932196</v>
+        <v>99.995092179295099</v>
       </c>
       <c r="R241" s="16" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="242" spans="2:18" ht="126" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:18" ht="122.4" x14ac:dyDescent="0.3">
       <c r="B242" s="17" t="s">
         <v>796</v>
       </c>
@@ -18019,13 +18019,13 @@
         <v>99.997088138298295</v>
       </c>
       <c r="Q242" s="11">
-        <v>99.995086756932196</v>
+        <v>99.995092179295099</v>
       </c>
       <c r="R242" s="16" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="243" spans="2:18" ht="126" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:18" ht="122.4" x14ac:dyDescent="0.3">
       <c r="B243" s="17" t="s">
         <v>799</v>
       </c>
@@ -18072,13 +18072,13 @@
         <v>99.997088138298295</v>
       </c>
       <c r="Q243" s="11">
-        <v>99.995086756932196</v>
+        <v>99.995092179295099</v>
       </c>
       <c r="R243" s="16" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="244" spans="2:18" ht="126" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:18" ht="122.4" x14ac:dyDescent="0.3">
       <c r="B244" s="17" t="s">
         <v>802</v>
       </c>
@@ -18116,7 +18116,7 @@
         <v>89.793453429043296</v>
       </c>
       <c r="N244" s="11">
-        <v>95.888019054328794</v>
+        <v>95.886819532376705</v>
       </c>
       <c r="O244" s="11">
         <v>79.136690647481998</v>
@@ -18125,13 +18125,13 @@
         <v>99.133443088414694</v>
       </c>
       <c r="Q244" s="11">
-        <v>99.849351888639305</v>
+        <v>99.849538428569105</v>
       </c>
       <c r="R244" s="16" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="245" spans="2:18" ht="147" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:18" ht="132.6" x14ac:dyDescent="0.3">
       <c r="B245" s="17" t="s">
         <v>805</v>
       </c>
@@ -18178,13 +18178,13 @@
         <v>99.997088138298295</v>
       </c>
       <c r="Q245" s="11">
-        <v>99.995086756932196</v>
+        <v>99.995092179295099</v>
       </c>
       <c r="R245" s="16" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="246" spans="2:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B246" s="17" t="s">
         <v>809</v>
       </c>
@@ -18237,7 +18237,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="247" spans="2:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:18" ht="51" x14ac:dyDescent="0.3">
       <c r="B247" s="17" t="s">
         <v>813</v>
       </c>
@@ -18284,13 +18284,13 @@
         <v>99.996959595885698</v>
       </c>
       <c r="Q247" s="11">
-        <v>99.997992790369906</v>
+        <v>99.997993385714693</v>
       </c>
       <c r="R247" s="16" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="248" spans="2:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:18" ht="51" x14ac:dyDescent="0.3">
       <c r="B248" s="17" t="s">
         <v>816</v>
       </c>
@@ -18337,13 +18337,13 @@
         <v>99.996959595885698</v>
       </c>
       <c r="Q248" s="11">
-        <v>99.997992790369906</v>
+        <v>99.997993385714693</v>
       </c>
       <c r="R248" s="16" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="249" spans="2:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B249" s="17" t="s">
         <v>819</v>
       </c>
@@ -18396,7 +18396,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="250" spans="2:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:18" ht="51" x14ac:dyDescent="0.3">
       <c r="B250" s="17" t="s">
         <v>822</v>
       </c>
@@ -18443,13 +18443,13 @@
         <v>99.996959595885698</v>
       </c>
       <c r="Q250" s="11">
-        <v>99.997992790369906</v>
+        <v>99.997993385714693</v>
       </c>
       <c r="R250" s="16" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="251" spans="2:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:18" ht="51" x14ac:dyDescent="0.3">
       <c r="B251" s="17" t="s">
         <v>825</v>
       </c>
@@ -18496,13 +18496,13 @@
         <v>99.996959595885698</v>
       </c>
       <c r="Q251" s="11">
-        <v>99.997992790369906</v>
+        <v>99.997993385714693</v>
       </c>
       <c r="R251" s="16" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="252" spans="2:18" ht="126" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:18" ht="122.4" x14ac:dyDescent="0.3">
       <c r="B252" s="17" t="s">
         <v>828</v>
       </c>
@@ -18549,13 +18549,13 @@
         <v>99.997088138298295</v>
       </c>
       <c r="Q252" s="11">
-        <v>99.995086756932196</v>
+        <v>99.995092179295099</v>
       </c>
       <c r="R252" s="16" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="253" spans="2:18" ht="126" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:18" ht="122.4" x14ac:dyDescent="0.3">
       <c r="B253" s="17" t="s">
         <v>831</v>
       </c>
@@ -18593,7 +18593,7 @@
         <v>65.960142717195197</v>
       </c>
       <c r="N253" s="11">
-        <v>56.451008543614101</v>
+        <v>56.495188534587598</v>
       </c>
       <c r="O253" s="11">
         <v>33.093525179856101</v>
@@ -18602,13 +18602,13 @@
         <v>67.035484109395199</v>
       </c>
       <c r="Q253" s="11">
-        <v>40.826560102789799</v>
+        <v>40.853196989468799</v>
       </c>
       <c r="R253" s="16" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="254" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:18" ht="112.2" x14ac:dyDescent="0.3">
       <c r="B254" s="17" t="s">
         <v>836</v>
       </c>
@@ -18646,7 +18646,7 @@
         <v>12.602824935166501</v>
       </c>
       <c r="N254" s="11">
-        <v>22.4410035858374</v>
+        <v>22.4594572031423</v>
       </c>
       <c r="O254" s="11">
         <v>12.2302158273381</v>
@@ -18655,13 +18655,13 @@
         <v>59.054630419091197</v>
       </c>
       <c r="Q254" s="11">
-        <v>39.091199365685704</v>
+        <v>39.078628671292797</v>
       </c>
       <c r="R254" s="16" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="255" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:18" ht="102" x14ac:dyDescent="0.3">
       <c r="B255" s="17" t="s">
         <v>839</v>
       </c>
@@ -18708,13 +18708,13 @@
         <v>7.1845272591618201</v>
       </c>
       <c r="Q255" s="11">
-        <v>6.2817564737094198</v>
+        <v>6.3120014027846603</v>
       </c>
       <c r="R255" s="16" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="256" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:18" ht="102" x14ac:dyDescent="0.3">
       <c r="B256" s="17" t="s">
         <v>842</v>
       </c>
@@ -18752,7 +18752,7 @@
         <v>26.459734028949701</v>
       </c>
       <c r="N256" s="11">
-        <v>24.6435741058229</v>
+        <v>24.635228169553901</v>
       </c>
       <c r="O256" s="11">
         <v>12.2302158273381</v>
@@ -18761,13 +18761,13 @@
         <v>38.6210569419896</v>
       </c>
       <c r="Q256" s="11">
-        <v>18.5172236776408</v>
+        <v>18.506686634925899</v>
       </c>
       <c r="R256" s="16" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="257" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:18" ht="112.2" x14ac:dyDescent="0.3">
       <c r="B257" s="17" t="s">
         <v>845</v>
       </c>
@@ -18805,7 +18805,7 @@
         <v>13.179283296827901</v>
       </c>
       <c r="N257" s="11">
-        <v>16.6193428297304</v>
+        <v>16.656648129560899</v>
       </c>
       <c r="O257" s="11">
         <v>5.0359712230215798</v>
@@ -18814,13 +18814,13 @@
         <v>30.1277376271387</v>
       </c>
       <c r="Q257" s="11">
-        <v>24.222071388879399</v>
+        <v>24.208199109411499</v>
       </c>
       <c r="R257" s="16" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="258" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:18" ht="102" x14ac:dyDescent="0.3">
       <c r="B258" s="17" t="s">
         <v>848</v>
       </c>
@@ -18858,7 +18858,7 @@
         <v>77.754094826378406</v>
       </c>
       <c r="N258" s="11">
-        <v>83.114814915065196</v>
+        <v>83.220312399359202</v>
       </c>
       <c r="O258" s="11">
         <v>42.4460431654676</v>
@@ -18867,13 +18867,13 @@
         <v>57.339462356776799</v>
       </c>
       <c r="Q258" s="11">
-        <v>35.292524692844601</v>
+        <v>35.327698526141397</v>
       </c>
       <c r="R258" s="16" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="259" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:18" ht="102" x14ac:dyDescent="0.3">
       <c r="B259" s="17" t="s">
         <v>851</v>
       </c>
@@ -18920,13 +18920,13 @@
         <v>2.3385327987145001</v>
       </c>
       <c r="Q259" s="11">
-        <v>1.76269300491005</v>
+        <v>1.7616845867913</v>
       </c>
       <c r="R259" s="16" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="260" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:18" ht="102" x14ac:dyDescent="0.3">
       <c r="B260" s="17" t="s">
         <v>854</v>
       </c>
@@ -18964,7 +18964,7 @@
         <v>23.304171857197499</v>
       </c>
       <c r="N260" s="11">
-        <v>28.386967758667002</v>
+        <v>28.3946078017823</v>
       </c>
       <c r="O260" s="11">
         <v>13.6690647482014</v>
@@ -18973,13 +18973,13 @@
         <v>14.770247602255299</v>
       </c>
       <c r="Q260" s="11">
-        <v>8.8168078255958804</v>
+        <v>8.8121040000664301</v>
       </c>
       <c r="R260" s="16" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="261" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B261" s="17" t="s">
         <v>857</v>
       </c>
@@ -19017,7 +19017,7 @@
         <v>99.821039443282501</v>
       </c>
       <c r="N261" s="11">
-        <v>99.585637293265506</v>
+        <v>99.587687190998295</v>
       </c>
       <c r="O261" s="11">
         <v>94.964028776978395</v>
@@ -19026,13 +19026,13 @@
         <v>99.251065300994597</v>
       </c>
       <c r="Q261" s="11">
-        <v>99.862422882368804</v>
+        <v>99.862082776570105</v>
       </c>
       <c r="R261" s="16" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="262" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B262" s="17" t="s">
         <v>861</v>
       </c>
@@ -19070,7 +19070,7 @@
         <v>44.552898750049799</v>
       </c>
       <c r="N262" s="11">
-        <v>61.205192322947099</v>
+        <v>61.186167405573499</v>
       </c>
       <c r="O262" s="11">
         <v>79.856115107913695</v>
@@ -19079,13 +19079,13 @@
         <v>96.910525596567695</v>
       </c>
       <c r="Q262" s="11">
-        <v>97.789970242315803</v>
+        <v>97.777506592000805</v>
       </c>
       <c r="R262" s="16" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="263" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B263" s="17" t="s">
         <v>864</v>
       </c>
@@ -19123,7 +19123,7 @@
         <v>12.603349327595399</v>
       </c>
       <c r="N263" s="11">
-        <v>7.7730484748470898</v>
+        <v>7.77399354050113</v>
       </c>
       <c r="O263" s="11">
         <v>18.705035971223001</v>
@@ -19132,13 +19132,13 @@
         <v>25.454746817975298</v>
       </c>
       <c r="Q263" s="11">
-        <v>44.479391452256799</v>
+        <v>44.4914406186791</v>
       </c>
       <c r="R263" s="16" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="264" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B264" s="17" t="s">
         <v>867</v>
       </c>
@@ -19176,7 +19176,7 @@
         <v>93.172718103272302</v>
       </c>
       <c r="N264" s="11">
-        <v>95.269769162443694</v>
+        <v>95.360343818000203</v>
       </c>
       <c r="O264" s="11">
         <v>79.136690647481998</v>
@@ -19185,13 +19185,13 @@
         <v>98.006734468152402</v>
       </c>
       <c r="Q264" s="11">
-        <v>96.908822943418997</v>
+        <v>96.911004650635505</v>
       </c>
       <c r="R264" s="16" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="265" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B265" s="17" t="s">
         <v>870</v>
       </c>
@@ -19229,7 +19229,7 @@
         <v>83.828277453407395</v>
       </c>
       <c r="N265" s="11">
-        <v>81.691940928737097</v>
+        <v>81.798506653536194</v>
       </c>
       <c r="O265" s="11">
         <v>71.223021582733793</v>
@@ -19238,13 +19238,13 @@
         <v>95.366730412452796</v>
       </c>
       <c r="Q265" s="11">
-        <v>97.119494668495506</v>
+        <v>97.109003965530405</v>
       </c>
       <c r="R265" s="16" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="266" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B266" s="17" t="s">
         <v>873</v>
       </c>
@@ -19291,13 +19291,13 @@
         <v>33.741391470958199</v>
       </c>
       <c r="Q266" s="11">
-        <v>39.681629930344997</v>
+        <v>39.667534260572097</v>
       </c>
       <c r="R266" s="16" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="267" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B267" s="17" t="s">
         <v>876</v>
       </c>
@@ -19335,7 +19335,7 @@
         <v>4.3806342950248203</v>
       </c>
       <c r="N267" s="11">
-        <v>11.6735086443509</v>
+        <v>11.722304638159599</v>
       </c>
       <c r="O267" s="11">
         <v>21.582733812949598</v>
@@ -19344,13 +19344,13 @@
         <v>72.143764576724394</v>
       </c>
       <c r="Q267" s="11">
-        <v>76.733596680763597</v>
+        <v>76.730642841471806</v>
       </c>
       <c r="R267" s="16" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="268" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B268" s="17" t="s">
         <v>879</v>
       </c>
@@ -19388,7 +19388,7 @@
         <v>7.1138796799727002</v>
       </c>
       <c r="N268" s="11">
-        <v>16.027050456976301</v>
+        <v>16.077250477170399</v>
       </c>
       <c r="O268" s="11">
         <v>24.460431654676299</v>
@@ -19397,13 +19397,13 @@
         <v>68.404657114236201</v>
       </c>
       <c r="Q268" s="11">
-        <v>76.141774933801102</v>
+        <v>76.120215692181105</v>
       </c>
       <c r="R268" s="16" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="269" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B269" s="17" t="s">
         <v>882</v>
       </c>
@@ -19450,13 +19450,13 @@
         <v>99.596329087022397</v>
       </c>
       <c r="Q269" s="11">
-        <v>99.998375647417305</v>
+        <v>99.998379303936005</v>
       </c>
       <c r="R269" s="16" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="270" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B270" s="17" t="s">
         <v>885</v>
       </c>
@@ -19494,7 +19494,7 @@
         <v>99.821039443282501</v>
       </c>
       <c r="N270" s="11">
-        <v>99.585637293265506</v>
+        <v>99.587687190998295</v>
       </c>
       <c r="O270" s="11">
         <v>94.964028776978395</v>
@@ -19503,13 +19503,13 @@
         <v>99.251065300994597</v>
       </c>
       <c r="Q270" s="11">
-        <v>99.862422882368804</v>
+        <v>99.862082776570105</v>
       </c>
       <c r="R270" s="16" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="271" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B271" s="17" t="s">
         <v>889</v>
       </c>
@@ -19547,7 +19547,7 @@
         <v>36.334186130214803</v>
       </c>
       <c r="N271" s="11">
-        <v>55.227134360257203</v>
+        <v>55.206619306398402</v>
       </c>
       <c r="O271" s="11">
         <v>76.258992805755398</v>
@@ -19556,13 +19556,13 @@
         <v>96.748068219340595</v>
       </c>
       <c r="Q271" s="11">
-        <v>97.597944024576407</v>
+        <v>97.585776642969606</v>
       </c>
       <c r="R271" s="16" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="272" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B272" s="17" t="s">
         <v>892</v>
       </c>
@@ -19600,7 +19600,7 @@
         <v>3.8728440752368498</v>
       </c>
       <c r="N272" s="11">
-        <v>3.6232243086063298</v>
+        <v>3.6232233847181301</v>
       </c>
       <c r="O272" s="11">
         <v>17.985611510791401</v>
@@ -19609,13 +19609,13 @@
         <v>46.896368573598203</v>
       </c>
       <c r="Q272" s="11">
-        <v>62.354165832263703</v>
+        <v>62.356091717115902</v>
       </c>
       <c r="R272" s="16" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="273" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B273" s="17" t="s">
         <v>895</v>
       </c>
@@ -19653,7 +19653,7 @@
         <v>93.112660233278703</v>
       </c>
       <c r="N273" s="11">
-        <v>95.229528904731893</v>
+        <v>95.320098496133696</v>
       </c>
       <c r="O273" s="11">
         <v>78.417266187050402</v>
@@ -19662,13 +19662,13 @@
         <v>97.870647803082605</v>
       </c>
       <c r="Q273" s="11">
-        <v>96.598288925149205</v>
+        <v>96.601385911762506</v>
       </c>
       <c r="R273" s="16" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="274" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B274" s="17" t="s">
         <v>898</v>
       </c>
@@ -19706,7 +19706,7 @@
         <v>74.904936216191103</v>
       </c>
       <c r="N274" s="11">
-        <v>79.145218595493901</v>
+        <v>79.222497941883901</v>
       </c>
       <c r="O274" s="11">
         <v>67.625899280575595</v>
@@ -19715,13 +19715,13 @@
         <v>94.852000113632002</v>
       </c>
       <c r="Q274" s="11">
-        <v>96.984633942039096</v>
+        <v>96.974132366981294</v>
       </c>
       <c r="R274" s="16" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="275" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="275" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B275" s="17" t="s">
         <v>901</v>
       </c>
@@ -19768,13 +19768,13 @@
         <v>34.710452441016997</v>
       </c>
       <c r="Q275" s="11">
-        <v>51.559460241376598</v>
+        <v>51.538302523860999</v>
       </c>
       <c r="R275" s="16" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="276" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B276" s="17" t="s">
         <v>904</v>
       </c>
@@ -19812,7 +19812,7 @@
         <v>4.3806342950248203</v>
       </c>
       <c r="N276" s="11">
-        <v>11.6735086443509</v>
+        <v>11.722304638159599</v>
       </c>
       <c r="O276" s="11">
         <v>21.582733812949598</v>
@@ -19821,13 +19821,13 @@
         <v>72.149148238161601</v>
       </c>
       <c r="Q276" s="11">
-        <v>76.353797385341807</v>
+        <v>76.3510613814164</v>
       </c>
       <c r="R276" s="16" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="277" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B277" s="17" t="s">
         <v>907</v>
       </c>
@@ -19865,7 +19865,7 @@
         <v>7.1138796799727002</v>
       </c>
       <c r="N277" s="11">
-        <v>16.027050456976301</v>
+        <v>16.077250477170399</v>
       </c>
       <c r="O277" s="11">
         <v>26.6187050359712</v>
@@ -19874,13 +19874,13 @@
         <v>67.127105915148405</v>
       </c>
       <c r="Q277" s="11">
-        <v>76.208945193828797</v>
+        <v>76.175661148718106</v>
       </c>
       <c r="R277" s="16" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="278" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="278" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B278" s="17" t="s">
         <v>910</v>
       </c>
@@ -19918,7 +19918,7 @@
         <v>91.181538142553507</v>
       </c>
       <c r="N278" s="11">
-        <v>95.698554850426206</v>
+        <v>95.697579954748605</v>
       </c>
       <c r="O278" s="11">
         <v>96.402877697841802</v>
@@ -19927,13 +19927,13 @@
         <v>99.551779817359304</v>
       </c>
       <c r="Q278" s="11">
-        <v>99.965697758440598</v>
+        <v>99.965659696911402</v>
       </c>
       <c r="R278" s="16" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="279" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B279" s="17" t="s">
         <v>914</v>
       </c>
@@ -19971,7 +19971,7 @@
         <v>99.670632217746203</v>
       </c>
       <c r="N279" s="11">
-        <v>99.515056332230202</v>
+        <v>99.515165918411199</v>
       </c>
       <c r="O279" s="11">
         <v>89.928057553956904</v>
@@ -19980,13 +19980,13 @@
         <v>99.954522124043706</v>
       </c>
       <c r="Q279" s="11">
-        <v>99.9863411049961</v>
+        <v>99.986313756374898</v>
       </c>
       <c r="R279" s="16" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="280" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="280" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B280" s="17" t="s">
         <v>919</v>
       </c>
@@ -20024,7 +20024,7 @@
         <v>99.670632217746203</v>
       </c>
       <c r="N280" s="11">
-        <v>99.515056332230202</v>
+        <v>99.515165918411199</v>
       </c>
       <c r="O280" s="11">
         <v>89.928057553956904</v>
@@ -20033,13 +20033,13 @@
         <v>99.954522124043706</v>
       </c>
       <c r="Q280" s="11">
-        <v>99.9863411049961</v>
+        <v>99.986313756374898</v>
       </c>
       <c r="R280" s="16" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="281" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B281" s="17" t="s">
         <v>922</v>
       </c>
@@ -20077,7 +20077,7 @@
         <v>99.670632217746203</v>
       </c>
       <c r="N281" s="11">
-        <v>99.515056332230202</v>
+        <v>99.515165918411199</v>
       </c>
       <c r="O281" s="11">
         <v>89.928057553956904</v>
@@ -20086,13 +20086,13 @@
         <v>99.954522124043706</v>
       </c>
       <c r="Q281" s="11">
-        <v>99.9863411049961</v>
+        <v>99.986313756374898</v>
       </c>
       <c r="R281" s="16" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="282" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="282" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B282" s="17" t="s">
         <v>925</v>
       </c>
@@ -20130,7 +20130,7 @@
         <v>99.670632217746203</v>
       </c>
       <c r="N282" s="11">
-        <v>99.515056332230202</v>
+        <v>99.515165918411199</v>
       </c>
       <c r="O282" s="11">
         <v>89.928057553956904</v>
@@ -20139,13 +20139,13 @@
         <v>99.954522124043706</v>
       </c>
       <c r="Q282" s="11">
-        <v>99.9863411049961</v>
+        <v>99.986313756374898</v>
       </c>
       <c r="R282" s="16" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="283" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="283" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B283" s="17" t="s">
         <v>928</v>
       </c>
@@ -20183,7 +20183,7 @@
         <v>99.670632217746203</v>
       </c>
       <c r="N283" s="11">
-        <v>99.515056332230202</v>
+        <v>99.515165918411199</v>
       </c>
       <c r="O283" s="11">
         <v>89.928057553956904</v>
@@ -20192,13 +20192,13 @@
         <v>99.954522124043706</v>
       </c>
       <c r="Q283" s="11">
-        <v>99.9863411049961</v>
+        <v>99.986313756374898</v>
       </c>
       <c r="R283" s="16" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="284" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="284" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B284" s="17" t="s">
         <v>931</v>
       </c>
@@ -20236,7 +20236,7 @@
         <v>99.670632217746203</v>
       </c>
       <c r="N284" s="11">
-        <v>99.515056332230202</v>
+        <v>99.515165918411199</v>
       </c>
       <c r="O284" s="11">
         <v>89.928057553956904</v>
@@ -20245,13 +20245,13 @@
         <v>99.954522124043706</v>
       </c>
       <c r="Q284" s="11">
-        <v>99.9863411049961</v>
+        <v>99.986313756374898</v>
       </c>
       <c r="R284" s="16" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="285" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="285" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B285" s="17" t="s">
         <v>934</v>
       </c>
@@ -20289,7 +20289,7 @@
         <v>99.670632217746203</v>
       </c>
       <c r="N285" s="11">
-        <v>99.515056332230202</v>
+        <v>99.515165918411199</v>
       </c>
       <c r="O285" s="11">
         <v>89.928057553956904</v>
@@ -20298,13 +20298,13 @@
         <v>99.954522124043706</v>
       </c>
       <c r="Q285" s="11">
-        <v>99.9863411049961</v>
+        <v>99.986313756374898</v>
       </c>
       <c r="R285" s="16" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="286" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="286" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B286" s="17" t="s">
         <v>937</v>
       </c>
@@ -20342,7 +20342,7 @@
         <v>99.670632217746203</v>
       </c>
       <c r="N286" s="11">
-        <v>99.515056332230202</v>
+        <v>99.515165918411199</v>
       </c>
       <c r="O286" s="11">
         <v>89.928057553956904</v>
@@ -20351,13 +20351,13 @@
         <v>99.954522124043706</v>
       </c>
       <c r="Q286" s="11">
-        <v>99.9863411049961</v>
+        <v>99.986313756374898</v>
       </c>
       <c r="R286" s="16" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="287" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="287" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B287" s="17" t="s">
         <v>940</v>
       </c>
@@ -20395,7 +20395,7 @@
         <v>99.670632217746203</v>
       </c>
       <c r="N287" s="11">
-        <v>99.515056332230202</v>
+        <v>99.515165918411199</v>
       </c>
       <c r="O287" s="11">
         <v>89.928057553956904</v>
@@ -20404,13 +20404,13 @@
         <v>99.954522124043706</v>
       </c>
       <c r="Q287" s="11">
-        <v>99.9863411049961</v>
+        <v>99.986313756374898</v>
       </c>
       <c r="R287" s="16" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="288" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="288" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B288" s="17" t="s">
         <v>943</v>
       </c>
@@ -20448,7 +20448,7 @@
         <v>99.670632217746203</v>
       </c>
       <c r="N288" s="11">
-        <v>99.515056332230202</v>
+        <v>99.515165918411199</v>
       </c>
       <c r="O288" s="11">
         <v>89.928057553956904</v>
@@ -20457,13 +20457,13 @@
         <v>99.954522124043706</v>
       </c>
       <c r="Q288" s="11">
-        <v>99.9863411049961</v>
+        <v>99.986313756374898</v>
       </c>
       <c r="R288" s="16" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="289" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="289" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B289" s="17" t="s">
         <v>946</v>
       </c>
@@ -20501,7 +20501,7 @@
         <v>99.670632217746203</v>
       </c>
       <c r="N289" s="11">
-        <v>99.515056332230202</v>
+        <v>99.515165918411199</v>
       </c>
       <c r="O289" s="11">
         <v>89.928057553956904</v>
@@ -20510,13 +20510,13 @@
         <v>99.954522124043706</v>
       </c>
       <c r="Q289" s="11">
-        <v>99.9863411049961</v>
+        <v>99.986313756374898</v>
       </c>
       <c r="R289" s="16" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="290" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="290" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B290" s="17" t="s">
         <v>949</v>
       </c>
@@ -20554,7 +20554,7 @@
         <v>99.670632217746203</v>
       </c>
       <c r="N290" s="11">
-        <v>99.515056332230202</v>
+        <v>99.515165918411199</v>
       </c>
       <c r="O290" s="11">
         <v>86.330935251798607</v>
@@ -20563,13 +20563,13 @@
         <v>99.058984117449498</v>
       </c>
       <c r="Q290" s="11">
-        <v>99.9863411049961</v>
+        <v>99.986313756374898</v>
       </c>
       <c r="R290" s="16" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="291" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="291" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B291" s="17" t="s">
         <v>952</v>
       </c>
@@ -20607,7 +20607,7 @@
         <v>99.670632217746203</v>
       </c>
       <c r="N291" s="11">
-        <v>99.515056332230202</v>
+        <v>99.515165918411199</v>
       </c>
       <c r="O291" s="11">
         <v>86.330935251798607</v>
@@ -20616,13 +20616,13 @@
         <v>99.058984117449498</v>
       </c>
       <c r="Q291" s="11">
-        <v>99.9863411049961</v>
+        <v>99.986313756374898</v>
       </c>
       <c r="R291" s="16" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="292" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="292" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B292" s="17" t="s">
         <v>955</v>
       </c>
@@ -20660,7 +20660,7 @@
         <v>99.670632217746203</v>
       </c>
       <c r="N292" s="11">
-        <v>99.515056332230202</v>
+        <v>99.515165918411199</v>
       </c>
       <c r="O292" s="11">
         <v>86.330935251798607</v>
@@ -20669,13 +20669,13 @@
         <v>99.058984117449498</v>
       </c>
       <c r="Q292" s="11">
-        <v>99.9863411049961</v>
+        <v>99.986313756374898</v>
       </c>
       <c r="R292" s="16" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="293" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="293" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B293" s="17" t="s">
         <v>958</v>
       </c>
@@ -20713,7 +20713,7 @@
         <v>99.670632217746203</v>
       </c>
       <c r="N293" s="11">
-        <v>99.515056332230202</v>
+        <v>99.515165918411199</v>
       </c>
       <c r="O293" s="11">
         <v>86.330935251798607</v>
@@ -20722,13 +20722,13 @@
         <v>99.058984117449498</v>
       </c>
       <c r="Q293" s="11">
-        <v>99.9863411049961</v>
+        <v>99.986313756374898</v>
       </c>
       <c r="R293" s="16" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="294" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="294" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B294" s="17" t="s">
         <v>961</v>
       </c>
@@ -20766,7 +20766,7 @@
         <v>99.670632217746203</v>
       </c>
       <c r="N294" s="11">
-        <v>99.515056332230202</v>
+        <v>99.515165918411199</v>
       </c>
       <c r="O294" s="11">
         <v>86.330935251798607</v>
@@ -20775,13 +20775,13 @@
         <v>99.058984117449498</v>
       </c>
       <c r="Q294" s="11">
-        <v>99.9863411049961</v>
+        <v>99.986313756374898</v>
       </c>
       <c r="R294" s="16" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="295" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="295" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B295" s="17" t="s">
         <v>964</v>
       </c>
@@ -20819,7 +20819,7 @@
         <v>99.670632217746203</v>
       </c>
       <c r="N295" s="11">
-        <v>99.515056332230202</v>
+        <v>99.515165918411199</v>
       </c>
       <c r="O295" s="11">
         <v>86.330935251798607</v>
@@ -20828,13 +20828,13 @@
         <v>99.058984117449498</v>
       </c>
       <c r="Q295" s="11">
-        <v>99.9863411049961</v>
+        <v>99.986313756374898</v>
       </c>
       <c r="R295" s="16" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="296" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="296" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B296" s="17" t="s">
         <v>967</v>
       </c>
@@ -20872,7 +20872,7 @@
         <v>99.670632217746203</v>
       </c>
       <c r="N296" s="11">
-        <v>99.515056332230202</v>
+        <v>99.515165918411199</v>
       </c>
       <c r="O296" s="11">
         <v>86.330935251798607</v>
@@ -20881,13 +20881,13 @@
         <v>99.058984117449498</v>
       </c>
       <c r="Q296" s="11">
-        <v>99.9863411049961</v>
+        <v>99.986313756374898</v>
       </c>
       <c r="R296" s="16" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="297" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="297" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B297" s="17" t="s">
         <v>970</v>
       </c>
@@ -20925,7 +20925,7 @@
         <v>99.670632217746203</v>
       </c>
       <c r="N297" s="11">
-        <v>99.515056332230202</v>
+        <v>99.515165918411199</v>
       </c>
       <c r="O297" s="11">
         <v>86.330935251798607</v>
@@ -20934,13 +20934,13 @@
         <v>99.058984117449498</v>
       </c>
       <c r="Q297" s="11">
-        <v>99.9863411049961</v>
+        <v>99.986313756374898</v>
       </c>
       <c r="R297" s="16" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="298" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="298" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B298" s="17" t="s">
         <v>973</v>
       </c>
@@ -20978,7 +20978,7 @@
         <v>99.670632217746203</v>
       </c>
       <c r="N298" s="11">
-        <v>99.515056332230202</v>
+        <v>99.515165918411199</v>
       </c>
       <c r="O298" s="11">
         <v>86.330935251798607</v>
@@ -20987,13 +20987,13 @@
         <v>99.058984117449498</v>
       </c>
       <c r="Q298" s="11">
-        <v>99.9863411049961</v>
+        <v>99.986313756374898</v>
       </c>
       <c r="R298" s="16" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="299" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="299" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B299" s="17" t="s">
         <v>976</v>
       </c>
@@ -21031,7 +21031,7 @@
         <v>99.670632217746203</v>
       </c>
       <c r="N299" s="11">
-        <v>99.515056332230202</v>
+        <v>99.515165918411199</v>
       </c>
       <c r="O299" s="11">
         <v>86.330935251798607</v>
@@ -21040,13 +21040,13 @@
         <v>99.058984117449498</v>
       </c>
       <c r="Q299" s="11">
-        <v>99.9863411049961</v>
+        <v>99.986313756374898</v>
       </c>
       <c r="R299" s="16" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="300" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="300" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B300" s="17" t="s">
         <v>979</v>
       </c>
@@ -21084,7 +21084,7 @@
         <v>99.670632217746203</v>
       </c>
       <c r="N300" s="11">
-        <v>99.515056332230202</v>
+        <v>99.515165918411199</v>
       </c>
       <c r="O300" s="11">
         <v>86.330935251798607</v>
@@ -21093,13 +21093,13 @@
         <v>99.058984117449498</v>
       </c>
       <c r="Q300" s="11">
-        <v>99.9863411049961</v>
+        <v>99.986313756374898</v>
       </c>
       <c r="R300" s="16" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="301" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="301" spans="2:18" ht="112.2" x14ac:dyDescent="0.3">
       <c r="B301" s="17" t="s">
         <v>983</v>
       </c>
@@ -21152,7 +21152,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="302" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="302" spans="2:18" ht="112.2" x14ac:dyDescent="0.3">
       <c r="B302" s="17" t="s">
         <v>988</v>
       </c>
@@ -21205,7 +21205,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="303" spans="2:18" ht="126" x14ac:dyDescent="0.35">
+    <row r="303" spans="2:18" ht="112.2" x14ac:dyDescent="0.3">
       <c r="B303" s="17" t="s">
         <v>991</v>
       </c>
@@ -21258,7 +21258,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="304" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="304" spans="2:18" ht="102" x14ac:dyDescent="0.3">
       <c r="B304" s="17" t="s">
         <v>994</v>
       </c>
@@ -21311,7 +21311,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="305" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="305" spans="2:18" ht="102" x14ac:dyDescent="0.3">
       <c r="B305" s="17" t="s">
         <v>997</v>
       </c>
@@ -21364,7 +21364,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="306" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="306" spans="2:18" ht="112.2" x14ac:dyDescent="0.3">
       <c r="B306" s="17" t="s">
         <v>1000</v>
       </c>
@@ -21417,7 +21417,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="307" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="307" spans="2:18" ht="112.2" x14ac:dyDescent="0.3">
       <c r="B307" s="17" t="s">
         <v>1003</v>
       </c>
@@ -21470,7 +21470,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="308" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="308" spans="2:18" ht="112.2" x14ac:dyDescent="0.3">
       <c r="B308" s="17" t="s">
         <v>1006</v>
       </c>
@@ -21523,7 +21523,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="309" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="309" spans="2:18" ht="112.2" x14ac:dyDescent="0.3">
       <c r="B309" s="17" t="s">
         <v>1009</v>
       </c>
@@ -21576,7 +21576,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="310" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="310" spans="2:18" ht="102" x14ac:dyDescent="0.3">
       <c r="B310" s="17" t="s">
         <v>1012</v>
       </c>
@@ -21629,7 +21629,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="311" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="311" spans="2:18" ht="102" x14ac:dyDescent="0.3">
       <c r="B311" s="17" t="s">
         <v>1015</v>
       </c>
@@ -21682,7 +21682,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="312" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="312" spans="2:18" ht="112.2" x14ac:dyDescent="0.3">
       <c r="B312" s="17" t="s">
         <v>1018</v>
       </c>
@@ -21735,7 +21735,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="313" spans="2:18" ht="294" x14ac:dyDescent="0.35">
+    <row r="313" spans="2:18" ht="285.60000000000002" x14ac:dyDescent="0.3">
       <c r="B313" s="17" t="s">
         <v>1022</v>
       </c>
@@ -21782,13 +21782,13 @@
         <v>99.997507447122103</v>
       </c>
       <c r="Q313" s="11">
-        <v>99.994604624668597</v>
+        <v>99.994607306844699</v>
       </c>
       <c r="R313" s="16" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="314" spans="2:18" ht="283.5" x14ac:dyDescent="0.35">
+    <row r="314" spans="2:18" ht="275.39999999999998" x14ac:dyDescent="0.3">
       <c r="B314" s="17" t="s">
         <v>1029</v>
       </c>
@@ -21835,13 +21835,13 @@
         <v>99.285070063052999</v>
       </c>
       <c r="Q314" s="11">
-        <v>99.993883354179005</v>
+        <v>99.993881414916501</v>
       </c>
       <c r="R314" s="16" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="315" spans="2:18" ht="283.5" x14ac:dyDescent="0.35">
+    <row r="315" spans="2:18" ht="275.39999999999998" x14ac:dyDescent="0.3">
       <c r="B315" s="17" t="s">
         <v>1032</v>
       </c>
@@ -21894,7 +21894,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="316" spans="2:18" ht="294" x14ac:dyDescent="0.35">
+    <row r="316" spans="2:18" ht="275.39999999999998" x14ac:dyDescent="0.3">
       <c r="B316" s="17" t="s">
         <v>1035</v>
       </c>
@@ -21947,7 +21947,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="317" spans="2:18" ht="294" x14ac:dyDescent="0.35">
+    <row r="317" spans="2:18" ht="285.60000000000002" x14ac:dyDescent="0.3">
       <c r="B317" s="17" t="s">
         <v>1038</v>
       </c>
@@ -22000,7 +22000,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="318" spans="2:18" ht="294" x14ac:dyDescent="0.35">
+    <row r="318" spans="2:18" ht="285.60000000000002" x14ac:dyDescent="0.3">
       <c r="B318" s="17" t="s">
         <v>1041</v>
       </c>
@@ -22047,13 +22047,13 @@
         <v>99.595665604554398</v>
       </c>
       <c r="Q318" s="11">
-        <v>99.999917712588299</v>
+        <v>99.999917605910596</v>
       </c>
       <c r="R318" s="16" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="319" spans="2:18" ht="283.5" x14ac:dyDescent="0.35">
+    <row r="319" spans="2:18" ht="275.39999999999998" x14ac:dyDescent="0.3">
       <c r="B319" s="17" t="s">
         <v>1044</v>
       </c>
@@ -22106,7 +22106,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="320" spans="2:18" ht="273" x14ac:dyDescent="0.35">
+    <row r="320" spans="2:18" ht="265.2" x14ac:dyDescent="0.3">
       <c r="B320" s="17" t="s">
         <v>1047</v>
       </c>
@@ -22144,7 +22144,7 @@
         <v>92.362023936392603</v>
       </c>
       <c r="N320" s="11">
-        <v>85.734471627083906</v>
+        <v>85.737457331766194</v>
       </c>
       <c r="O320" s="11">
         <v>79.136690647481998</v>
@@ -22153,13 +22153,13 @@
         <v>97.472827920441901</v>
       </c>
       <c r="Q320" s="11">
-        <v>99.023793657794101</v>
+        <v>99.025169985392097</v>
       </c>
       <c r="R320" s="16" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="321" spans="2:18" ht="273" x14ac:dyDescent="0.35">
+    <row r="321" spans="2:18" ht="265.2" x14ac:dyDescent="0.3">
       <c r="B321" s="17" t="s">
         <v>1050</v>
       </c>
@@ -22212,7 +22212,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="322" spans="2:18" ht="283.5" x14ac:dyDescent="0.35">
+    <row r="322" spans="2:18" ht="275.39999999999998" x14ac:dyDescent="0.3">
       <c r="B322" s="17" t="s">
         <v>1053</v>
       </c>
@@ -22265,7 +22265,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="323" spans="2:18" ht="241.5" x14ac:dyDescent="0.35">
+    <row r="323" spans="2:18" ht="234.6" x14ac:dyDescent="0.3">
       <c r="B323" s="17" t="s">
         <v>1056</v>
       </c>
@@ -22303,7 +22303,7 @@
         <v>95.900578748480697</v>
       </c>
       <c r="N323" s="11">
-        <v>96.9872749303576</v>
+        <v>96.989068498585098</v>
       </c>
       <c r="O323" s="11">
         <v>96.402877697841802</v>
@@ -22312,13 +22312,13 @@
         <v>99.5933610154039</v>
       </c>
       <c r="Q323" s="11">
-        <v>99.994604624668597</v>
+        <v>99.994607306844699</v>
       </c>
       <c r="R323" s="16" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="324" spans="2:18" ht="241.5" x14ac:dyDescent="0.35">
+    <row r="324" spans="2:18" ht="234.6" x14ac:dyDescent="0.3">
       <c r="B324" s="17" t="s">
         <v>1059</v>
       </c>
@@ -22371,7 +22371,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="325" spans="2:18" ht="241.5" x14ac:dyDescent="0.35">
+    <row r="325" spans="2:18" ht="234.6" x14ac:dyDescent="0.3">
       <c r="B325" s="17" t="s">
         <v>1062</v>
       </c>
@@ -22424,7 +22424,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="326" spans="2:18" ht="294" x14ac:dyDescent="0.35">
+    <row r="326" spans="2:18" ht="285.60000000000002" x14ac:dyDescent="0.3">
       <c r="B326" s="17" t="s">
         <v>1065</v>
       </c>
@@ -22462,7 +22462,7 @@
         <v>79.328628008208</v>
       </c>
       <c r="N326" s="11">
-        <v>90.346817627746404</v>
+        <v>90.348465679007006</v>
       </c>
       <c r="O326" s="11">
         <v>78.417266187050402</v>
@@ -22471,13 +22471,13 @@
         <v>99.141235439295997</v>
       </c>
       <c r="Q326" s="11">
-        <v>99.901753397965606</v>
+        <v>99.901771414423706</v>
       </c>
       <c r="R326" s="16" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="327" spans="2:18" ht="262.5" x14ac:dyDescent="0.35">
+    <row r="327" spans="2:18" ht="255" x14ac:dyDescent="0.3">
       <c r="B327" s="17" t="s">
         <v>1068</v>
       </c>
@@ -22524,13 +22524,13 @@
         <v>99.103088528683699</v>
       </c>
       <c r="Q327" s="11">
-        <v>99.982818723205796</v>
+        <v>99.982802705647302</v>
       </c>
       <c r="R327" s="16" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="328" spans="2:18" ht="283.5" x14ac:dyDescent="0.35">
+    <row r="328" spans="2:18" ht="275.39999999999998" x14ac:dyDescent="0.3">
       <c r="B328" s="17" t="s">
         <v>1071</v>
       </c>
@@ -22577,13 +22577,13 @@
         <v>99.287177923981602</v>
       </c>
       <c r="Q328" s="11">
-        <v>99.994292868341205</v>
+        <v>99.994290913541107</v>
       </c>
       <c r="R328" s="16" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="329" spans="2:18" ht="294" x14ac:dyDescent="0.35">
+    <row r="329" spans="2:18" ht="275.39999999999998" x14ac:dyDescent="0.3">
       <c r="B329" s="17" t="s">
         <v>1074</v>
       </c>
@@ -22630,13 +22630,13 @@
         <v>99.997507447122103</v>
       </c>
       <c r="Q329" s="11">
-        <v>99.994604624668597</v>
+        <v>99.994607306844699</v>
       </c>
       <c r="R329" s="16" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="330" spans="2:18" ht="252" x14ac:dyDescent="0.35">
+    <row r="330" spans="2:18" ht="244.8" x14ac:dyDescent="0.3">
       <c r="B330" s="17" t="s">
         <v>1077</v>
       </c>
@@ -22674,7 +22674,7 @@
         <v>98.917081061607803</v>
       </c>
       <c r="N330" s="11">
-        <v>99.819356024007305</v>
+        <v>99.819454933531006</v>
       </c>
       <c r="O330" s="11">
         <v>90.647482014388501</v>
@@ -22683,13 +22683,13 @@
         <v>98.684286963634506</v>
       </c>
       <c r="Q330" s="11">
-        <v>99.925999288068596</v>
+        <v>99.926044713179607</v>
       </c>
       <c r="R330" s="16" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="331" spans="2:18" ht="283.5" x14ac:dyDescent="0.35">
+    <row r="331" spans="2:18" ht="275.39999999999998" x14ac:dyDescent="0.3">
       <c r="B331" s="17" t="s">
         <v>1080</v>
       </c>
@@ -22727,7 +22727,7 @@
         <v>95.900578748480697</v>
       </c>
       <c r="N331" s="11">
-        <v>96.9872749303576</v>
+        <v>96.989068498585098</v>
       </c>
       <c r="O331" s="11">
         <v>100</v>
@@ -22742,7 +22742,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="332" spans="2:18" ht="262.5" x14ac:dyDescent="0.35">
+    <row r="332" spans="2:18" ht="255" x14ac:dyDescent="0.3">
       <c r="B332" s="17" t="s">
         <v>1083</v>
       </c>
@@ -22780,7 +22780,7 @@
         <v>89.075950020950799</v>
       </c>
       <c r="N332" s="11">
-        <v>82.809874647488996</v>
+        <v>82.814606248107594</v>
       </c>
       <c r="O332" s="11">
         <v>75.539568345323801</v>
@@ -22789,13 +22789,13 @@
         <v>96.872423995755099</v>
       </c>
       <c r="Q332" s="11">
-        <v>98.956138162063297</v>
+        <v>98.957556571637696</v>
       </c>
       <c r="R332" s="16" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="333" spans="2:18" ht="220.5" x14ac:dyDescent="0.35">
+    <row r="333" spans="2:18" ht="214.2" x14ac:dyDescent="0.3">
       <c r="B333" s="17" t="s">
         <v>1087</v>
       </c>
@@ -22848,7 +22848,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="334" spans="2:18" ht="220.5" x14ac:dyDescent="0.35">
+    <row r="334" spans="2:18" ht="214.2" x14ac:dyDescent="0.3">
       <c r="B334" s="17" t="s">
         <v>1092</v>
       </c>
@@ -22901,7 +22901,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="335" spans="2:18" ht="220.5" x14ac:dyDescent="0.35">
+    <row r="335" spans="2:18" ht="214.2" x14ac:dyDescent="0.3">
       <c r="B335" s="17" t="s">
         <v>1096</v>
       </c>
@@ -22954,7 +22954,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="336" spans="2:18" ht="294" x14ac:dyDescent="0.35">
+    <row r="336" spans="2:18" ht="285.60000000000002" x14ac:dyDescent="0.3">
       <c r="B336" s="17" t="s">
         <v>1099</v>
       </c>
@@ -22992,7 +22992,7 @@
         <v>95.902075833189102</v>
       </c>
       <c r="N336" s="11">
-        <v>97.141470057497401</v>
+        <v>97.142045986734502</v>
       </c>
       <c r="O336" s="11">
         <v>95.683453237410106</v>
@@ -23001,13 +23001,13 @@
         <v>99.103267706072401</v>
       </c>
       <c r="Q336" s="11">
-        <v>99.996410969525797</v>
+        <v>99.996413200528096</v>
       </c>
       <c r="R336" s="16" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="337" spans="2:18" ht="294" x14ac:dyDescent="0.35">
+    <row r="337" spans="2:18" ht="285.60000000000002" x14ac:dyDescent="0.3">
       <c r="B337" s="17" t="s">
         <v>1102</v>
       </c>
@@ -23045,7 +23045,7 @@
         <v>95.902075833189102</v>
       </c>
       <c r="N337" s="11">
-        <v>97.141470057497401</v>
+        <v>97.142045986734502</v>
       </c>
       <c r="O337" s="11">
         <v>95.683453237410106</v>
@@ -23054,13 +23054,13 @@
         <v>99.103267706072401</v>
       </c>
       <c r="Q337" s="11">
-        <v>99.996410969525797</v>
+        <v>99.996413200528096</v>
       </c>
       <c r="R337" s="16" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="338" spans="2:18" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="338" spans="2:18" ht="295.8" x14ac:dyDescent="0.3">
       <c r="B338" s="17" t="s">
         <v>1105</v>
       </c>
@@ -23098,7 +23098,7 @@
         <v>95.902075833189102</v>
       </c>
       <c r="N338" s="11">
-        <v>97.141470057497401</v>
+        <v>97.142045986734502</v>
       </c>
       <c r="O338" s="11">
         <v>95.683453237410106</v>
@@ -23107,13 +23107,13 @@
         <v>99.103267706072401</v>
       </c>
       <c r="Q338" s="11">
-        <v>99.996410969525797</v>
+        <v>99.996413200528096</v>
       </c>
       <c r="R338" s="16" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="339" spans="2:18" ht="231" x14ac:dyDescent="0.35">
+    <row r="339" spans="2:18" ht="224.4" x14ac:dyDescent="0.3">
       <c r="B339" s="17" t="s">
         <v>1108</v>
       </c>
@@ -23166,7 +23166,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="340" spans="2:18" ht="241.5" x14ac:dyDescent="0.35">
+    <row r="340" spans="2:18" ht="234.6" x14ac:dyDescent="0.3">
       <c r="B340" s="17" t="s">
         <v>1111</v>
       </c>
@@ -23219,7 +23219,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="341" spans="2:18" ht="252" x14ac:dyDescent="0.35">
+    <row r="341" spans="2:18" ht="244.8" x14ac:dyDescent="0.3">
       <c r="B341" s="17" t="s">
         <v>1114</v>
       </c>
@@ -23272,7 +23272,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="342" spans="2:18" ht="325.5" x14ac:dyDescent="0.35">
+    <row r="342" spans="2:18" ht="316.2" x14ac:dyDescent="0.3">
       <c r="B342" s="17" t="s">
         <v>1117</v>
       </c>
@@ -23310,7 +23310,7 @@
         <v>95.902075833189102</v>
       </c>
       <c r="N342" s="11">
-        <v>97.141470057497401</v>
+        <v>97.142045986734502</v>
       </c>
       <c r="O342" s="11">
         <v>95.683453237410106</v>
@@ -23319,13 +23319,13 @@
         <v>99.103267706072401</v>
       </c>
       <c r="Q342" s="11">
-        <v>99.996410969525797</v>
+        <v>99.996413200528096</v>
       </c>
       <c r="R342" s="16" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="343" spans="2:18" ht="315" x14ac:dyDescent="0.35">
+    <row r="343" spans="2:18" ht="306" x14ac:dyDescent="0.3">
       <c r="B343" s="17" t="s">
         <v>1120</v>
       </c>
@@ -23363,7 +23363,7 @@
         <v>95.902075833189102</v>
       </c>
       <c r="N343" s="11">
-        <v>97.141470057497401</v>
+        <v>97.142045986734502</v>
       </c>
       <c r="O343" s="11">
         <v>95.683453237410106</v>
@@ -23372,13 +23372,13 @@
         <v>99.103267706072401</v>
       </c>
       <c r="Q343" s="11">
-        <v>99.996410969525797</v>
+        <v>99.996413200528096</v>
       </c>
       <c r="R343" s="16" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="344" spans="2:18" ht="325.5" x14ac:dyDescent="0.35">
+    <row r="344" spans="2:18" ht="316.2" x14ac:dyDescent="0.3">
       <c r="B344" s="17" t="s">
         <v>1123</v>
       </c>
@@ -23416,7 +23416,7 @@
         <v>95.902075833189102</v>
       </c>
       <c r="N344" s="11">
-        <v>97.141470057497401</v>
+        <v>97.142045986734502</v>
       </c>
       <c r="O344" s="11">
         <v>95.683453237410106</v>
@@ -23425,13 +23425,13 @@
         <v>99.103267706072401</v>
       </c>
       <c r="Q344" s="11">
-        <v>99.996410969525797</v>
+        <v>99.996413200528096</v>
       </c>
       <c r="R344" s="16" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="345" spans="2:18" ht="210" x14ac:dyDescent="0.35">
+    <row r="345" spans="2:18" ht="204" x14ac:dyDescent="0.3">
       <c r="B345" s="17" t="s">
         <v>1126</v>
       </c>
@@ -23484,7 +23484,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="346" spans="2:18" ht="241.5" x14ac:dyDescent="0.35">
+    <row r="346" spans="2:18" ht="234.6" x14ac:dyDescent="0.3">
       <c r="B346" s="17" t="s">
         <v>1129</v>
       </c>
@@ -23537,7 +23537,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="347" spans="2:18" ht="241.5" x14ac:dyDescent="0.35">
+    <row r="347" spans="2:18" ht="234.6" x14ac:dyDescent="0.3">
       <c r="B347" s="17" t="s">
         <v>1132</v>
       </c>
@@ -23590,7 +23590,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="348" spans="2:18" ht="346.5" x14ac:dyDescent="0.35">
+    <row r="348" spans="2:18" ht="326.39999999999998" x14ac:dyDescent="0.3">
       <c r="B348" s="17" t="s">
         <v>1135</v>
       </c>
@@ -23643,7 +23643,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="349" spans="2:18" ht="252" x14ac:dyDescent="0.35">
+    <row r="349" spans="2:18" ht="244.8" x14ac:dyDescent="0.3">
       <c r="B349" s="17" t="s">
         <v>1138</v>
       </c>
@@ -23696,7 +23696,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="350" spans="2:18" ht="231" x14ac:dyDescent="0.35">
+    <row r="350" spans="2:18" ht="224.4" x14ac:dyDescent="0.3">
       <c r="B350" s="17" t="s">
         <v>1141</v>
       </c>
@@ -23749,7 +23749,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="351" spans="2:18" ht="199.5" x14ac:dyDescent="0.35">
+    <row r="351" spans="2:18" ht="183.6" x14ac:dyDescent="0.3">
       <c r="B351" s="17" t="s">
         <v>1144</v>
       </c>
@@ -23802,7 +23802,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="352" spans="2:18" ht="168" x14ac:dyDescent="0.35">
+    <row r="352" spans="2:18" ht="163.19999999999999" x14ac:dyDescent="0.3">
       <c r="B352" s="17" t="s">
         <v>1147</v>
       </c>
@@ -23855,7 +23855,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="353" spans="2:18" ht="220.5" x14ac:dyDescent="0.35">
+    <row r="353" spans="2:18" ht="214.2" x14ac:dyDescent="0.3">
       <c r="B353" s="17" t="s">
         <v>1150</v>
       </c>
@@ -23908,7 +23908,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="354" spans="2:18" ht="220.5" x14ac:dyDescent="0.35">
+    <row r="354" spans="2:18" ht="214.2" x14ac:dyDescent="0.3">
       <c r="B354" s="17" t="s">
         <v>1153</v>
       </c>
@@ -23961,7 +23961,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="355" spans="2:18" ht="262.5" x14ac:dyDescent="0.35">
+    <row r="355" spans="2:18" ht="244.8" x14ac:dyDescent="0.3">
       <c r="B355" s="17" t="s">
         <v>1156</v>
       </c>
@@ -24014,7 +24014,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="356" spans="2:18" ht="273" x14ac:dyDescent="0.35">
+    <row r="356" spans="2:18" ht="265.2" x14ac:dyDescent="0.3">
       <c r="B356" s="17" t="s">
         <v>1159</v>
       </c>
@@ -24067,7 +24067,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="357" spans="2:18" ht="294" x14ac:dyDescent="0.35">
+    <row r="357" spans="2:18" ht="285.60000000000002" x14ac:dyDescent="0.3">
       <c r="B357" s="17" t="s">
         <v>1162</v>
       </c>
@@ -24120,7 +24120,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="358" spans="2:18" ht="178.5" x14ac:dyDescent="0.35">
+    <row r="358" spans="2:18" ht="173.4" x14ac:dyDescent="0.3">
       <c r="B358" s="17" t="s">
         <v>1166</v>
       </c>
@@ -24158,7 +24158,7 @@
         <v>71.341813442308094</v>
       </c>
       <c r="N358" s="11">
-        <v>64.682082058817898</v>
+        <v>64.672289579366705</v>
       </c>
       <c r="O358" s="11">
         <v>62.589928057553998</v>
@@ -24167,13 +24167,13 @@
         <v>59.020559840981903</v>
       </c>
       <c r="Q358" s="11">
-        <v>47.250730160411102</v>
+        <v>47.291315261804897</v>
       </c>
       <c r="R358" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="359" spans="2:18" ht="178.5" x14ac:dyDescent="0.35">
+    <row r="359" spans="2:18" ht="173.4" x14ac:dyDescent="0.3">
       <c r="B359" s="17" t="s">
         <v>1169</v>
       </c>
@@ -24211,7 +24211,7 @@
         <v>71.341813442308094</v>
       </c>
       <c r="N359" s="11">
-        <v>64.682082058817898</v>
+        <v>64.672289579366705</v>
       </c>
       <c r="O359" s="11">
         <v>62.589928057553998</v>
@@ -24220,13 +24220,13 @@
         <v>59.020559840981903</v>
       </c>
       <c r="Q359" s="11">
-        <v>47.250730160411102</v>
+        <v>47.291315261804897</v>
       </c>
       <c r="R359" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="360" spans="2:18" ht="178.5" x14ac:dyDescent="0.35">
+    <row r="360" spans="2:18" ht="173.4" x14ac:dyDescent="0.3">
       <c r="B360" s="17" t="s">
         <v>1172</v>
       </c>
@@ -24264,7 +24264,7 @@
         <v>71.341813442308094</v>
       </c>
       <c r="N360" s="11">
-        <v>64.682082058817898</v>
+        <v>64.672289579366705</v>
       </c>
       <c r="O360" s="11">
         <v>62.589928057553998</v>
@@ -24273,13 +24273,13 @@
         <v>59.020559840981903</v>
       </c>
       <c r="Q360" s="11">
-        <v>47.250730160411102</v>
+        <v>47.291315261804897</v>
       </c>
       <c r="R360" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="361" spans="2:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="361" spans="2:18" ht="51" x14ac:dyDescent="0.3">
       <c r="B361" s="17" t="s">
         <v>1175</v>
       </c>
@@ -24317,7 +24317,7 @@
         <v>89.019456371986394</v>
       </c>
       <c r="N361" s="11">
-        <v>91.010888926297696</v>
+        <v>90.982535081078595</v>
       </c>
       <c r="O361" s="11">
         <v>65.467625899280605</v>
@@ -24326,13 +24326,13 @@
         <v>95.740366480682397</v>
       </c>
       <c r="Q361" s="11">
-        <v>98.428229155675893</v>
+        <v>98.425126789466802</v>
       </c>
       <c r="R361" s="16" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="362" spans="2:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="362" spans="2:18" ht="51" x14ac:dyDescent="0.3">
       <c r="B362" s="17" t="s">
         <v>1180</v>
       </c>
@@ -24370,7 +24370,7 @@
         <v>95.016854650736803</v>
       </c>
       <c r="N362" s="11">
-        <v>94.162426870926197</v>
+        <v>94.163370755078802</v>
       </c>
       <c r="O362" s="11">
         <v>76.978417266187094</v>
@@ -24379,13 +24379,13 @@
         <v>97.243426309240704</v>
       </c>
       <c r="Q362" s="11">
-        <v>99.120530627107797</v>
+        <v>99.121030564837298</v>
       </c>
       <c r="R362" s="16" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="363" spans="2:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="363" spans="2:18" ht="51" x14ac:dyDescent="0.3">
       <c r="B363" s="17" t="s">
         <v>1184</v>
       </c>
@@ -24423,7 +24423,7 @@
         <v>84.719309178310994</v>
       </c>
       <c r="N363" s="11">
-        <v>70.761570444903199</v>
+        <v>70.7375852193085</v>
       </c>
       <c r="O363" s="11">
         <v>46.043165467625897</v>
@@ -24432,13 +24432,13 @@
         <v>49.120136059470198</v>
       </c>
       <c r="Q363" s="11">
-        <v>25.4775228055538</v>
+        <v>25.457942825384499</v>
       </c>
       <c r="R363" s="16" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="364" spans="2:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="364" spans="2:18" ht="51" x14ac:dyDescent="0.3">
       <c r="B364" s="17" t="s">
         <v>1187</v>
       </c>
@@ -24476,7 +24476,7 @@
         <v>84.719309178310994</v>
       </c>
       <c r="N364" s="11">
-        <v>70.761570444903199</v>
+        <v>70.7375852193085</v>
       </c>
       <c r="O364" s="11">
         <v>45.3237410071943</v>
@@ -24485,13 +24485,13 @@
         <v>48.959819794957703</v>
       </c>
       <c r="Q364" s="11">
-        <v>25.021984324279</v>
+        <v>25.001888320700001</v>
       </c>
       <c r="R364" s="16" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="365" spans="2:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="365" spans="2:18" ht="51" x14ac:dyDescent="0.3">
       <c r="B365" s="17" t="s">
         <v>1190</v>
       </c>
@@ -24527,7 +24527,7 @@
         <v>84.719309178310994</v>
       </c>
       <c r="N365" s="11">
-        <v>70.761570444903199</v>
+        <v>70.7375852193085</v>
       </c>
       <c r="O365" s="11">
         <v>45.3237410071943</v>
@@ -24536,13 +24536,13 @@
         <v>48.959819794957703</v>
       </c>
       <c r="Q365" s="11">
-        <v>25.021984324279</v>
+        <v>25.001888320700001</v>
       </c>
       <c r="R365" s="16" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="366" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="366" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B366" s="17"/>
       <c r="C366" s="18"/>
       <c r="D366" s="15"/>
@@ -24561,7 +24561,7 @@
       <c r="Q366" s="11"/>
       <c r="R366" s="15"/>
     </row>
-    <row r="367" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="367" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B367" s="19" t="s">
         <v>1193</v>
       </c>
@@ -24582,7 +24582,7 @@
       <c r="Q367" s="11"/>
       <c r="R367" s="15"/>
     </row>
-    <row r="368" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="368" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B368" s="2"/>
       <c r="C368" s="20"/>
       <c r="D368" s="15"/>
@@ -24601,7 +24601,7 @@
       <c r="Q368" s="11"/>
       <c r="R368" s="15"/>
     </row>
-    <row r="369" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="369" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B369" s="2" t="s">
         <v>1194</v>
       </c>
@@ -24617,7 +24617,7 @@
       <c r="Q369"/>
       <c r="R369"/>
     </row>
-    <row r="370" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="370" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B370" s="2" t="s">
         <v>1195</v>
       </c>
@@ -24633,7 +24633,7 @@
       <c r="Q370"/>
       <c r="R370"/>
     </row>
-    <row r="371" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="371" spans="2:18" x14ac:dyDescent="0.3">
       <c r="D371"/>
       <c r="I371"/>
       <c r="J371"/>
@@ -24646,7 +24646,7 @@
       <c r="Q371"/>
       <c r="R371"/>
     </row>
-    <row r="372" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="372" spans="2:18" x14ac:dyDescent="0.3">
       <c r="D372"/>
       <c r="I372"/>
       <c r="J372"/>
@@ -24659,7 +24659,7 @@
       <c r="Q372"/>
       <c r="R372"/>
     </row>
-    <row r="373" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="373" spans="2:18" x14ac:dyDescent="0.3">
       <c r="D373"/>
       <c r="I373"/>
       <c r="J373"/>
@@ -24672,7 +24672,7 @@
       <c r="Q373"/>
       <c r="R373"/>
     </row>
-    <row r="374" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="374" spans="2:18" x14ac:dyDescent="0.3">
       <c r="D374"/>
       <c r="I374"/>
       <c r="J374"/>
@@ -24685,7 +24685,7 @@
       <c r="Q374"/>
       <c r="R374"/>
     </row>
-    <row r="375" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="375" spans="2:18" x14ac:dyDescent="0.3">
       <c r="D375"/>
       <c r="I375"/>
       <c r="J375"/>
@@ -24700,9 +24700,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B367" r:id="rId1" xr:uid="{269AD6CD-1E01-49DA-9282-C162E0B5C929}"/>
-    <hyperlink ref="B370" r:id="rId2" xr:uid="{C61FDB09-04C9-422B-BB3E-F7A36C429D29}"/>
-    <hyperlink ref="B369" r:id="rId3" xr:uid="{5F5C8C17-4214-48CC-B869-13520CC0F412}"/>
+    <hyperlink ref="B367" r:id="rId1" xr:uid="{5626CA5D-56A7-43FB-A981-7AA84AD8A810}"/>
+    <hyperlink ref="B370" r:id="rId2" xr:uid="{65EAC7A9-D3A7-442D-B0FD-163A8D10E3EC}"/>
+    <hyperlink ref="B369" r:id="rId3" xr:uid="{F33AC2ED-C9F6-408D-B7A0-7354346E0D44}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
